--- a/BackTest/2019-10-09 BackTest PPT.xlsx
+++ b/BackTest/2019-10-09 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>307</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>31.69014084507042</v>
+      </c>
       <c r="L12" t="n">
         <v>1475.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>357</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20.64516129032258</v>
+      </c>
       <c r="L13" t="n">
         <v>1479.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>405</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>41.14114114114114</v>
+      </c>
       <c r="L14" t="n">
         <v>1490.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>474</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>10.45576407506702</v>
+      </c>
       <c r="L15" t="n">
         <v>1497.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>504</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>32.95774647887324</v>
+      </c>
       <c r="L16" t="n">
         <v>1504.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>526</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>36.53333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>1518.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>578</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>18.57142857142857</v>
+      </c>
       <c r="L18" t="n">
         <v>1526.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>578</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>13.63636363636363</v>
+      </c>
       <c r="L19" t="n">
         <v>1534.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>656</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-9.450549450549451</v>
+      </c>
       <c r="L20" t="n">
         <v>1532</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>663</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-39.8876404494382</v>
+      </c>
       <c r="L21" t="n">
         <v>1528.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>749</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-1.530612244897959</v>
+      </c>
       <c r="L22" t="n">
         <v>1522.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>813</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.79746835443038</v>
+        <v>-28.92156862745098</v>
       </c>
       <c r="L23" t="n">
         <v>1515.8</v>
@@ -1466,7 +1488,7 @@
         <v>813</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.7832898172323759</v>
+        <v>-14.45427728613569</v>
       </c>
       <c r="L24" t="n">
         <v>1504</v>
@@ -1515,7 +1537,7 @@
         <v>846</v>
       </c>
       <c r="K25" t="n">
-        <v>6.718346253229974</v>
+        <v>-13.45029239766082</v>
       </c>
       <c r="L25" t="n">
         <v>1502.4</v>
@@ -1564,7 +1586,7 @@
         <v>878</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.158301158301158</v>
+        <v>-28.40909090909091</v>
       </c>
       <c r="L26" t="n">
         <v>1494.6</v>
@@ -1613,7 +1635,7 @@
         <v>878</v>
       </c>
       <c r="K27" t="n">
-        <v>5.349794238683128</v>
+        <v>-16</v>
       </c>
       <c r="L27" t="n">
         <v>1484.6</v>
@@ -1662,7 +1684,7 @@
         <v>879</v>
       </c>
       <c r="K28" t="n">
-        <v>4.945054945054945</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L28" t="n">
         <v>1479.7</v>
@@ -1711,7 +1733,7 @@
         <v>892</v>
       </c>
       <c r="K29" t="n">
-        <v>5.722070844686648</v>
+        <v>17.79661016949153</v>
       </c>
       <c r="L29" t="n">
         <v>1476.1</v>
@@ -1760,7 +1782,7 @@
         <v>892</v>
       </c>
       <c r="K30" t="n">
-        <v>2.535211267605634</v>
+        <v>15.28384279475982</v>
       </c>
       <c r="L30" t="n">
         <v>1480.3</v>
@@ -1809,7 +1831,7 @@
         <v>894</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.4329004329004329</v>
+        <v>-36.55172413793103</v>
       </c>
       <c r="L31" t="n">
         <v>1483.6</v>
@@ -1860,7 +1882,7 @@
         <v>905</v>
       </c>
       <c r="K32" t="n">
-        <v>-20.06688963210702</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1477.2</v>
@@ -1911,7 +1933,7 @@
         <v>906</v>
       </c>
       <c r="K33" t="n">
-        <v>-12.93260473588342</v>
+        <v>-1.075268817204301</v>
       </c>
       <c r="L33" t="n">
         <v>1477.1</v>
@@ -1962,7 +1984,7 @@
         <v>907</v>
       </c>
       <c r="K34" t="n">
-        <v>-23.50597609561753</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L34" t="n">
         <v>1477.1</v>
@@ -2013,7 +2035,7 @@
         <v>928</v>
       </c>
       <c r="K35" t="n">
-        <v>-15.41850220264317</v>
+        <v>-44</v>
       </c>
       <c r="L35" t="n">
         <v>1471.7</v>
@@ -2064,7 +2086,7 @@
         <v>940</v>
       </c>
       <c r="K36" t="n">
-        <v>-25.68807339449542</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L36" t="n">
         <v>1468.3</v>
@@ -2115,7 +2137,7 @@
         <v>965</v>
       </c>
       <c r="K37" t="n">
-        <v>-24.82915717539863</v>
+        <v>-9.302325581395349</v>
       </c>
       <c r="L37" t="n">
         <v>1467.4</v>
@@ -2166,7 +2188,7 @@
         <v>977</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.2781954887218</v>
+        <v>-10.58823529411765</v>
       </c>
       <c r="L38" t="n">
         <v>1467.8</v>
@@ -2217,7 +2239,7 @@
         <v>1030</v>
       </c>
       <c r="K39" t="n">
-        <v>1.769911504424779</v>
+        <v>31.88405797101449</v>
       </c>
       <c r="L39" t="n">
         <v>1472.2</v>
@@ -2268,7 +2290,7 @@
         <v>1081</v>
       </c>
       <c r="K40" t="n">
-        <v>32.23529411764706</v>
+        <v>51.87165775401069</v>
       </c>
       <c r="L40" t="n">
         <v>1481.7</v>
@@ -2319,7 +2341,7 @@
         <v>1088</v>
       </c>
       <c r="K41" t="n">
-        <v>28.94117647058824</v>
+        <v>55.19125683060109</v>
       </c>
       <c r="L41" t="n">
         <v>1490.7</v>
@@ -2370,7 +2392,7 @@
         <v>1111</v>
       </c>
       <c r="K42" t="n">
-        <v>3.867403314917127</v>
+        <v>38.53658536585366</v>
       </c>
       <c r="L42" t="n">
         <v>1498.5</v>
@@ -2421,7 +2443,7 @@
         <v>1122</v>
       </c>
       <c r="K43" t="n">
-        <v>21.68284789644013</v>
+        <v>31.16279069767442</v>
       </c>
       <c r="L43" t="n">
         <v>1505.3</v>
@@ -2472,7 +2494,7 @@
         <v>1185</v>
       </c>
       <c r="K44" t="n">
-        <v>1.075268817204301</v>
+        <v>9.72762645914397</v>
       </c>
       <c r="L44" t="n">
         <v>1505.7</v>
@@ -2523,7 +2545,7 @@
         <v>1210</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.098901098901099</v>
+        <v>22.96296296296296</v>
       </c>
       <c r="L45" t="n">
         <v>1510.7</v>
@@ -2574,7 +2596,7 @@
         <v>1251</v>
       </c>
       <c r="K46" t="n">
-        <v>18.49865951742628</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L46" t="n">
         <v>1521</v>
@@ -2625,7 +2647,7 @@
         <v>1278</v>
       </c>
       <c r="K47" t="n">
-        <v>10.5</v>
+        <v>12.95681063122924</v>
       </c>
       <c r="L47" t="n">
         <v>1526.1</v>
@@ -2676,7 +2698,7 @@
         <v>1294</v>
       </c>
       <c r="K48" t="n">
-        <v>14.21686746987952</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L48" t="n">
         <v>1531.6</v>
@@ -2727,7 +2749,7 @@
         <v>1296</v>
       </c>
       <c r="K49" t="n">
-        <v>11.88118811881188</v>
+        <v>-21.86046511627907</v>
       </c>
       <c r="L49" t="n">
         <v>1532</v>
@@ -2778,7 +2800,7 @@
         <v>1296</v>
       </c>
       <c r="K50" t="n">
-        <v>11.88118811881188</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L50" t="n">
         <v>1527.3</v>
@@ -2829,7 +2851,7 @@
         <v>1329</v>
       </c>
       <c r="K51" t="n">
-        <v>3.908045977011494</v>
+        <v>-22.93577981651376</v>
       </c>
       <c r="L51" t="n">
         <v>1520</v>
@@ -2880,7 +2902,7 @@
         <v>1342</v>
       </c>
       <c r="K52" t="n">
-        <v>9.382151029748284</v>
+        <v>-11.81818181818182</v>
       </c>
       <c r="L52" t="n">
         <v>1516.3</v>
@@ -2931,7 +2953,7 @@
         <v>1403</v>
       </c>
       <c r="K53" t="n">
-        <v>20.72434607645875</v>
+        <v>44.95412844036697</v>
       </c>
       <c r="L53" t="n">
         <v>1519.8</v>
@@ -2982,7 +3004,7 @@
         <v>1420</v>
       </c>
       <c r="K54" t="n">
-        <v>16.56920077972709</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L54" t="n">
         <v>1527.9</v>
@@ -3033,7 +3055,7 @@
         <v>1424</v>
       </c>
       <c r="K55" t="n">
-        <v>20.56451612903226</v>
+        <v>6.358381502890173</v>
       </c>
       <c r="L55" t="n">
         <v>1533.1</v>
@@ -3084,7 +3106,7 @@
         <v>1428</v>
       </c>
       <c r="K56" t="n">
-        <v>24.18032786885246</v>
+        <v>28</v>
       </c>
       <c r="L56" t="n">
         <v>1534.6</v>
@@ -3135,7 +3157,7 @@
         <v>1507</v>
       </c>
       <c r="K57" t="n">
-        <v>2.583025830258303</v>
+        <v>-24.88262910798122</v>
       </c>
       <c r="L57" t="n">
         <v>1530.9</v>
@@ -3186,7 +3208,7 @@
         <v>1519</v>
       </c>
       <c r="K58" t="n">
-        <v>2.583025830258303</v>
+        <v>-19.28251121076233</v>
       </c>
       <c r="L58" t="n">
         <v>1526.8</v>
@@ -3237,7 +3259,7 @@
         <v>1524</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.906882591093117</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L59" t="n">
         <v>1522</v>
@@ -3288,7 +3310,7 @@
         <v>1532</v>
       </c>
       <c r="K60" t="n">
-        <v>-19.29046563192905</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L60" t="n">
         <v>1518</v>
@@ -3339,7 +3361,7 @@
         <v>1546</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.41048034934498</v>
+        <v>-2.941176470588235</v>
       </c>
       <c r="L61" t="n">
         <v>1518.7</v>
@@ -3390,7 +3412,7 @@
         <v>1552</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.390022675736962</v>
+        <v>-40.93959731543625</v>
       </c>
       <c r="L62" t="n">
         <v>1518.7</v>
@@ -3441,7 +3463,7 @@
         <v>1584</v>
       </c>
       <c r="K63" t="n">
-        <v>-12.55411255411255</v>
+        <v>-46.34146341463415</v>
       </c>
       <c r="L63" t="n">
         <v>1509.4</v>
@@ -3492,7 +3514,7 @@
         <v>1593</v>
       </c>
       <c r="K64" t="n">
-        <v>3.431372549019608</v>
+        <v>-37.27810650887574</v>
       </c>
       <c r="L64" t="n">
         <v>1502.7</v>
@@ -3543,7 +3565,7 @@
         <v>1654</v>
       </c>
       <c r="K65" t="n">
-        <v>11.26126126126126</v>
+        <v>-2.654867256637168</v>
       </c>
       <c r="L65" t="n">
         <v>1502.5</v>
@@ -3594,7 +3616,7 @@
         <v>1709</v>
       </c>
       <c r="K66" t="n">
-        <v>-10.04366812227074</v>
+        <v>8.91089108910891</v>
       </c>
       <c r="L66" t="n">
         <v>1496.4</v>
@@ -3645,7 +3667,7 @@
         <v>1770</v>
       </c>
       <c r="K67" t="n">
-        <v>8.536585365853659</v>
+        <v>26.69322709163346</v>
       </c>
       <c r="L67" t="n">
         <v>1504.3</v>
@@ -3696,7 +3718,7 @@
         <v>1771</v>
       </c>
       <c r="K68" t="n">
-        <v>5.241090146750524</v>
+        <v>28.74493927125506</v>
       </c>
       <c r="L68" t="n">
         <v>1510.9</v>
@@ -3747,7 +3769,7 @@
         <v>1773</v>
       </c>
       <c r="K69" t="n">
-        <v>4.40251572327044</v>
+        <v>25.31120331950207</v>
       </c>
       <c r="L69" t="n">
         <v>1517.8</v>
@@ -3798,7 +3820,7 @@
         <v>1774</v>
       </c>
       <c r="K70" t="n">
-        <v>4.184100418410042</v>
+        <v>20.17543859649123</v>
       </c>
       <c r="L70" t="n">
         <v>1523.8</v>
@@ -3849,7 +3871,7 @@
         <v>1830</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.5988023952095809</v>
+        <v>-5.755395683453238</v>
       </c>
       <c r="L71" t="n">
         <v>1522.8</v>
@@ -3900,7 +3922,7 @@
         <v>1830</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.278688524590164</v>
+        <v>6.504065040650407</v>
       </c>
       <c r="L72" t="n">
         <v>1521.2</v>
@@ -3951,7 +3973,7 @@
         <v>1831</v>
       </c>
       <c r="K73" t="n">
-        <v>-17.75700934579439</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="L73" t="n">
         <v>1522.9</v>
@@ -4002,7 +4024,7 @@
         <v>1832</v>
       </c>
       <c r="K74" t="n">
-        <v>-14.5631067961165</v>
+        <v>-30.3370786516854</v>
       </c>
       <c r="L74" t="n">
         <v>1523.6</v>
@@ -4053,7 +4075,7 @@
         <v>1865</v>
       </c>
       <c r="K75" t="n">
-        <v>-20.18140589569161</v>
+        <v>-20.51282051282051</v>
       </c>
       <c r="L75" t="n">
         <v>1514.9</v>
@@ -4104,7 +4126,7 @@
         <v>1865</v>
       </c>
       <c r="K76" t="n">
-        <v>-21.28146453089245</v>
+        <v>-97.89473684210527</v>
       </c>
       <c r="L76" t="n">
         <v>1511.7</v>
@@ -4155,7 +4177,7 @@
         <v>1866</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.62116991643454</v>
+        <v>-95.78947368421052</v>
       </c>
       <c r="L77" t="n">
         <v>1502.5</v>
@@ -4206,7 +4228,7 @@
         <v>1867</v>
       </c>
       <c r="K78" t="n">
-        <v>-6.896551724137931</v>
+        <v>-93.61702127659575</v>
       </c>
       <c r="L78" t="n">
         <v>1493.5</v>
@@ -4257,7 +4279,7 @@
         <v>1882</v>
       </c>
       <c r="K79" t="n">
-        <v>-1.11731843575419</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>1486.2</v>
@@ -4308,7 +4330,7 @@
         <v>1898</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.650273224043716</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L80" t="n">
         <v>1477.4</v>
@@ -4359,7 +4381,7 @@
         <v>1899</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.18130311614731</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L81" t="n">
         <v>1474.1</v>
@@ -4410,7 +4432,7 @@
         <v>1912</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.22222222222222</v>
+        <v>-58.0246913580247</v>
       </c>
       <c r="L82" t="n">
         <v>1469.5</v>
@@ -4461,7 +4483,7 @@
         <v>1941</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.2801120448179272</v>
+        <v>-15.59633027522936</v>
       </c>
       <c r="L83" t="n">
         <v>1467.7</v>
@@ -4512,7 +4534,7 @@
         <v>1941</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.873563218390804</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L84" t="n">
         <v>1466</v>
@@ -4563,7 +4585,7 @@
         <v>1973</v>
       </c>
       <c r="K85" t="n">
-        <v>-32.28840125391849</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L85" t="n">
         <v>1464.4</v>
@@ -4614,7 +4636,7 @@
         <v>2005</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.405405405405405</v>
+        <v>10.79136690647482</v>
       </c>
       <c r="L86" t="n">
         <v>1466</v>
@@ -4665,7 +4687,7 @@
         <v>2007</v>
       </c>
       <c r="K87" t="n">
-        <v>-33.33333333333333</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L87" t="n">
         <v>1467.3</v>
@@ -4716,7 +4738,7 @@
         <v>2027</v>
       </c>
       <c r="K88" t="n">
-        <v>-38.28125</v>
+        <v>-15.86206896551724</v>
       </c>
       <c r="L88" t="n">
         <v>1466.5</v>
@@ -4767,7 +4789,7 @@
         <v>2027</v>
       </c>
       <c r="K89" t="n">
-        <v>-37.79527559055118</v>
+        <v>-5.426356589147287</v>
       </c>
       <c r="L89" t="n">
         <v>1464.2</v>
@@ -4818,7 +4840,7 @@
         <v>2033</v>
       </c>
       <c r="K90" t="n">
-        <v>-38.996138996139</v>
+        <v>-8.955223880597014</v>
       </c>
       <c r="L90" t="n">
         <v>1462.9</v>
@@ -4869,7 +4891,7 @@
         <v>2033</v>
       </c>
       <c r="K91" t="n">
-        <v>-22.16748768472906</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="L91" t="n">
         <v>1461.7</v>
@@ -4920,7 +4942,7 @@
         <v>2052</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.71171171171171</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L92" t="n">
         <v>1463.7</v>
@@ -4971,7 +4993,7 @@
         <v>2068</v>
       </c>
       <c r="K93" t="n">
-        <v>-18.14345991561181</v>
+        <v>-19.68503937007874</v>
       </c>
       <c r="L93" t="n">
         <v>1461.2</v>
@@ -5022,7 +5044,7 @@
         <v>2094</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.106870229007633</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L94" t="n">
         <v>1461.3</v>
@@ -5073,7 +5095,7 @@
         <v>2103</v>
       </c>
       <c r="K95" t="n">
-        <v>3.361344537815126</v>
+        <v>-8.163265306122449</v>
       </c>
       <c r="L95" t="n">
         <v>1463.7</v>
@@ -5124,7 +5146,7 @@
         <v>2126</v>
       </c>
       <c r="K96" t="n">
-        <v>11.87739463601533</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L96" t="n">
         <v>1465.2</v>
@@ -5175,7 +5197,7 @@
         <v>2132</v>
       </c>
       <c r="K97" t="n">
-        <v>13.53383458646617</v>
+        <v>40.95238095238095</v>
       </c>
       <c r="L97" t="n">
         <v>1467.5</v>
@@ -5226,7 +5248,7 @@
         <v>2132</v>
       </c>
       <c r="K98" t="n">
-        <v>13.20754716981132</v>
+        <v>40.95238095238095</v>
       </c>
       <c r="L98" t="n">
         <v>1471.8</v>
@@ -5277,7 +5299,7 @@
         <v>2132</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>49.49494949494949</v>
       </c>
       <c r="L99" t="n">
         <v>1476.1</v>
@@ -5328,7 +5350,7 @@
         <v>2138</v>
       </c>
       <c r="K100" t="n">
-        <v>17.5</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L100" t="n">
         <v>1481.6</v>
@@ -5379,7 +5401,7 @@
         <v>2143</v>
       </c>
       <c r="K101" t="n">
-        <v>19.67213114754098</v>
+        <v>45.05494505494506</v>
       </c>
       <c r="L101" t="n">
         <v>1487.6</v>
@@ -5430,7 +5452,7 @@
         <v>2149</v>
       </c>
       <c r="K102" t="n">
-        <v>28.27004219409283</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L102" t="n">
         <v>1492.3</v>
@@ -5481,7 +5503,7 @@
         <v>2155</v>
       </c>
       <c r="K103" t="n">
-        <v>14.95327102803738</v>
+        <v>50.81967213114754</v>
       </c>
       <c r="L103" t="n">
         <v>1498</v>
@@ -5532,7 +5554,7 @@
         <v>2160</v>
       </c>
       <c r="K104" t="n">
-        <v>12.32876712328767</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L104" t="n">
         <v>1500.6</v>
@@ -5583,7 +5605,7 @@
         <v>2179</v>
       </c>
       <c r="K105" t="n">
-        <v>37.86407766990291</v>
+        <v>58.49056603773585</v>
       </c>
       <c r="L105" t="n">
         <v>1506</v>
@@ -5634,7 +5656,7 @@
         <v>2202</v>
       </c>
       <c r="K106" t="n">
-        <v>11.6751269035533</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L106" t="n">
         <v>1506.8</v>
@@ -5685,7 +5707,7 @@
         <v>2215</v>
       </c>
       <c r="K107" t="n">
-        <v>18.26923076923077</v>
+        <v>18.07228915662651</v>
       </c>
       <c r="L107" t="n">
         <v>1508.3</v>
@@ -5736,7 +5758,7 @@
         <v>2222</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333333</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L108" t="n">
         <v>1510.5</v>
@@ -5787,7 +5809,7 @@
         <v>2222</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333333</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L109" t="n">
         <v>1512.7</v>
@@ -5838,7 +5860,7 @@
         <v>2227</v>
       </c>
       <c r="K110" t="n">
-        <v>39.17525773195877</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L110" t="n">
         <v>1514.8</v>
@@ -5889,7 +5911,7 @@
         <v>2227</v>
       </c>
       <c r="K111" t="n">
-        <v>39.17525773195877</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L111" t="n">
         <v>1516.4</v>
@@ -5940,7 +5962,7 @@
         <v>2227</v>
       </c>
       <c r="K112" t="n">
-        <v>32.57142857142858</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L112" t="n">
         <v>1517.4</v>
@@ -5991,7 +6013,7 @@
         <v>2227</v>
       </c>
       <c r="K113" t="n">
-        <v>45.91194968553459</v>
+        <v>31.34328358208955</v>
       </c>
       <c r="L113" t="n">
         <v>1519</v>
@@ -6042,7 +6064,7 @@
         <v>2227</v>
       </c>
       <c r="K114" t="n">
-        <v>35.33834586466165</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L114" t="n">
         <v>1521.1</v>
@@ -6093,7 +6115,7 @@
         <v>2231</v>
       </c>
       <c r="K115" t="n">
-        <v>46.875</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
         <v>1521.7</v>
@@ -6144,7 +6166,7 @@
         <v>2251</v>
       </c>
       <c r="K116" t="n">
-        <v>45.6</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>1526.6</v>
@@ -6195,7 +6217,7 @@
         <v>2278</v>
       </c>
       <c r="K117" t="n">
-        <v>53.42465753424658</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>1532.9</v>
@@ -6246,7 +6268,7 @@
         <v>2281</v>
       </c>
       <c r="K118" t="n">
-        <v>50.33557046979866</v>
+        <v>89.83050847457628</v>
       </c>
       <c r="L118" t="n">
         <v>1538.2</v>
@@ -6297,7 +6319,7 @@
         <v>2296</v>
       </c>
       <c r="K119" t="n">
-        <v>54.87804878048781</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L119" t="n">
         <v>1545</v>
@@ -6348,7 +6370,7 @@
         <v>2355</v>
       </c>
       <c r="K120" t="n">
-        <v>65.89861751152074</v>
+        <v>95.3125</v>
       </c>
       <c r="L120" t="n">
         <v>1557.2</v>
@@ -6399,7 +6421,7 @@
         <v>2405</v>
       </c>
       <c r="K121" t="n">
-        <v>71.7557251908397</v>
+        <v>96.62921348314607</v>
       </c>
       <c r="L121" t="n">
         <v>1574.4</v>
@@ -6450,7 +6472,7 @@
         <v>2421</v>
       </c>
       <c r="K122" t="n">
-        <v>61.02941176470588</v>
+        <v>80.41237113402062</v>
       </c>
       <c r="L122" t="n">
         <v>1590</v>
@@ -6501,7 +6523,7 @@
         <v>2462</v>
       </c>
       <c r="K123" t="n">
-        <v>42.67100977198697</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L123" t="n">
         <v>1601.5</v>
@@ -6552,7 +6574,7 @@
         <v>2484</v>
       </c>
       <c r="K124" t="n">
-        <v>48.76543209876543</v>
+        <v>52.56916996047431</v>
       </c>
       <c r="L124" t="n">
         <v>1615.2</v>
@@ -6603,7 +6625,7 @@
         <v>2493</v>
       </c>
       <c r="K125" t="n">
-        <v>41.40127388535032</v>
+        <v>42.97520661157025</v>
       </c>
       <c r="L125" t="n">
         <v>1627.6</v>
@@ -6654,7 +6676,7 @@
         <v>2527</v>
       </c>
       <c r="K126" t="n">
-        <v>36.61538461538461</v>
+        <v>17.26907630522089</v>
       </c>
       <c r="L126" t="n">
         <v>1634.6</v>
@@ -6705,7 +6727,7 @@
         <v>2527</v>
       </c>
       <c r="K127" t="n">
-        <v>33.97435897435898</v>
+        <v>18.69918699186992</v>
       </c>
       <c r="L127" t="n">
         <v>1638.9</v>
@@ -6756,7 +6778,7 @@
         <v>2549</v>
       </c>
       <c r="K128" t="n">
-        <v>37.00305810397553</v>
+        <v>20.94861660079052</v>
       </c>
       <c r="L128" t="n">
         <v>1645.7</v>
@@ -6807,7 +6829,7 @@
         <v>2549</v>
       </c>
       <c r="K129" t="n">
-        <v>37.00305810397553</v>
+        <v>-3.092783505154639</v>
       </c>
       <c r="L129" t="n">
         <v>1651</v>
@@ -6858,7 +6880,7 @@
         <v>2581</v>
       </c>
       <c r="K130" t="n">
-        <v>41.80790960451977</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L130" t="n">
         <v>1653.6</v>
@@ -6909,7 +6931,7 @@
         <v>2594</v>
       </c>
       <c r="K131" t="n">
-        <v>36.78474114441417</v>
+        <v>-12.13872832369942</v>
       </c>
       <c r="L131" t="n">
         <v>1649.9</v>
@@ -6960,7 +6982,7 @@
         <v>2656</v>
       </c>
       <c r="K132" t="n">
-        <v>17.01631701631702</v>
+        <v>-21.64948453608248</v>
       </c>
       <c r="L132" t="n">
         <v>1641.6</v>
@@ -7011,7 +7033,7 @@
         <v>2696</v>
       </c>
       <c r="K133" t="n">
-        <v>7.036247334754798</v>
+        <v>-49.0566037735849</v>
       </c>
       <c r="L133" t="n">
         <v>1633.4</v>
@@ -7062,7 +7084,7 @@
         <v>2698</v>
       </c>
       <c r="K134" t="n">
-        <v>7.43099787685775</v>
+        <v>-45.36585365853659</v>
       </c>
       <c r="L134" t="n">
         <v>1623.2</v>
@@ -7113,7 +7135,7 @@
         <v>2737</v>
       </c>
       <c r="K135" t="n">
-        <v>13.83399209486166</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L135" t="n">
         <v>1617.8</v>
@@ -7164,7 +7186,7 @@
         <v>2738</v>
       </c>
       <c r="K136" t="n">
-        <v>10.06160164271047</v>
+        <v>-9.95260663507109</v>
       </c>
       <c r="L136" t="n">
         <v>1615.7</v>
@@ -7215,7 +7237,7 @@
         <v>2776</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.212851405622489</v>
+        <v>-35.68281938325991</v>
       </c>
       <c r="L137" t="n">
         <v>1609.8</v>
@@ -7266,7 +7288,7 @@
         <v>2788</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.1972386587771203</v>
+        <v>-28.87029288702929</v>
       </c>
       <c r="L138" t="n">
         <v>1602.9</v>
@@ -7317,7 +7339,7 @@
         <v>2795</v>
       </c>
       <c r="K139" t="n">
-        <v>-1.803607214428858</v>
+        <v>-43.92523364485982</v>
       </c>
       <c r="L139" t="n">
         <v>1596.7</v>
@@ -7368,7 +7390,7 @@
         <v>2811</v>
       </c>
       <c r="K140" t="n">
-        <v>-11.40350877192982</v>
+        <v>-29.95391705069124</v>
       </c>
       <c r="L140" t="n">
         <v>1588.9</v>
@@ -7419,7 +7441,7 @@
         <v>2812</v>
       </c>
       <c r="K141" t="n">
-        <v>-25.3071253071253</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L141" t="n">
         <v>1582.3</v>
@@ -7470,7 +7492,7 @@
         <v>2867</v>
       </c>
       <c r="K142" t="n">
-        <v>-7.174887892376682</v>
+        <v>53.21637426900585</v>
       </c>
       <c r="L142" t="n">
         <v>1587.4</v>
@@ -7521,7 +7543,7 @@
         <v>2915</v>
       </c>
       <c r="K143" t="n">
-        <v>-8.609271523178808</v>
+        <v>18.89400921658986</v>
       </c>
       <c r="L143" t="n">
         <v>1591.7</v>
@@ -7572,7 +7594,7 @@
         <v>2953</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.904051172707889</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L144" t="n">
         <v>1599.6</v>
@@ -7623,7 +7645,7 @@
         <v>2957</v>
       </c>
       <c r="K145" t="n">
-        <v>-3.879310344827586</v>
+        <v>16.89497716894977</v>
       </c>
       <c r="L145" t="n">
         <v>1603.2</v>
@@ -7674,7 +7696,7 @@
         <v>2998</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.307855626326965</v>
+        <v>15.31531531531531</v>
       </c>
       <c r="L146" t="n">
         <v>1602.8</v>
@@ -7725,7 +7747,7 @@
         <v>3018</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.164969450101832</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L147" t="n">
         <v>1604.2</v>
@@ -7776,7 +7798,7 @@
         <v>3064</v>
       </c>
       <c r="K148" t="n">
-        <v>-4.077669902912621</v>
+        <v>15.24163568773234</v>
       </c>
       <c r="L148" t="n">
         <v>1609</v>
@@ -7827,7 +7849,7 @@
         <v>3064</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.077669902912621</v>
+        <v>9.881422924901186</v>
       </c>
       <c r="L149" t="n">
         <v>1613.1</v>
@@ -7878,7 +7900,7 @@
         <v>3097</v>
       </c>
       <c r="K150" t="n">
-        <v>-16.66666666666666</v>
+        <v>-2.456140350877193</v>
       </c>
       <c r="L150" t="n">
         <v>1612.3</v>
@@ -7929,7 +7951,7 @@
         <v>3121</v>
       </c>
       <c r="K151" t="n">
-        <v>-9.297912713472485</v>
+        <v>-14.96062992125984</v>
       </c>
       <c r="L151" t="n">
         <v>1614</v>
@@ -7980,7 +8002,7 @@
         <v>3121</v>
       </c>
       <c r="K152" t="n">
-        <v>2.795698924731183</v>
+        <v>4.854368932038835</v>
       </c>
       <c r="L152" t="n">
         <v>1610.2</v>
@@ -8031,7 +8053,7 @@
         <v>3121</v>
       </c>
       <c r="K153" t="n">
-        <v>12.47058823529412</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L153" t="n">
         <v>1611.2</v>
@@ -8082,7 +8104,7 @@
         <v>3121</v>
       </c>
       <c r="K154" t="n">
-        <v>12.05673758865248</v>
+        <v>-14.63414634146341</v>
       </c>
       <c r="L154" t="n">
         <v>1608.4</v>
@@ -8133,7 +8155,7 @@
         <v>3146</v>
       </c>
       <c r="K155" t="n">
-        <v>9.046454767726161</v>
+        <v>28.37837837837838</v>
       </c>
       <c r="L155" t="n">
         <v>1608.5</v>
@@ -8184,7 +8206,7 @@
         <v>3166</v>
       </c>
       <c r="K156" t="n">
-        <v>4.205607476635514</v>
+        <v>28.37837837837838</v>
       </c>
       <c r="L156" t="n">
         <v>1610.7</v>
@@ -8235,7 +8257,7 @@
         <v>3173</v>
       </c>
       <c r="K157" t="n">
-        <v>12.34256926952141</v>
+        <v>-10.09174311926606</v>
       </c>
       <c r="L157" t="n">
         <v>1614.2</v>
@@ -8286,7 +8308,7 @@
         <v>3183</v>
       </c>
       <c r="K158" t="n">
-        <v>6.835443037974684</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L158" t="n">
         <v>1612.1</v>
@@ -8337,7 +8359,7 @@
         <v>3187</v>
       </c>
       <c r="K159" t="n">
-        <v>6.122448979591836</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="L159" t="n">
         <v>1610.4</v>
@@ -8388,7 +8410,7 @@
         <v>3210</v>
       </c>
       <c r="K160" t="n">
-        <v>-3.759398496240602</v>
+        <v>-34.83146067415731</v>
       </c>
       <c r="L160" t="n">
         <v>1609.7</v>
@@ -8439,7 +8461,7 @@
         <v>3242</v>
       </c>
       <c r="K161" t="n">
-        <v>4.186046511627907</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="L161" t="n">
         <v>1609.8</v>
@@ -8490,7 +8512,7 @@
         <v>3263</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.040404040404041</v>
+        <v>15.49295774647887</v>
       </c>
       <c r="L162" t="n">
         <v>1612</v>
@@ -8541,7 +8563,7 @@
         <v>3283</v>
       </c>
       <c r="K163" t="n">
-        <v>3.260869565217391</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="L163" t="n">
         <v>1612.2</v>
@@ -8592,7 +8614,7 @@
         <v>3296</v>
       </c>
       <c r="K164" t="n">
-        <v>-11.37026239067055</v>
+        <v>-24</v>
       </c>
       <c r="L164" t="n">
         <v>1611.1</v>
@@ -8643,7 +8665,7 @@
         <v>3322</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.465753424657534</v>
+        <v>6.41025641025641</v>
       </c>
       <c r="L165" t="n">
         <v>1610.1</v>
@@ -8694,7 +8716,7 @@
         <v>3328</v>
       </c>
       <c r="K166" t="n">
-        <v>7.878787878787878</v>
+        <v>7.096774193548387</v>
       </c>
       <c r="L166" t="n">
         <v>1610.5</v>
@@ -8745,7 +8767,7 @@
         <v>3349</v>
       </c>
       <c r="K167" t="n">
-        <v>7.552870090634441</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>1609.5</v>
@@ -8796,7 +8818,7 @@
         <v>3352</v>
       </c>
       <c r="K168" t="n">
-        <v>-6.25</v>
+        <v>-0.6060606060606061</v>
       </c>
       <c r="L168" t="n">
         <v>1609.8</v>
@@ -8847,7 +8869,7 @@
         <v>3354</v>
       </c>
       <c r="K169" t="n">
-        <v>-6.896551724137931</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L169" t="n">
         <v>1609.5</v>
@@ -8898,7 +8920,7 @@
         <v>3381</v>
       </c>
       <c r="K170" t="n">
-        <v>14.08450704225352</v>
+        <v>10.79136690647482</v>
       </c>
       <c r="L170" t="n">
         <v>1614.2</v>
@@ -8949,7 +8971,7 @@
         <v>3413</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.47945205479452</v>
+        <v>-25.33333333333334</v>
       </c>
       <c r="L171" t="n">
         <v>1612.5</v>
@@ -9000,7 +9022,7 @@
         <v>3458</v>
       </c>
       <c r="K172" t="n">
-        <v>8.605341246290802</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="L172" t="n">
         <v>1613.2</v>
@@ -9051,7 +9073,7 @@
         <v>3463</v>
       </c>
       <c r="K173" t="n">
-        <v>7.017543859649122</v>
+        <v>20.95808383233533</v>
       </c>
       <c r="L173" t="n">
         <v>1615.4</v>
@@ -9102,7 +9124,7 @@
         <v>3499</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.174603174603174</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L174" t="n">
         <v>1615.3</v>
@@ -9153,7 +9175,7 @@
         <v>3528</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.094240837696335</v>
+        <v>4</v>
       </c>
       <c r="L175" t="n">
         <v>1615.5</v>
@@ -9204,7 +9226,7 @@
         <v>3548</v>
       </c>
       <c r="K176" t="n">
-        <v>8.37696335078534</v>
+        <v>24.62311557788945</v>
       </c>
       <c r="L176" t="n">
         <v>1618.3</v>
@@ -9255,7 +9277,7 @@
         <v>3548</v>
       </c>
       <c r="K177" t="n">
-        <v>10.4</v>
+        <v>23.46938775510204</v>
       </c>
       <c r="L177" t="n">
         <v>1623.2</v>
@@ -9306,7 +9328,7 @@
         <v>3551</v>
       </c>
       <c r="K178" t="n">
-        <v>12.5</v>
+        <v>22.84263959390863</v>
       </c>
       <c r="L178" t="n">
         <v>1627.5</v>
@@ -9357,7 +9379,7 @@
         <v>3551</v>
       </c>
       <c r="K179" t="n">
-        <v>11.53846153846154</v>
+        <v>10.58823529411765</v>
       </c>
       <c r="L179" t="n">
         <v>1632</v>
@@ -9408,7 +9430,7 @@
         <v>3588</v>
       </c>
       <c r="K180" t="n">
-        <v>7.407407407407407</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="L180" t="n">
         <v>1630.1</v>
@@ -9459,7 +9481,7 @@
         <v>3591</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.2865329512893983</v>
+        <v>-21.80451127819549</v>
       </c>
       <c r="L181" t="n">
         <v>1631.7</v>
@@ -9510,7 +9532,7 @@
         <v>3626</v>
       </c>
       <c r="K182" t="n">
-        <v>3.581267217630854</v>
+        <v>6.748466257668712</v>
       </c>
       <c r="L182" t="n">
         <v>1632.3</v>
@@ -9561,7 +9583,7 @@
         <v>3655</v>
       </c>
       <c r="K183" t="n">
-        <v>1.075268817204301</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L183" t="n">
         <v>1630.5</v>
@@ -9612,7 +9634,7 @@
         <v>3664</v>
       </c>
       <c r="K184" t="n">
-        <v>7.065217391304348</v>
+        <v>-1.470588235294118</v>
       </c>
       <c r="L184" t="n">
         <v>1633.2</v>
@@ -9663,7 +9685,7 @@
         <v>3666</v>
       </c>
       <c r="K185" t="n">
-        <v>-0.5813953488372093</v>
+        <v>-20.33898305084746</v>
       </c>
       <c r="L185" t="n">
         <v>1632.8</v>
@@ -9714,7 +9736,7 @@
         <v>3689</v>
       </c>
       <c r="K186" t="n">
-        <v>7.479224376731302</v>
+        <v>-0.7092198581560284</v>
       </c>
       <c r="L186" t="n">
         <v>1632.7</v>
@@ -9765,7 +9787,7 @@
         <v>3712</v>
       </c>
       <c r="K187" t="n">
-        <v>6.887052341597796</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L187" t="n">
         <v>1630.3</v>
@@ -9816,7 +9838,7 @@
         <v>3724</v>
       </c>
       <c r="K188" t="n">
-        <v>2.688172043010753</v>
+        <v>-19.07514450867052</v>
       </c>
       <c r="L188" t="n">
         <v>1627</v>
@@ -9867,7 +9889,7 @@
         <v>3757</v>
       </c>
       <c r="K189" t="n">
-        <v>11.16625310173697</v>
+        <v>21.89349112426036</v>
       </c>
       <c r="L189" t="n">
         <v>1627</v>
@@ -9918,7 +9940,7 @@
         <v>3760</v>
       </c>
       <c r="K190" t="n">
-        <v>3.95778364116095</v>
+        <v>18.34319526627219</v>
       </c>
       <c r="L190" t="n">
         <v>1630.4</v>
@@ -9969,7 +9991,7 @@
         <v>3788</v>
       </c>
       <c r="K191" t="n">
-        <v>5.066666666666666</v>
+        <v>-19.75308641975309</v>
       </c>
       <c r="L191" t="n">
         <v>1630.7</v>
@@ -10020,7 +10042,7 @@
         <v>3814</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>14.46540880503145</v>
       </c>
       <c r="L192" t="n">
         <v>1630.1</v>
@@ -10071,7 +10093,7 @@
         <v>3821</v>
       </c>
       <c r="K193" t="n">
-        <v>3.35195530726257</v>
+        <v>13.37579617834395</v>
       </c>
       <c r="L193" t="n">
         <v>1633.1</v>
@@ -10122,7 +10144,7 @@
         <v>3849</v>
       </c>
       <c r="K194" t="n">
-        <v>21.71428571428572</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="L194" t="n">
         <v>1638</v>
@@ -10173,7 +10195,7 @@
         <v>3853</v>
       </c>
       <c r="K195" t="n">
-        <v>15.69230769230769</v>
+        <v>19.51219512195122</v>
       </c>
       <c r="L195" t="n">
         <v>1643.5</v>
@@ -10224,7 +10246,7 @@
         <v>3867</v>
       </c>
       <c r="K196" t="n">
-        <v>14.10658307210031</v>
+        <v>44.51612903225806</v>
       </c>
       <c r="L196" t="n">
         <v>1648.1</v>
@@ -10275,7 +10297,7 @@
         <v>3873</v>
       </c>
       <c r="K197" t="n">
-        <v>15.69230769230769</v>
+        <v>58.38926174496645</v>
       </c>
       <c r="L197" t="n">
         <v>1655.6</v>
@@ -10326,7 +10348,7 @@
         <v>3893</v>
       </c>
       <c r="K198" t="n">
-        <v>9.941520467836257</v>
+        <v>25</v>
       </c>
       <c r="L198" t="n">
         <v>1662.3</v>
@@ -10377,7 +10399,7 @@
         <v>3914</v>
       </c>
       <c r="K199" t="n">
-        <v>15.15151515151515</v>
+        <v>37.66233766233766</v>
       </c>
       <c r="L199" t="n">
         <v>1667.8</v>
@@ -10428,7 +10450,7 @@
         <v>3920</v>
       </c>
       <c r="K200" t="n">
-        <v>25.90361445783132</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="L200" t="n">
         <v>1673</v>
@@ -10479,7 +10501,7 @@
         <v>3925</v>
       </c>
       <c r="K201" t="n">
-        <v>23.35329341317365</v>
+        <v>44.14414414414414</v>
       </c>
       <c r="L201" t="n">
         <v>1680.5</v>
@@ -10530,7 +10552,7 @@
         <v>3954</v>
       </c>
       <c r="K202" t="n">
-        <v>4.26829268292683</v>
+        <v>9.774436090225564</v>
       </c>
       <c r="L202" t="n">
         <v>1682.5</v>
@@ -10581,7 +10603,7 @@
         <v>3961</v>
       </c>
       <c r="K203" t="n">
-        <v>16.33986928104575</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L203" t="n">
         <v>1684.5</v>
@@ -10632,7 +10654,7 @@
         <v>3962</v>
       </c>
       <c r="K204" t="n">
-        <v>13.42281879194631</v>
+        <v>-11.92660550458716</v>
       </c>
       <c r="L204" t="n">
         <v>1683.6</v>
@@ -10683,7 +10705,7 @@
         <v>3962</v>
       </c>
       <c r="K205" t="n">
-        <v>14.18918918918919</v>
+        <v>-28.42105263157895</v>
       </c>
       <c r="L205" t="n">
         <v>1682.3</v>
@@ -10734,7 +10756,7 @@
         <v>3995</v>
       </c>
       <c r="K206" t="n">
-        <v>16.99346405228758</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>1682.9</v>
@@ -10785,7 +10807,7 @@
         <v>3995</v>
       </c>
       <c r="K207" t="n">
-        <v>26.5017667844523</v>
+        <v>19.6078431372549</v>
       </c>
       <c r="L207" t="n">
         <v>1682.9</v>
@@ -10836,7 +10858,7 @@
         <v>4023</v>
       </c>
       <c r="K208" t="n">
-        <v>19.73244147157191</v>
+        <v>-26.60550458715597</v>
       </c>
       <c r="L208" t="n">
         <v>1682.1</v>
@@ -10887,7 +10909,7 @@
         <v>4068</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.109324758842444</v>
+        <v>-45.94594594594595</v>
       </c>
       <c r="L209" t="n">
         <v>1674.7</v>
@@ -10938,7 +10960,7 @@
         <v>4140</v>
       </c>
       <c r="K210" t="n">
-        <v>14.73684210526316</v>
+        <v>4.186046511627907</v>
       </c>
       <c r="L210" t="n">
         <v>1675.1</v>
@@ -10989,7 +11011,7 @@
         <v>4140</v>
       </c>
       <c r="K211" t="n">
-        <v>23.86363636363636</v>
+        <v>20.43010752688172</v>
       </c>
       <c r="L211" t="n">
         <v>1676</v>
@@ -11040,7 +11062,7 @@
         <v>4200</v>
       </c>
       <c r="K212" t="n">
-        <v>-0.5181347150259068</v>
+        <v>-12.13389121338912</v>
       </c>
       <c r="L212" t="n">
         <v>1673.8</v>
@@ -11091,7 +11113,7 @@
         <v>4212</v>
       </c>
       <c r="K213" t="n">
-        <v>0.7672634271099744</v>
+        <v>-6.4</v>
       </c>
       <c r="L213" t="n">
         <v>1672.1</v>
@@ -11142,7 +11164,7 @@
         <v>4218</v>
       </c>
       <c r="K214" t="n">
-        <v>-5.149051490514905</v>
+        <v>-3.90625</v>
       </c>
       <c r="L214" t="n">
         <v>1671.1</v>
@@ -11193,7 +11215,7 @@
         <v>4223</v>
       </c>
       <c r="K215" t="n">
-        <v>-4.864864864864865</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L215" t="n">
         <v>1670.6</v>
@@ -11244,7 +11266,7 @@
         <v>4230</v>
       </c>
       <c r="K216" t="n">
-        <v>-6.887052341597796</v>
+        <v>-13.19148936170213</v>
       </c>
       <c r="L216" t="n">
         <v>1667.5</v>
@@ -11295,7 +11317,7 @@
         <v>4238</v>
       </c>
       <c r="K217" t="n">
-        <v>-10.68493150684932</v>
+        <v>-5.116279069767442</v>
       </c>
       <c r="L217" t="n">
         <v>1663.6</v>
@@ -11346,7 +11368,7 @@
         <v>4252</v>
       </c>
       <c r="K218" t="n">
-        <v>-1.392757660167131</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L218" t="n">
         <v>1663.9</v>
@@ -11397,7 +11419,7 @@
         <v>4262</v>
       </c>
       <c r="K219" t="n">
-        <v>-10.3448275862069</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L219" t="n">
         <v>1667.7</v>
@@ -11448,7 +11470,7 @@
         <v>4262</v>
       </c>
       <c r="K220" t="n">
-        <v>-8.771929824561402</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L220" t="n">
         <v>1664.3</v>
@@ -11499,7 +11521,7 @@
         <v>4263</v>
       </c>
       <c r="K221" t="n">
-        <v>-7.692307692307693</v>
+        <v>39.68253968253968</v>
       </c>
       <c r="L221" t="n">
         <v>1660.8</v>
@@ -11550,7 +11572,7 @@
         <v>4269</v>
       </c>
       <c r="K222" t="n">
-        <v>-0.9523809523809524</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="L222" t="n">
         <v>1662.7</v>
@@ -11601,7 +11623,7 @@
         <v>4290</v>
       </c>
       <c r="K223" t="n">
-        <v>-9.422492401215806</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L223" t="n">
         <v>1661.3</v>
@@ -11652,7 +11674,7 @@
         <v>4302</v>
       </c>
       <c r="K224" t="n">
-        <v>-5.294117647058823</v>
+        <v>-16.45569620253164</v>
       </c>
       <c r="L224" t="n">
         <v>1660.5</v>
@@ -11703,7 +11725,7 @@
         <v>4302</v>
       </c>
       <c r="K225" t="n">
-        <v>-5.294117647058823</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L225" t="n">
         <v>1659.2</v>
@@ -11754,7 +11776,7 @@
         <v>4307</v>
       </c>
       <c r="K226" t="n">
-        <v>-14.74358974358974</v>
+        <v>-10.14492753623188</v>
       </c>
       <c r="L226" t="n">
         <v>1657.7</v>
@@ -11805,7 +11827,7 @@
         <v>4328</v>
       </c>
       <c r="K227" t="n">
-        <v>-7.507507507507508</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>1659.1</v>
@@ -11856,7 +11878,7 @@
         <v>4347</v>
       </c>
       <c r="K228" t="n">
-        <v>-4.938271604938271</v>
+        <v>-10.58823529411765</v>
       </c>
       <c r="L228" t="n">
         <v>1657.2</v>
@@ -11907,7 +11929,7 @@
         <v>4352</v>
       </c>
       <c r="K229" t="n">
-        <v>11.97183098591549</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="L229" t="n">
         <v>1656.8</v>
@@ -11958,7 +11980,7 @@
         <v>4357</v>
       </c>
       <c r="K230" t="n">
-        <v>-19.81566820276498</v>
+        <v>-8.51063829787234</v>
       </c>
       <c r="L230" t="n">
         <v>1655.9</v>
@@ -12009,7 +12031,7 @@
         <v>4373</v>
       </c>
       <c r="K231" t="n">
-        <v>-25.32188841201717</v>
+        <v>-17.30769230769231</v>
       </c>
       <c r="L231" t="n">
         <v>1653.5</v>
@@ -12060,7 +12082,7 @@
         <v>4379</v>
       </c>
       <c r="K232" t="n">
-        <v>-2.793296089385475</v>
+        <v>-3.370786516853932</v>
       </c>
       <c r="L232" t="n">
         <v>1651.1</v>
@@ -12111,7 +12133,7 @@
         <v>4406</v>
       </c>
       <c r="K233" t="n">
-        <v>-22.68041237113402</v>
+        <v>-40.38461538461539</v>
       </c>
       <c r="L233" t="n">
         <v>1648.1</v>
@@ -12162,7 +12184,7 @@
         <v>4424</v>
       </c>
       <c r="K234" t="n">
-        <v>-15.53398058252427</v>
+        <v>-19.67213114754098</v>
       </c>
       <c r="L234" t="n">
         <v>1645.7</v>
@@ -12213,7 +12235,7 @@
         <v>4436</v>
       </c>
       <c r="K235" t="n">
-        <v>-11.73708920187793</v>
+        <v>-13.17829457364341</v>
       </c>
       <c r="L235" t="n">
         <v>1644.5</v>
@@ -12264,7 +12286,7 @@
         <v>4437</v>
       </c>
       <c r="K236" t="n">
-        <v>-14.97584541062802</v>
+        <v>-33.94495412844037</v>
       </c>
       <c r="L236" t="n">
         <v>1642.9</v>
@@ -12315,7 +12337,7 @@
         <v>4470</v>
       </c>
       <c r="K237" t="n">
-        <v>-24.13793103448276</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L237" t="n">
         <v>1635.9</v>
@@ -12366,7 +12388,7 @@
         <v>4487</v>
       </c>
       <c r="K238" t="n">
-        <v>-22.5531914893617</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L238" t="n">
         <v>1632.5</v>
@@ -12417,7 +12439,7 @@
         <v>4505</v>
       </c>
       <c r="K239" t="n">
-        <v>-10.2880658436214</v>
+        <v>-10.81081081081081</v>
       </c>
       <c r="L239" t="n">
         <v>1630.4</v>
@@ -12468,7 +12490,7 @@
         <v>4534</v>
       </c>
       <c r="K240" t="n">
-        <v>1.470588235294118</v>
+        <v>18.01242236024845</v>
       </c>
       <c r="L240" t="n">
         <v>1631.7</v>
@@ -12519,7 +12541,7 @@
         <v>4538</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3636363636363636</v>
+        <v>19.49685534591195</v>
       </c>
       <c r="L241" t="n">
         <v>1634.2</v>
@@ -12570,7 +12592,7 @@
         <v>4574</v>
       </c>
       <c r="K242" t="n">
-        <v>-9.508196721311474</v>
+        <v>13.0952380952381</v>
       </c>
       <c r="L242" t="n">
         <v>1633.7</v>
@@ -12621,7 +12643,7 @@
         <v>4575</v>
       </c>
       <c r="K243" t="n">
-        <v>-2.456140350877193</v>
+        <v>3.311258278145695</v>
       </c>
       <c r="L243" t="n">
         <v>1636</v>
@@ -12672,7 +12694,7 @@
         <v>4597</v>
       </c>
       <c r="K244" t="n">
-        <v>1.016949152542373</v>
+        <v>9.316770186335404</v>
       </c>
       <c r="L244" t="n">
         <v>1638.7</v>
@@ -12723,7 +12745,7 @@
         <v>4603</v>
       </c>
       <c r="K245" t="n">
-        <v>2.990033222591362</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="L245" t="n">
         <v>1640.8</v>
@@ -12774,7 +12796,7 @@
         <v>4605</v>
       </c>
       <c r="K246" t="n">
-        <v>2.013422818791946</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L246" t="n">
         <v>1643</v>
@@ -12825,7 +12847,7 @@
         <v>4634</v>
       </c>
       <c r="K247" t="n">
-        <v>-14.37908496732026</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="L247" t="n">
         <v>1645.6</v>
@@ -12876,7 +12898,7 @@
         <v>4653</v>
       </c>
       <c r="K248" t="n">
-        <v>-1.96078431372549</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="L248" t="n">
         <v>1648.4</v>
@@ -12927,7 +12949,7 @@
         <v>4654</v>
       </c>
       <c r="K249" t="n">
-        <v>-3.311258278145695</v>
+        <v>-15</v>
       </c>
       <c r="L249" t="n">
         <v>1649.5</v>
@@ -12978,7 +13000,7 @@
         <v>4655</v>
       </c>
       <c r="K250" t="n">
-        <v>-1.342281879194631</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L250" t="n">
         <v>1647.8</v>
@@ -13029,7 +13051,7 @@
         <v>4656</v>
       </c>
       <c r="K251" t="n">
-        <v>3.886925795053004</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L251" t="n">
         <v>1646.4</v>
@@ -13080,7 +13102,7 @@
         <v>4673</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="L252" t="n">
         <v>1646.9</v>
@@ -13131,7 +13153,7 @@
         <v>4674</v>
       </c>
       <c r="K253" t="n">
-        <v>9.701492537313433</v>
+        <v>-24.67532467532467</v>
       </c>
       <c r="L253" t="n">
         <v>1647.2</v>
@@ -13182,7 +13204,7 @@
         <v>4691</v>
       </c>
       <c r="K254" t="n">
-        <v>9.363295880149813</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L254" t="n">
         <v>1647</v>
@@ -13233,7 +13255,7 @@
         <v>4711</v>
       </c>
       <c r="K255" t="n">
-        <v>-2.545454545454545</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L255" t="n">
         <v>1644.2</v>
@@ -13284,7 +13306,7 @@
         <v>4712</v>
       </c>
       <c r="K256" t="n">
-        <v>-3.272727272727273</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L256" t="n">
         <v>1641.1</v>
@@ -13335,7 +13357,7 @@
         <v>4733</v>
       </c>
       <c r="K257" t="n">
-        <v>17.11026615969581</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>1643</v>
@@ -13386,7 +13408,7 @@
         <v>4733</v>
       </c>
       <c r="K258" t="n">
-        <v>11.38211382113821</v>
+        <v>-1.265822784810127</v>
       </c>
       <c r="L258" t="n">
         <v>1643</v>
@@ -13437,7 +13459,7 @@
         <v>4737</v>
       </c>
       <c r="K259" t="n">
-        <v>2.586206896551724</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L259" t="n">
         <v>1642.5</v>
@@ -13488,7 +13510,7 @@
         <v>4737</v>
       </c>
       <c r="K260" t="n">
-        <v>-11.33004926108374</v>
+        <v>-6.172839506172839</v>
       </c>
       <c r="L260" t="n">
         <v>1641.9</v>
@@ -13539,7 +13561,7 @@
         <v>4783</v>
       </c>
       <c r="K261" t="n">
-        <v>-26.53061224489796</v>
+        <v>-30.90909090909091</v>
       </c>
       <c r="L261" t="n">
         <v>1636.8</v>
@@ -13590,7 +13612,7 @@
         <v>4874</v>
       </c>
       <c r="K262" t="n">
-        <v>-40</v>
+        <v>-62</v>
       </c>
       <c r="L262" t="n">
         <v>1624.3</v>
@@ -13641,7 +13663,7 @@
         <v>4905</v>
       </c>
       <c r="K263" t="n">
-        <v>-27.27272727272727</v>
+        <v>-51.4018691588785</v>
       </c>
       <c r="L263" t="n">
         <v>1615</v>
@@ -13692,7 +13714,7 @@
         <v>4942</v>
       </c>
       <c r="K264" t="n">
-        <v>-21.73913043478261</v>
+        <v>-22.94372294372294</v>
       </c>
       <c r="L264" t="n">
         <v>1607.7</v>
@@ -13743,7 +13765,7 @@
         <v>4973</v>
       </c>
       <c r="K265" t="n">
-        <v>-13.51351351351351</v>
+        <v>-8.045977011494253</v>
       </c>
       <c r="L265" t="n">
         <v>1605.5</v>
@@ -13794,7 +13816,7 @@
         <v>4995</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.692307692307693</v>
+        <v>-7.633587786259542</v>
       </c>
       <c r="L266" t="n">
         <v>1605.6</v>
@@ -13845,7 +13867,7 @@
         <v>4996</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-7.224334600760455</v>
       </c>
       <c r="L267" t="n">
         <v>1603.7</v>
@@ -13896,7 +13918,7 @@
         <v>4997</v>
       </c>
       <c r="K268" t="n">
-        <v>-5.232558139534884</v>
+        <v>-5.384615384615385</v>
       </c>
       <c r="L268" t="n">
         <v>1601.9</v>
@@ -13947,7 +13969,7 @@
         <v>5002</v>
       </c>
       <c r="K269" t="n">
-        <v>-6.896551724137931</v>
+        <v>-7.169811320754717</v>
       </c>
       <c r="L269" t="n">
         <v>1600</v>
@@ -13998,7 +14020,7 @@
         <v>5007</v>
       </c>
       <c r="K270" t="n">
-        <v>-5.681818181818182</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L270" t="n">
         <v>1598.6</v>
@@ -14049,7 +14071,7 @@
         <v>5088</v>
       </c>
       <c r="K271" t="n">
-        <v>-23.14814814814815</v>
+        <v>19.62616822429906</v>
       </c>
       <c r="L271" t="n">
         <v>1593.7</v>
@@ -14100,7 +14122,7 @@
         <v>5097</v>
       </c>
       <c r="K272" t="n">
-        <v>-17.45283018867924</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="L272" t="n">
         <v>1598.8</v>
@@ -14151,7 +14173,7 @@
         <v>5155</v>
       </c>
       <c r="K273" t="n">
-        <v>-3.118503118503119</v>
+        <v>19.24882629107981</v>
       </c>
       <c r="L273" t="n">
         <v>1606.6</v>
@@ -14202,7 +14224,7 @@
         <v>5158</v>
       </c>
       <c r="K274" t="n">
-        <v>-7.494646680942184</v>
+        <v>3.783783783783784</v>
       </c>
       <c r="L274" t="n">
         <v>1610.4</v>
@@ -14253,7 +14275,7 @@
         <v>5166</v>
       </c>
       <c r="K275" t="n">
-        <v>-5.054945054945055</v>
+        <v>-13.45029239766082</v>
       </c>
       <c r="L275" t="n">
         <v>1610.3</v>
@@ -14304,7 +14326,7 @@
         <v>5177</v>
       </c>
       <c r="K276" t="n">
-        <v>-7.096774193548387</v>
+        <v>-19.33701657458564</v>
       </c>
       <c r="L276" t="n">
         <v>1606.9</v>
@@ -14355,7 +14377,7 @@
         <v>5186</v>
       </c>
       <c r="K277" t="n">
-        <v>-13.90728476821192</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L277" t="n">
         <v>1602.5</v>
@@ -14406,7 +14428,7 @@
         <v>5211</v>
       </c>
       <c r="K278" t="n">
-        <v>-18.41004184100418</v>
+        <v>-31.10047846889952</v>
       </c>
       <c r="L278" t="n">
         <v>1595.5</v>
@@ -14457,7 +14479,7 @@
         <v>5228</v>
       </c>
       <c r="K279" t="n">
-        <v>-13.64562118126273</v>
+        <v>-23.98190045248869</v>
       </c>
       <c r="L279" t="n">
         <v>1590.7</v>
@@ -14508,7 +14530,7 @@
         <v>5247</v>
       </c>
       <c r="K280" t="n">
-        <v>-16.86274509803922</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L280" t="n">
         <v>1583.5</v>
@@ -14559,7 +14581,7 @@
         <v>5286</v>
       </c>
       <c r="K281" t="n">
-        <v>-0.1988071570576541</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L281" t="n">
         <v>1588.3</v>
@@ -14610,7 +14632,7 @@
         <v>5286</v>
       </c>
       <c r="K282" t="n">
-        <v>21.84466019417476</v>
+        <v>-14.50381679389313</v>
       </c>
       <c r="L282" t="n">
         <v>1592.2</v>
@@ -14661,7 +14683,7 @@
         <v>5288</v>
       </c>
       <c r="K283" t="n">
-        <v>15.92689295039164</v>
+        <v>-10.76923076923077</v>
       </c>
       <c r="L283" t="n">
         <v>1590.5</v>
@@ -14712,7 +14734,7 @@
         <v>5288</v>
       </c>
       <c r="K284" t="n">
-        <v>6.936416184971097</v>
+        <v>-4.918032786885246</v>
       </c>
       <c r="L284" t="n">
         <v>1589.1</v>
@@ -14763,7 +14785,7 @@
         <v>5305</v>
       </c>
       <c r="K285" t="n">
-        <v>3.012048192771084</v>
+        <v>17.1875</v>
       </c>
       <c r="L285" t="n">
         <v>1590.2</v>
@@ -14814,7 +14836,7 @@
         <v>5321</v>
       </c>
       <c r="K286" t="n">
-        <v>-8.588957055214724</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L286" t="n">
         <v>1590.8</v>
@@ -14865,7 +14887,7 @@
         <v>5322</v>
       </c>
       <c r="K287" t="n">
-        <v>-8.588957055214724</v>
+        <v>36.93693693693694</v>
       </c>
       <c r="L287" t="n">
         <v>1592.4</v>
@@ -14916,7 +14938,7 @@
         <v>5346</v>
       </c>
       <c r="K288" t="n">
-        <v>-1.432664756446991</v>
+        <v>40.67796610169492</v>
       </c>
       <c r="L288" t="n">
         <v>1598.9</v>
@@ -14967,7 +14989,7 @@
         <v>5360</v>
       </c>
       <c r="K289" t="n">
-        <v>-3.910614525139665</v>
+        <v>46.90265486725664</v>
       </c>
       <c r="L289" t="n">
         <v>1602.3</v>
@@ -15018,7 +15040,7 @@
         <v>5373</v>
       </c>
       <c r="K290" t="n">
-        <v>-8.743169398907105</v>
+        <v>1.149425287356322</v>
       </c>
       <c r="L290" t="n">
         <v>1606.3</v>
@@ -15069,7 +15091,7 @@
         <v>5373</v>
       </c>
       <c r="K291" t="n">
-        <v>17.19298245614035</v>
+        <v>1.149425287356322</v>
       </c>
       <c r="L291" t="n">
         <v>1606.4</v>
@@ -15120,7 +15142,7 @@
         <v>5373</v>
       </c>
       <c r="K292" t="n">
-        <v>14.49275362318841</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L292" t="n">
         <v>1606.5</v>
@@ -15171,7 +15193,7 @@
         <v>5406</v>
       </c>
       <c r="K293" t="n">
-        <v>-20.31872509960159</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L293" t="n">
         <v>1603.1</v>
@@ -15222,7 +15244,7 @@
         <v>5435</v>
       </c>
       <c r="K294" t="n">
-        <v>-6.859205776173286</v>
+        <v>-16.92307692307692</v>
       </c>
       <c r="L294" t="n">
         <v>1602.6</v>
@@ -15273,7 +15295,7 @@
         <v>5471</v>
       </c>
       <c r="K295" t="n">
-        <v>-15.40983606557377</v>
+        <v>-28</v>
       </c>
       <c r="L295" t="n">
         <v>1596.8</v>
@@ -15324,7 +15346,7 @@
         <v>5507</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-3.783783783783784</v>
       </c>
       <c r="L296" t="n">
         <v>1596.2</v>
@@ -15375,7 +15397,7 @@
         <v>5541</v>
       </c>
       <c r="K297" t="n">
-        <v>-7.042253521126761</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>1592.1</v>
@@ -15426,7 +15448,7 @@
         <v>5569</v>
       </c>
       <c r="K298" t="n">
-        <v>7.82122905027933</v>
+        <v>-11.00478468899522</v>
       </c>
       <c r="L298" t="n">
         <v>1588.4</v>
@@ -15477,7 +15499,7 @@
         <v>5574</v>
       </c>
       <c r="K299" t="n">
-        <v>1.734104046242774</v>
+        <v>-7.462686567164178</v>
       </c>
       <c r="L299" t="n">
         <v>1585.6</v>
@@ -15528,7 +15550,7 @@
         <v>5597</v>
       </c>
       <c r="K300" t="n">
-        <v>0.5714285714285714</v>
+        <v>-16.96428571428572</v>
       </c>
       <c r="L300" t="n">
         <v>1581.8</v>
@@ -15579,7 +15601,7 @@
         <v>5632</v>
       </c>
       <c r="K301" t="n">
-        <v>-0.5780346820809248</v>
+        <v>-1.158301158301158</v>
       </c>
       <c r="L301" t="n">
         <v>1581.5</v>
@@ -15630,7 +15652,7 @@
         <v>5647</v>
       </c>
       <c r="K302" t="n">
-        <v>-4.709141274238227</v>
+        <v>6.224066390041494</v>
       </c>
       <c r="L302" t="n">
         <v>1579.7</v>
@@ -15681,7 +15703,7 @@
         <v>5659</v>
       </c>
       <c r="K303" t="n">
-        <v>-1.886792452830189</v>
+        <v>-0.8928571428571428</v>
       </c>
       <c r="L303" t="n">
         <v>1582.4</v>
@@ -15732,7 +15754,7 @@
         <v>5661</v>
       </c>
       <c r="K304" t="n">
-        <v>-1.340482573726542</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="L304" t="n">
         <v>1582.4</v>
@@ -15783,7 +15805,7 @@
         <v>5670</v>
       </c>
       <c r="K305" t="n">
-        <v>-3.561643835616438</v>
+        <v>5.521472392638037</v>
       </c>
       <c r="L305" t="n">
         <v>1586.9</v>
@@ -15834,7 +15856,7 @@
         <v>5685</v>
       </c>
       <c r="K306" t="n">
-        <v>4.945054945054945</v>
+        <v>40.27777777777778</v>
       </c>
       <c r="L306" t="n">
         <v>1589.3</v>
@@ -15885,7 +15907,7 @@
         <v>5692</v>
       </c>
       <c r="K307" t="n">
-        <v>6.486486486486487</v>
+        <v>30.08130081300813</v>
       </c>
       <c r="L307" t="n">
         <v>1595.8</v>
@@ -15936,7 +15958,7 @@
         <v>5693</v>
       </c>
       <c r="K308" t="n">
-        <v>-0.2881844380403458</v>
+        <v>34.45378151260504</v>
       </c>
       <c r="L308" t="n">
         <v>1599.4</v>
@@ -15987,7 +16009,7 @@
         <v>5704</v>
       </c>
       <c r="K309" t="n">
-        <v>0.5813953488372093</v>
+        <v>49.53271028037383</v>
       </c>
       <c r="L309" t="n">
         <v>1602.4</v>
@@ -16038,7 +16060,7 @@
         <v>5705</v>
       </c>
       <c r="K310" t="n">
-        <v>4.819277108433735</v>
+        <v>26.02739726027397</v>
       </c>
       <c r="L310" t="n">
         <v>1607.8</v>
@@ -16089,7 +16111,7 @@
         <v>5714</v>
       </c>
       <c r="K311" t="n">
-        <v>7.331378299120235</v>
+        <v>64.17910447761194</v>
       </c>
       <c r="L311" t="n">
         <v>1610.6</v>
@@ -16140,7 +16162,7 @@
         <v>5715</v>
       </c>
       <c r="K312" t="n">
-        <v>7.602339181286549</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L312" t="n">
         <v>1615</v>
@@ -16191,7 +16213,7 @@
         <v>5726</v>
       </c>
       <c r="K313" t="n">
-        <v>15</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="L313" t="n">
         <v>1617.1</v>
@@ -16242,7 +16264,7 @@
         <v>5726</v>
       </c>
       <c r="K314" t="n">
-        <v>6.529209621993128</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="L314" t="n">
         <v>1619</v>
@@ -16293,7 +16315,7 @@
         <v>5737</v>
       </c>
       <c r="K315" t="n">
-        <v>24.81203007518797</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L315" t="n">
         <v>1621.1</v>
@@ -16344,7 +16366,7 @@
         <v>5754</v>
       </c>
       <c r="K316" t="n">
-        <v>5.263157894736842</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L316" t="n">
         <v>1620</v>
@@ -16395,7 +16417,7 @@
         <v>5768</v>
       </c>
       <c r="K317" t="n">
-        <v>26.87224669603524</v>
+        <v>-4</v>
       </c>
       <c r="L317" t="n">
         <v>1619.6</v>
@@ -16446,7 +16468,7 @@
         <v>5768</v>
       </c>
       <c r="K318" t="n">
-        <v>16.58291457286432</v>
+        <v>12.5</v>
       </c>
       <c r="L318" t="n">
         <v>1619.3</v>
@@ -16497,7 +16519,7 @@
         <v>5768</v>
       </c>
       <c r="K319" t="n">
-        <v>19.58762886597938</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L319" t="n">
         <v>1620.1</v>
@@ -16548,7 +16570,7 @@
         <v>5768</v>
       </c>
       <c r="K320" t="n">
-        <v>35.67251461988304</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L320" t="n">
         <v>1620.8</v>
@@ -16599,7 +16621,7 @@
         <v>5769</v>
       </c>
       <c r="K321" t="n">
-        <v>18.24817518248175</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L321" t="n">
         <v>1620.5</v>
@@ -16650,7 +16672,7 @@
         <v>5771</v>
       </c>
       <c r="K322" t="n">
-        <v>30.64516129032258</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L322" t="n">
         <v>1619.9</v>
@@ -16701,7 +16723,7 @@
         <v>5771</v>
       </c>
       <c r="K323" t="n">
-        <v>23.21428571428572</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L323" t="n">
         <v>1620.4</v>
@@ -16752,7 +16774,7 @@
         <v>5798</v>
       </c>
       <c r="K324" t="n">
-        <v>-2.18978102189781</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L324" t="n">
         <v>1618.2</v>
@@ -16803,7 +16825,7 @@
         <v>5801</v>
       </c>
       <c r="K325" t="n">
-        <v>-11.45038167938931</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L325" t="n">
         <v>1614.6</v>
@@ -16854,7 +16876,7 @@
         <v>5836</v>
       </c>
       <c r="K326" t="n">
-        <v>3.311258278145695</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="L326" t="n">
         <v>1616.2</v>
@@ -16905,7 +16927,7 @@
         <v>5848</v>
       </c>
       <c r="K327" t="n">
-        <v>6.41025641025641</v>
+        <v>17.5</v>
       </c>
       <c r="L327" t="n">
         <v>1617.6</v>
@@ -16956,7 +16978,7 @@
         <v>5849</v>
       </c>
       <c r="K328" t="n">
-        <v>6.41025641025641</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="L328" t="n">
         <v>1618.9</v>
@@ -17007,7 +17029,7 @@
         <v>5869</v>
       </c>
       <c r="K329" t="n">
-        <v>0.6060606060606061</v>
+        <v>-6.930693069306932</v>
       </c>
       <c r="L329" t="n">
         <v>1618.2</v>
@@ -17058,7 +17080,7 @@
         <v>5895</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.68421052631579</v>
+        <v>-25.3968253968254</v>
       </c>
       <c r="L330" t="n">
         <v>1614.9</v>
@@ -17109,7 +17131,7 @@
         <v>5900</v>
       </c>
       <c r="K331" t="n">
-        <v>-21.50537634408602</v>
+        <v>-27.13178294573643</v>
       </c>
       <c r="L331" t="n">
         <v>1611.2</v>
@@ -17160,7 +17182,7 @@
         <v>5900</v>
       </c>
       <c r="K332" t="n">
-        <v>-22.16216216216216</v>
+        <v>-27.13178294573643</v>
       </c>
       <c r="L332" t="n">
         <v>1607.7</v>
@@ -17211,7 +17233,7 @@
         <v>5947</v>
       </c>
       <c r="K333" t="n">
-        <v>7.692307692307693</v>
+        <v>26.1744966442953</v>
       </c>
       <c r="L333" t="n">
         <v>1608.9</v>
@@ -17262,7 +17284,7 @@
         <v>5953</v>
       </c>
       <c r="K334" t="n">
-        <v>10.13215859030837</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L334" t="n">
         <v>1613.4</v>
@@ -17313,7 +17335,7 @@
         <v>5954</v>
       </c>
       <c r="K335" t="n">
-        <v>5.990783410138248</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="L335" t="n">
         <v>1618.3</v>
@@ -17364,7 +17386,7 @@
         <v>5955</v>
       </c>
       <c r="K336" t="n">
-        <v>14.42786069651741</v>
+        <v>0.9345794392523363</v>
       </c>
       <c r="L336" t="n">
         <v>1619.6</v>
@@ -17415,7 +17437,7 @@
         <v>5986</v>
       </c>
       <c r="K337" t="n">
-        <v>-7.339449541284404</v>
+        <v>-21.16788321167883</v>
       </c>
       <c r="L337" t="n">
         <v>1616.6</v>
@@ -17466,7 +17488,7 @@
         <v>5992</v>
       </c>
       <c r="K338" t="n">
-        <v>-9.821428571428571</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L338" t="n">
         <v>1613.1</v>
@@ -17517,7 +17539,7 @@
         <v>6007</v>
       </c>
       <c r="K339" t="n">
-        <v>-2.928870292887029</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="L339" t="n">
         <v>1613.1</v>
@@ -17568,7 +17590,7 @@
         <v>6013</v>
       </c>
       <c r="K340" t="n">
-        <v>-0.4081632653061225</v>
+        <v>32.74336283185841</v>
       </c>
       <c r="L340" t="n">
         <v>1616.3</v>
@@ -17619,7 +17641,7 @@
         <v>6040</v>
       </c>
       <c r="K341" t="n">
-        <v>9.963099630996309</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="L341" t="n">
         <v>1622.7</v>
@@ -17670,7 +17692,7 @@
         <v>6077</v>
       </c>
       <c r="K342" t="n">
-        <v>-2.61437908496732</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L342" t="n">
         <v>1625.4</v>
@@ -17721,7 +17743,7 @@
         <v>6113</v>
       </c>
       <c r="K343" t="n">
-        <v>8.187134502923977</v>
+        <v>6.25</v>
       </c>
       <c r="L343" t="n">
         <v>1627</v>
@@ -17772,7 +17794,7 @@
         <v>6139</v>
       </c>
       <c r="K344" t="n">
-        <v>8.504398826979472</v>
+        <v>-9.189189189189189</v>
       </c>
       <c r="L344" t="n">
         <v>1625.4</v>
@@ -17823,7 +17845,7 @@
         <v>6164</v>
       </c>
       <c r="K345" t="n">
-        <v>15.70247933884298</v>
+        <v>4.30622009569378</v>
       </c>
       <c r="L345" t="n">
         <v>1626.2</v>
@@ -17874,7 +17896,7 @@
         <v>6189</v>
       </c>
       <c r="K346" t="n">
-        <v>-0.84985835694051</v>
+        <v>7.389162561576355</v>
       </c>
       <c r="L346" t="n">
         <v>1624.6</v>
@@ -17925,7 +17947,7 @@
         <v>6195</v>
       </c>
       <c r="K347" t="n">
-        <v>-6.051873198847262</v>
+        <v>7.389162561576355</v>
       </c>
       <c r="L347" t="n">
         <v>1625.5</v>
@@ -17976,7 +17998,7 @@
         <v>6206</v>
       </c>
       <c r="K348" t="n">
-        <v>-8.683473389355742</v>
+        <v>-5.527638190954774</v>
       </c>
       <c r="L348" t="n">
         <v>1625.9</v>
@@ -18027,7 +18049,7 @@
         <v>6208</v>
       </c>
       <c r="K349" t="n">
-        <v>-3.834808259587021</v>
+        <v>-9.743589743589745</v>
       </c>
       <c r="L349" t="n">
         <v>1624.6</v>
@@ -18078,7 +18100,7 @@
         <v>6241</v>
       </c>
       <c r="K350" t="n">
-        <v>13.29479768786127</v>
+        <v>-6.467661691542288</v>
       </c>
       <c r="L350" t="n">
         <v>1626</v>
@@ -18129,7 +18151,7 @@
         <v>6271</v>
       </c>
       <c r="K351" t="n">
-        <v>5.660377358490567</v>
+        <v>-3.092783505154639</v>
       </c>
       <c r="L351" t="n">
         <v>1621.7</v>
@@ -18180,7 +18202,7 @@
         <v>6271</v>
       </c>
       <c r="K352" t="n">
-        <v>5.660377358490567</v>
+        <v>-26.58227848101265</v>
       </c>
       <c r="L352" t="n">
         <v>1621.1</v>
@@ -18231,7 +18253,7 @@
         <v>6273</v>
       </c>
       <c r="K353" t="n">
-        <v>-7.361963190184049</v>
+        <v>-10.44776119402985</v>
       </c>
       <c r="L353" t="n">
         <v>1617.1</v>
@@ -18282,7 +18304,7 @@
         <v>6275</v>
       </c>
       <c r="K354" t="n">
-        <v>-8.695652173913043</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>1615.9</v>
@@ -18333,7 +18355,7 @@
         <v>6278</v>
       </c>
       <c r="K355" t="n">
-        <v>-8.024691358024691</v>
+        <v>-10.1123595505618</v>
       </c>
       <c r="L355" t="n">
         <v>1612.5</v>
@@ -18384,7 +18406,7 @@
         <v>6280</v>
       </c>
       <c r="K356" t="n">
-        <v>-8.307692307692308</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L356" t="n">
         <v>1611.4</v>
@@ -18435,7 +18457,7 @@
         <v>6282</v>
       </c>
       <c r="K357" t="n">
-        <v>2.027027027027027</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L357" t="n">
         <v>1611.1</v>
@@ -18486,7 +18508,7 @@
         <v>6295</v>
       </c>
       <c r="K358" t="n">
-        <v>8.25082508250825</v>
+        <v>26.4367816091954</v>
       </c>
       <c r="L358" t="n">
         <v>1613.2</v>
@@ -18537,7 +18559,7 @@
         <v>6300</v>
       </c>
       <c r="K359" t="n">
-        <v>5.119453924914676</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L359" t="n">
         <v>1616</v>
@@ -18588,7 +18610,7 @@
         <v>6300</v>
       </c>
       <c r="K360" t="n">
-        <v>3.13588850174216</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L360" t="n">
         <v>1615.5</v>
@@ -18639,7 +18661,7 @@
         <v>6313</v>
       </c>
       <c r="K361" t="n">
-        <v>-11.35531135531136</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L361" t="n">
         <v>1616.7</v>
@@ -18690,7 +18712,7 @@
         <v>6313</v>
       </c>
       <c r="K362" t="n">
-        <v>2.542372881355933</v>
+        <v>25</v>
       </c>
       <c r="L362" t="n">
         <v>1617.9</v>
@@ -18741,7 +18763,7 @@
         <v>6325</v>
       </c>
       <c r="K363" t="n">
-        <v>-8.490566037735849</v>
+        <v>40</v>
       </c>
       <c r="L363" t="n">
         <v>1620.1</v>
@@ -18792,7 +18814,7 @@
         <v>6326</v>
       </c>
       <c r="K364" t="n">
-        <v>3.74331550802139</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>1622</v>
@@ -18843,7 +18865,7 @@
         <v>6326</v>
       </c>
       <c r="K365" t="n">
-        <v>-11.11111111111111</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L365" t="n">
         <v>1623.6</v>
@@ -18894,7 +18916,7 @@
         <v>6342</v>
       </c>
       <c r="K366" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>1623.8</v>
@@ -18945,7 +18967,7 @@
         <v>6342</v>
       </c>
       <c r="K367" t="n">
-        <v>-2.040816326530612</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L367" t="n">
         <v>1623.8</v>
@@ -18996,7 +19018,7 @@
         <v>6342</v>
       </c>
       <c r="K368" t="n">
-        <v>5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L368" t="n">
         <v>1622.5</v>
@@ -19047,7 +19069,7 @@
         <v>6349</v>
       </c>
       <c r="K369" t="n">
-        <v>2.127659574468085</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L369" t="n">
         <v>1620</v>
@@ -19098,7 +19120,7 @@
         <v>6369</v>
       </c>
       <c r="K370" t="n">
-        <v>-39.0625</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L370" t="n">
         <v>1615.5</v>
@@ -19149,7 +19171,7 @@
         <v>6375</v>
       </c>
       <c r="K371" t="n">
-        <v>-25</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L371" t="n">
         <v>1611.7</v>
@@ -19200,7 +19222,7 @@
         <v>6375</v>
       </c>
       <c r="K372" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L372" t="n">
         <v>1607.9</v>
@@ -19251,7 +19273,7 @@
         <v>6407</v>
       </c>
       <c r="K373" t="n">
-        <v>2.985074626865671</v>
+        <v>-20.98765432098765</v>
       </c>
       <c r="L373" t="n">
         <v>1606.1</v>
@@ -19302,7 +19324,7 @@
         <v>6411</v>
       </c>
       <c r="K374" t="n">
-        <v>-1.470588235294118</v>
+        <v>-24.70588235294118</v>
       </c>
       <c r="L374" t="n">
         <v>1604</v>
@@ -19353,7 +19375,7 @@
         <v>6411</v>
       </c>
       <c r="K375" t="n">
-        <v>-3.759398496240602</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L375" t="n">
         <v>1601.9</v>
@@ -19404,7 +19426,7 @@
         <v>6416</v>
       </c>
       <c r="K376" t="n">
-        <v>1.470588235294118</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>1601.9</v>
@@ -19455,7 +19477,7 @@
         <v>6419</v>
       </c>
       <c r="K377" t="n">
-        <v>2.18978102189781</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="L377" t="n">
         <v>1602.2</v>
@@ -19506,7 +19528,7 @@
         <v>6431</v>
       </c>
       <c r="K378" t="n">
-        <v>1.470588235294118</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L378" t="n">
         <v>1603.7</v>
@@ -19557,7 +19579,7 @@
         <v>6465</v>
       </c>
       <c r="K379" t="n">
-        <v>-22.42424242424243</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L379" t="n">
         <v>1602.5</v>
@@ -19608,7 +19630,7 @@
         <v>6467</v>
       </c>
       <c r="K380" t="n">
-        <v>-23.35329341317365</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L380" t="n">
         <v>1603.1</v>
@@ -19659,7 +19681,7 @@
         <v>6479</v>
       </c>
       <c r="K381" t="n">
-        <v>-22.89156626506024</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>1603.1</v>
@@ -19710,7 +19732,7 @@
         <v>6513</v>
       </c>
       <c r="K382" t="n">
-        <v>-2</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L382" t="n">
         <v>1606.5</v>
@@ -19761,7 +19783,7 @@
         <v>6547</v>
       </c>
       <c r="K383" t="n">
-        <v>-22.52252252252252</v>
+        <v>-20.58823529411764</v>
       </c>
       <c r="L383" t="n">
         <v>1603.3</v>
@@ -19812,7 +19834,7 @@
         <v>6547</v>
       </c>
       <c r="K384" t="n">
-        <v>-22.17194570135747</v>
+        <v>-20.58823529411764</v>
       </c>
       <c r="L384" t="n">
         <v>1600.5</v>
@@ -19863,7 +19885,7 @@
         <v>6554</v>
       </c>
       <c r="K385" t="n">
-        <v>-24.56140350877193</v>
+        <v>-28.98550724637681</v>
       </c>
       <c r="L385" t="n">
         <v>1597</v>
@@ -19914,7 +19936,7 @@
         <v>6554</v>
       </c>
       <c r="K386" t="n">
-        <v>-18.86792452830189</v>
+        <v>-31.85185185185185</v>
       </c>
       <c r="L386" t="n">
         <v>1593</v>
@@ -19965,7 +19987,7 @@
         <v>6556</v>
       </c>
       <c r="K387" t="n">
-        <v>-19.62616822429906</v>
+        <v>-45.6</v>
       </c>
       <c r="L387" t="n">
         <v>1588.5</v>
@@ -20016,7 +20038,7 @@
         <v>6556</v>
       </c>
       <c r="K388" t="n">
-        <v>-19.62616822429906</v>
+        <v>-25.27472527472527</v>
       </c>
       <c r="L388" t="n">
         <v>1582.8</v>
@@ -20067,7 +20089,7 @@
         <v>6556</v>
       </c>
       <c r="K389" t="n">
-        <v>-16.90821256038647</v>
+        <v>-23.59550561797753</v>
       </c>
       <c r="L389" t="n">
         <v>1580.5</v>
@@ -20118,7 +20140,7 @@
         <v>6564</v>
       </c>
       <c r="K390" t="n">
-        <v>-3.589743589743589</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L390" t="n">
         <v>1579.2</v>
@@ -20169,7 +20191,7 @@
         <v>6575</v>
       </c>
       <c r="K391" t="n">
-        <v>-6</v>
+        <v>-74.19354838709677</v>
       </c>
       <c r="L391" t="n">
         <v>1578</v>
@@ -20220,7 +20242,7 @@
         <v>6586</v>
       </c>
       <c r="K392" t="n">
-        <v>-0.4739336492890995</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L392" t="n">
         <v>1574.5</v>
@@ -20271,7 +20293,7 @@
         <v>6599</v>
       </c>
       <c r="K393" t="n">
-        <v>-10.41666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L393" t="n">
         <v>1575.7</v>
@@ -20322,7 +20344,7 @@
         <v>6617</v>
       </c>
       <c r="K394" t="n">
-        <v>-16.50485436893204</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L394" t="n">
         <v>1575.1</v>
@@ -20373,7 +20395,7 @@
         <v>6638</v>
       </c>
       <c r="K395" t="n">
-        <v>-5.726872246696035</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="L395" t="n">
         <v>1577.3</v>
@@ -20424,7 +20446,7 @@
         <v>6638</v>
       </c>
       <c r="K396" t="n">
-        <v>-8.108108108108109</v>
+        <v>29.26829268292683</v>
       </c>
       <c r="L396" t="n">
         <v>1579.5</v>
@@ -20475,7 +20497,7 @@
         <v>6640</v>
       </c>
       <c r="K397" t="n">
-        <v>-8.597285067873303</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="L397" t="n">
         <v>1582.1</v>
@@ -20526,7 +20548,7 @@
         <v>6643</v>
       </c>
       <c r="K398" t="n">
-        <v>-13.20754716981132</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>1585</v>
@@ -20577,7 +20599,7 @@
         <v>6667</v>
       </c>
       <c r="K399" t="n">
-        <v>14.85148514851485</v>
+        <v>43.68932038834951</v>
       </c>
       <c r="L399" t="n">
         <v>1590.3</v>
@@ -20628,7 +20650,7 @@
         <v>6668</v>
       </c>
       <c r="K400" t="n">
-        <v>15.4228855721393</v>
+        <v>59.13978494623656</v>
       </c>
       <c r="L400" t="n">
         <v>1594.7</v>
@@ -20679,7 +20701,7 @@
         <v>6670</v>
       </c>
       <c r="K401" t="n">
-        <v>21.46596858638744</v>
+        <v>50</v>
       </c>
       <c r="L401" t="n">
         <v>1600</v>
@@ -20730,7 +20752,7 @@
         <v>6681</v>
       </c>
       <c r="K402" t="n">
-        <v>-2.380952380952381</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L402" t="n">
         <v>1603.1</v>
@@ -20781,7 +20803,7 @@
         <v>6714</v>
       </c>
       <c r="K403" t="n">
-        <v>-1.796407185628742</v>
+        <v>3.092783505154639</v>
       </c>
       <c r="L403" t="n">
         <v>1601.6</v>
@@ -20832,7 +20854,7 @@
         <v>6715</v>
       </c>
       <c r="K404" t="n">
-        <v>-2.380952380952381</v>
+        <v>-24.67532467532467</v>
       </c>
       <c r="L404" t="n">
         <v>1601.8</v>
@@ -20883,7 +20905,7 @@
         <v>6715</v>
       </c>
       <c r="K405" t="n">
-        <v>1.863354037267081</v>
+        <v>-24.67532467532467</v>
       </c>
       <c r="L405" t="n">
         <v>1599.9</v>
@@ -20934,7 +20956,7 @@
         <v>6725</v>
       </c>
       <c r="K406" t="n">
-        <v>-4.093567251461988</v>
+        <v>-36.47058823529412</v>
       </c>
       <c r="L406" t="n">
         <v>1597</v>
@@ -20985,7 +21007,7 @@
         <v>6731</v>
       </c>
       <c r="K407" t="n">
-        <v>-6.285714285714286</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L407" t="n">
         <v>1593.3</v>
@@ -21036,7 +21058,7 @@
         <v>6734</v>
       </c>
       <c r="K408" t="n">
-        <v>-4.49438202247191</v>
+        <v>-91.04477611940298</v>
       </c>
       <c r="L408" t="n">
         <v>1589.6</v>
@@ -21087,7 +21109,7 @@
         <v>6752</v>
       </c>
       <c r="K409" t="n">
-        <v>5.102040816326531</v>
+        <v>-50</v>
       </c>
       <c r="L409" t="n">
         <v>1585.3</v>
@@ -21138,7 +21160,7 @@
         <v>6770</v>
       </c>
       <c r="K410" t="n">
-        <v>-7.766990291262135</v>
+        <v>-57.99999999999999</v>
       </c>
       <c r="L410" t="n">
         <v>1579.3</v>
@@ -21189,7 +21211,7 @@
         <v>6771</v>
       </c>
       <c r="K411" t="n">
-        <v>-3.061224489795918</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L411" t="n">
         <v>1573.4</v>
@@ -21240,7 +21262,7 @@
         <v>6771</v>
       </c>
       <c r="K412" t="n">
-        <v>-9.189189189189189</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L412" t="n">
         <v>1568.6</v>
@@ -21291,7 +21313,7 @@
         <v>6772</v>
       </c>
       <c r="K413" t="n">
-        <v>-16.76300578034682</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L413" t="n">
         <v>1567.2</v>
@@ -21342,7 +21364,7 @@
         <v>6772</v>
       </c>
       <c r="K414" t="n">
-        <v>-7.096774193548387</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L414" t="n">
         <v>1565.9</v>
@@ -21393,7 +21415,7 @@
         <v>6775</v>
       </c>
       <c r="K415" t="n">
-        <v>-25.54744525547445</v>
+        <v>-12</v>
       </c>
       <c r="L415" t="n">
         <v>1564.3</v>
@@ -21444,7 +21466,7 @@
         <v>6778</v>
       </c>
       <c r="K416" t="n">
-        <v>-27.14285714285714</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L416" t="n">
         <v>1563.4</v>
@@ -21495,7 +21517,7 @@
         <v>6828</v>
       </c>
       <c r="K417" t="n">
-        <v>-47.87234042553192</v>
+        <v>-59.57446808510638</v>
       </c>
       <c r="L417" t="n">
         <v>1558.1</v>
@@ -21546,7 +21568,7 @@
         <v>6840</v>
       </c>
       <c r="K418" t="n">
-        <v>-53.29949238578681</v>
+        <v>-97.72727272727273</v>
       </c>
       <c r="L418" t="n">
         <v>1551.3</v>
@@ -21597,7 +21619,7 @@
         <v>6862</v>
       </c>
       <c r="K419" t="n">
-        <v>-77.43589743589745</v>
+        <v>-97.82608695652173</v>
       </c>
       <c r="L419" t="n">
         <v>1540.5</v>
@@ -21648,7 +21670,7 @@
         <v>6862</v>
       </c>
       <c r="K420" t="n">
-        <v>-77.31958762886599</v>
+        <v>-97.8021978021978</v>
       </c>
       <c r="L420" t="n">
         <v>1531.5</v>
@@ -21699,7 +21721,7 @@
         <v>6935</v>
       </c>
       <c r="K421" t="n">
-        <v>-83.39622641509435</v>
+        <v>-98.78048780487805</v>
       </c>
       <c r="L421" t="n">
         <v>1515.3</v>
@@ -21750,7 +21772,7 @@
         <v>6940</v>
       </c>
       <c r="K422" t="n">
-        <v>-79.15057915057915</v>
+        <v>-94.04761904761905</v>
       </c>
       <c r="L422" t="n">
         <v>1499.6</v>
@@ -21801,7 +21823,7 @@
         <v>6948</v>
       </c>
       <c r="K423" t="n">
-        <v>-70.08547008547008</v>
+        <v>-85.22727272727273</v>
       </c>
       <c r="L423" t="n">
         <v>1484.6</v>
@@ -21852,7 +21874,7 @@
         <v>7014</v>
       </c>
       <c r="K424" t="n">
-        <v>-32.44147157190636</v>
+        <v>-33.89121338912134</v>
       </c>
       <c r="L424" t="n">
         <v>1476.2</v>
@@ -21903,7 +21925,7 @@
         <v>7055</v>
       </c>
       <c r="K425" t="n">
-        <v>-40.58823529411764</v>
+        <v>-42.96028880866426</v>
       </c>
       <c r="L425" t="n">
         <v>1464</v>
@@ -21954,7 +21976,7 @@
         <v>7070</v>
       </c>
       <c r="K426" t="n">
-        <v>-32.7536231884058</v>
+        <v>-22.31404958677686</v>
       </c>
       <c r="L426" t="n">
         <v>1453.6</v>
@@ -22005,7 +22027,7 @@
         <v>7107</v>
       </c>
       <c r="K427" t="n">
-        <v>-18.61702127659574</v>
+        <v>-1.872659176029963</v>
       </c>
       <c r="L427" t="n">
         <v>1451.9</v>
@@ -22056,7 +22078,7 @@
         <v>7132</v>
       </c>
       <c r="K428" t="n">
-        <v>-24.62311557788945</v>
+        <v>-2.962962962962963</v>
       </c>
       <c r="L428" t="n">
         <v>1448.9</v>
@@ -22107,7 +22129,7 @@
         <v>7132</v>
       </c>
       <c r="K429" t="n">
-        <v>-30.52631578947368</v>
+        <v>-2.962962962962963</v>
       </c>
       <c r="L429" t="n">
         <v>1448.1</v>
@@ -22158,7 +22180,7 @@
         <v>7132</v>
       </c>
       <c r="K430" t="n">
-        <v>-27.07182320441989</v>
+        <v>32.99492385786802</v>
       </c>
       <c r="L430" t="n">
         <v>1447.3</v>
@@ -22209,7 +22231,7 @@
         <v>7152</v>
       </c>
       <c r="K431" t="n">
-        <v>-20.20997375328084</v>
+        <v>37.73584905660378</v>
       </c>
       <c r="L431" t="n">
         <v>1455.8</v>
@@ -22260,7 +22282,7 @@
         <v>7155</v>
       </c>
       <c r="K432" t="n">
-        <v>-20.83333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L432" t="n">
         <v>1463.5</v>
@@ -22311,7 +22333,7 @@
         <v>7162</v>
       </c>
       <c r="K433" t="n">
-        <v>-18.97435897435897</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="L433" t="n">
         <v>1471.1</v>
@@ -22362,7 +22384,7 @@
         <v>7162</v>
       </c>
       <c r="K434" t="n">
-        <v>-18.97435897435897</v>
+        <v>47.66355140186916</v>
       </c>
       <c r="L434" t="n">
         <v>1472.1</v>
@@ -22413,7 +22435,7 @@
         <v>7168</v>
       </c>
       <c r="K435" t="n">
-        <v>-19.59287531806616</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L435" t="n">
         <v>1476.6</v>
@@ -22464,7 +22486,7 @@
         <v>7213</v>
       </c>
       <c r="K436" t="n">
-        <v>-27.35632183908046</v>
+        <v>-49.0566037735849</v>
       </c>
       <c r="L436" t="n">
         <v>1475.1</v>
@@ -22515,7 +22537,7 @@
         <v>7213</v>
       </c>
       <c r="K437" t="n">
-        <v>-17.92207792207792</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>1469.9</v>
@@ -22566,7 +22588,7 @@
         <v>7216</v>
       </c>
       <c r="K438" t="n">
-        <v>-15.95744680851064</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L438" t="n">
         <v>1466.9</v>
@@ -22617,7 +22639,7 @@
         <v>7261</v>
       </c>
       <c r="K439" t="n">
-        <v>1.754385964912281</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L439" t="n">
         <v>1468.4</v>
@@ -22668,7 +22690,7 @@
         <v>7306</v>
       </c>
       <c r="K440" t="n">
-        <v>-8.558558558558559</v>
+        <v>-32.46753246753246</v>
       </c>
       <c r="L440" t="n">
         <v>1465.4</v>
@@ -22719,7 +22741,7 @@
         <v>7334</v>
       </c>
       <c r="K441" t="n">
-        <v>15.78947368421053</v>
+        <v>-10.6145251396648</v>
       </c>
       <c r="L441" t="n">
         <v>1463.2</v>
@@ -22770,7 +22792,7 @@
         <v>7352</v>
       </c>
       <c r="K442" t="n">
-        <v>9.708737864077669</v>
+        <v>-23.15789473684211</v>
       </c>
       <c r="L442" t="n">
         <v>1459.5</v>
@@ -22821,7 +22843,7 @@
         <v>7355</v>
       </c>
       <c r="K443" t="n">
-        <v>7.125307125307126</v>
+        <v>-24.35233160621762</v>
       </c>
       <c r="L443" t="n">
         <v>1454.8</v>
@@ -22872,7 +22894,7 @@
         <v>7357</v>
       </c>
       <c r="K444" t="n">
-        <v>-10.20408163265306</v>
+        <v>-20.63492063492063</v>
       </c>
       <c r="L444" t="n">
         <v>1450.3</v>
@@ -22923,7 +22945,7 @@
         <v>7364</v>
       </c>
       <c r="K445" t="n">
-        <v>4.207119741100324</v>
+        <v>8.609271523178808</v>
       </c>
       <c r="L445" t="n">
         <v>1447.1</v>
@@ -22974,7 +22996,7 @@
         <v>7372</v>
       </c>
       <c r="K446" t="n">
-        <v>1.986754966887417</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L446" t="n">
         <v>1449.2</v>
@@ -23025,7 +23047,7 @@
         <v>7372</v>
       </c>
       <c r="K447" t="n">
-        <v>-11.69811320754717</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L447" t="n">
         <v>1451.3</v>
@@ -23076,7 +23098,7 @@
         <v>7378</v>
       </c>
       <c r="K448" t="n">
-        <v>0</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L448" t="n">
         <v>1454.3</v>
@@ -23127,7 +23149,7 @@
         <v>7378</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L449" t="n">
         <v>1452.8</v>
@@ -23178,7 +23200,7 @@
         <v>7390</v>
       </c>
       <c r="K450" t="n">
-        <v>4.651162790697675</v>
+        <v>25</v>
       </c>
       <c r="L450" t="n">
         <v>1457</v>
@@ -23229,7 +23251,7 @@
         <v>7390</v>
       </c>
       <c r="K451" t="n">
-        <v>-3.361344537815126</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="L451" t="n">
         <v>1458.4</v>
@@ -23280,7 +23302,7 @@
         <v>7391</v>
       </c>
       <c r="K452" t="n">
-        <v>-1.694915254237288</v>
+        <v>100</v>
       </c>
       <c r="L452" t="n">
         <v>1461.7</v>
@@ -23331,7 +23353,7 @@
         <v>7391</v>
       </c>
       <c r="K453" t="n">
-        <v>-4.803493449781659</v>
+        <v>100</v>
       </c>
       <c r="L453" t="n">
         <v>1465.3</v>
@@ -23382,7 +23404,7 @@
         <v>7392</v>
       </c>
       <c r="K454" t="n">
-        <v>-4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L454" t="n">
         <v>1468.8</v>
@@ -23433,7 +23455,7 @@
         <v>7392</v>
       </c>
       <c r="K455" t="n">
-        <v>-1.785714285714286</v>
+        <v>100</v>
       </c>
       <c r="L455" t="n">
         <v>1471.6</v>
@@ -23484,7 +23506,7 @@
         <v>7402</v>
       </c>
       <c r="K456" t="n">
-        <v>26.98412698412698</v>
+        <v>100</v>
       </c>
       <c r="L456" t="n">
         <v>1474.6</v>
@@ -23535,7 +23557,7 @@
         <v>7412</v>
       </c>
       <c r="K457" t="n">
-        <v>20.60301507537688</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L457" t="n">
         <v>1476.6</v>
@@ -23586,7 +23608,7 @@
         <v>7413</v>
       </c>
       <c r="K458" t="n">
-        <v>21.82741116751269</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L458" t="n">
         <v>1477.9</v>
@@ -23637,7 +23659,7 @@
         <v>7426</v>
       </c>
       <c r="K459" t="n">
-        <v>6.666666666666667</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L459" t="n">
         <v>1480.5</v>
@@ -23688,7 +23710,7 @@
         <v>7447</v>
       </c>
       <c r="K460" t="n">
-        <v>54.60992907801418</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L460" t="n">
         <v>1484</v>
@@ -23739,7 +23761,7 @@
         <v>7449</v>
       </c>
       <c r="K461" t="n">
-        <v>44.34782608695652</v>
+        <v>62.06896551724138</v>
       </c>
       <c r="L461" t="n">
         <v>1487.7</v>
@@ -23790,7 +23812,7 @@
         <v>7450</v>
       </c>
       <c r="K462" t="n">
-        <v>71.42857142857143</v>
+        <v>62.71186440677966</v>
       </c>
       <c r="L462" t="n">
         <v>1491.4</v>
@@ -23841,7 +23863,7 @@
         <v>7480</v>
       </c>
       <c r="K463" t="n">
-        <v>34.4</v>
+        <v>6.818181818181817</v>
       </c>
       <c r="L463" t="n">
         <v>1492.1</v>
@@ -23892,7 +23914,7 @@
         <v>7512</v>
       </c>
       <c r="K464" t="n">
-        <v>47.09677419354838</v>
+        <v>31.66666666666666</v>
       </c>
       <c r="L464" t="n">
         <v>1495.9</v>
@@ -23943,7 +23965,7 @@
         <v>7513</v>
       </c>
       <c r="K465" t="n">
-        <v>44.96644295302013</v>
+        <v>26.12612612612612</v>
       </c>
       <c r="L465" t="n">
         <v>1499.8</v>
@@ -23994,7 +24016,7 @@
         <v>7513</v>
       </c>
       <c r="K466" t="n">
-        <v>41.84397163120568</v>
+        <v>38.61386138613862</v>
       </c>
       <c r="L466" t="n">
         <v>1502.7</v>
@@ -24045,7 +24067,7 @@
         <v>7513</v>
       </c>
       <c r="K467" t="n">
-        <v>41.84397163120568</v>
+        <v>40</v>
       </c>
       <c r="L467" t="n">
         <v>1506.6</v>
@@ -24096,7 +24118,7 @@
         <v>7514</v>
       </c>
       <c r="K468" t="n">
-        <v>38.23529411764706</v>
+        <v>29.54545454545455</v>
       </c>
       <c r="L468" t="n">
         <v>1510.5</v>
@@ -24147,7 +24169,7 @@
         <v>7531</v>
       </c>
       <c r="K469" t="n">
-        <v>22.87581699346405</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L469" t="n">
         <v>1511.4</v>
@@ -24198,7 +24220,7 @@
         <v>7531</v>
       </c>
       <c r="K470" t="n">
-        <v>16.31205673758866</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L470" t="n">
         <v>1510.2</v>
@@ -24249,7 +24271,7 @@
         <v>7570</v>
       </c>
       <c r="K471" t="n">
-        <v>-8.888888888888889</v>
+        <v>-45</v>
       </c>
       <c r="L471" t="n">
         <v>1504.9</v>
@@ -24300,7 +24322,7 @@
         <v>7595</v>
       </c>
       <c r="K472" t="n">
-        <v>3.92156862745098</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L472" t="n">
         <v>1502</v>
@@ -24351,7 +24373,7 @@
         <v>7596</v>
       </c>
       <c r="K473" t="n">
-        <v>4.390243902439024</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L473" t="n">
         <v>1502.2</v>
@@ -24402,7 +24424,7 @@
         <v>7596</v>
       </c>
       <c r="K474" t="n">
-        <v>3.92156862745098</v>
+        <v>-37.34939759036144</v>
       </c>
       <c r="L474" t="n">
         <v>1499.2</v>
@@ -24453,7 +24475,7 @@
         <v>7596</v>
       </c>
       <c r="K475" t="n">
-        <v>3.92156862745098</v>
+        <v>-37.34939759036144</v>
       </c>
       <c r="L475" t="n">
         <v>1496.1</v>
@@ -24504,7 +24526,7 @@
         <v>7607</v>
       </c>
       <c r="K476" t="n">
-        <v>4.390243902439024</v>
+        <v>-21.27659574468085</v>
       </c>
       <c r="L476" t="n">
         <v>1494.1</v>
@@ -24555,7 +24577,7 @@
         <v>7613</v>
       </c>
       <c r="K477" t="n">
-        <v>12.43781094527363</v>
+        <v>-13.13131313131313</v>
       </c>
       <c r="L477" t="n">
         <v>1492.7</v>
@@ -24606,7 +24628,7 @@
         <v>7623</v>
       </c>
       <c r="K478" t="n">
-        <v>17.14285714285714</v>
+        <v>15.21739130434783</v>
       </c>
       <c r="L478" t="n">
         <v>1492.4</v>
@@ -24657,7 +24679,7 @@
         <v>7624</v>
       </c>
       <c r="K479" t="n">
-        <v>12.12121212121212</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L479" t="n">
         <v>1493.9</v>
@@ -24708,7 +24730,7 @@
         <v>7629</v>
       </c>
       <c r="K480" t="n">
-        <v>-1.098901098901099</v>
+        <v>83.05084745762711</v>
       </c>
       <c r="L480" t="n">
         <v>1494.9</v>
@@ -24759,7 +24781,7 @@
         <v>7650</v>
       </c>
       <c r="K481" t="n">
-        <v>-12.43781094527363</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L481" t="n">
         <v>1497.7</v>
@@ -24810,7 +24832,7 @@
         <v>7653</v>
       </c>
       <c r="K482" t="n">
-        <v>-14.28571428571428</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L482" t="n">
         <v>1497.7</v>
@@ -24861,7 +24883,7 @@
         <v>7675</v>
       </c>
       <c r="K483" t="n">
-        <v>-10.76923076923077</v>
+        <v>-29.11392405063291</v>
       </c>
       <c r="L483" t="n">
         <v>1495.4</v>
@@ -24912,7 +24934,7 @@
         <v>7696</v>
       </c>
       <c r="K484" t="n">
-        <v>-17.39130434782609</v>
+        <v>-2</v>
       </c>
       <c r="L484" t="n">
         <v>1495.2</v>
@@ -24963,7 +24985,7 @@
         <v>7711</v>
       </c>
       <c r="K485" t="n">
-        <v>-24.24242424242424</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L485" t="n">
         <v>1493.5</v>
@@ -25014,7 +25036,7 @@
         <v>7713</v>
       </c>
       <c r="K486" t="n">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="L486" t="n">
         <v>1490.5</v>
@@ -25065,7 +25087,7 @@
         <v>7715</v>
       </c>
       <c r="K487" t="n">
-        <v>-25.74257425742574</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L487" t="n">
         <v>1486.7</v>
@@ -25116,7 +25138,7 @@
         <v>7715</v>
       </c>
       <c r="K488" t="n">
-        <v>-25.37313432835821</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L488" t="n">
         <v>1481.9</v>
@@ -25167,7 +25189,7 @@
         <v>7717</v>
       </c>
       <c r="K489" t="n">
-        <v>-19.35483870967742</v>
+        <v>-52.27272727272727</v>
       </c>
       <c r="L489" t="n">
         <v>1476.8</v>
@@ -25218,7 +25240,7 @@
         <v>7720</v>
       </c>
       <c r="K490" t="n">
-        <v>-17.46031746031746</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L490" t="n">
         <v>1472.5</v>
@@ -25269,7 +25291,7 @@
         <v>7720</v>
       </c>
       <c r="K491" t="n">
-        <v>4</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L491" t="n">
         <v>1470.3</v>
@@ -25320,7 +25342,7 @@
         <v>7731</v>
       </c>
       <c r="K492" t="n">
-        <v>-5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L492" t="n">
         <v>1469.5</v>
@@ -25371,7 +25393,7 @@
         <v>7732</v>
       </c>
       <c r="K493" t="n">
-        <v>-5.88235294117647</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L493" t="n">
         <v>1471</v>
@@ -25422,7 +25444,7 @@
         <v>7732</v>
       </c>
       <c r="K494" t="n">
-        <v>-5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L494" t="n">
         <v>1470.4</v>
@@ -25473,7 +25495,7 @@
         <v>7746</v>
       </c>
       <c r="K495" t="n">
-        <v>-14.66666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L495" t="n">
         <v>1469.9</v>
@@ -25524,7 +25546,7 @@
         <v>7746</v>
       </c>
       <c r="K496" t="n">
-        <v>-23.7410071942446</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L496" t="n">
         <v>1469.6</v>
@@ -25575,7 +25597,7 @@
         <v>7746</v>
       </c>
       <c r="K497" t="n">
-        <v>-29.32330827067669</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L497" t="n">
         <v>1469.5</v>
@@ -25626,7 +25648,7 @@
         <v>7747</v>
       </c>
       <c r="K498" t="n">
-        <v>-40.32258064516129</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>1469.3</v>
@@ -25677,7 +25699,7 @@
         <v>7760</v>
       </c>
       <c r="K499" t="n">
-        <v>-27.94117647058824</v>
+        <v>25</v>
       </c>
       <c r="L499" t="n">
         <v>1470.6</v>
@@ -25728,7 +25750,7 @@
         <v>7760</v>
       </c>
       <c r="K500" t="n">
-        <v>-25.19083969465649</v>
+        <v>25</v>
       </c>
       <c r="L500" t="n">
         <v>1471.6</v>
@@ -25779,7 +25801,7 @@
         <v>7761</v>
       </c>
       <c r="K501" t="n">
-        <v>-9.90990990990991</v>
+        <v>0</v>
       </c>
       <c r="L501" t="n">
         <v>1472.7</v>
@@ -25830,7 +25852,7 @@
         <v>7762</v>
       </c>
       <c r="K502" t="n">
-        <v>-6.422018348623854</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>1472.8</v>
@@ -25881,7 +25903,7 @@
         <v>7762</v>
       </c>
       <c r="K503" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>1472.8</v>
@@ -25932,7 +25954,7 @@
         <v>7763</v>
       </c>
       <c r="K504" t="n">
-        <v>-7.462686567164178</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L504" t="n">
         <v>1472.9</v>
@@ -25983,7 +26005,7 @@
         <v>7791</v>
       </c>
       <c r="K505" t="n">
-        <v>47.5</v>
+        <v>95.55555555555556</v>
       </c>
       <c r="L505" t="n">
         <v>1477.2</v>
@@ -26034,7 +26056,7 @@
         <v>7796</v>
       </c>
       <c r="K506" t="n">
-        <v>54.21686746987952</v>
+        <v>96</v>
       </c>
       <c r="L506" t="n">
         <v>1482</v>
@@ -26085,7 +26107,7 @@
         <v>7797</v>
       </c>
       <c r="K507" t="n">
-        <v>58.53658536585365</v>
+        <v>100</v>
       </c>
       <c r="L507" t="n">
         <v>1486.9</v>
@@ -26136,7 +26158,7 @@
         <v>7801</v>
       </c>
       <c r="K508" t="n">
-        <v>60.46511627906976</v>
+        <v>100</v>
       </c>
       <c r="L508" t="n">
         <v>1492.3</v>
@@ -26187,7 +26209,7 @@
         <v>7803</v>
       </c>
       <c r="K509" t="n">
-        <v>65.11627906976744</v>
+        <v>100</v>
       </c>
       <c r="L509" t="n">
         <v>1496.6</v>
@@ -26238,7 +26260,7 @@
         <v>7872</v>
       </c>
       <c r="K510" t="n">
-        <v>80.26315789473685</v>
+        <v>100</v>
       </c>
       <c r="L510" t="n">
         <v>1507.8</v>
@@ -26289,7 +26311,7 @@
         <v>7921</v>
       </c>
       <c r="K511" t="n">
-        <v>36.318407960199</v>
+        <v>38.36477987421384</v>
       </c>
       <c r="L511" t="n">
         <v>1514</v>
@@ -26340,7 +26362,7 @@
         <v>7965</v>
       </c>
       <c r="K512" t="n">
-        <v>45.2991452991453</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L512" t="n">
         <v>1524.5</v>
@@ -26391,7 +26413,7 @@
         <v>7970</v>
       </c>
       <c r="K513" t="n">
-        <v>46.21848739495798</v>
+        <v>52.65700483091788</v>
       </c>
       <c r="L513" t="n">
         <v>1535.5</v>
@@ -26442,7 +26464,7 @@
         <v>7971</v>
       </c>
       <c r="K514" t="n">
-        <v>45.60669456066946</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L514" t="n">
         <v>1546.3</v>
@@ -26493,7 +26515,7 @@
         <v>7971</v>
       </c>
       <c r="K515" t="n">
-        <v>54.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L515" t="n">
         <v>1554.3</v>
@@ -26544,7 +26566,7 @@
         <v>7972</v>
       </c>
       <c r="K516" t="n">
-        <v>54.86725663716814</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L516" t="n">
         <v>1561.9</v>
@@ -26595,7 +26617,7 @@
         <v>7973</v>
       </c>
       <c r="K517" t="n">
-        <v>55.06607929515418</v>
+        <v>41.86046511627907</v>
       </c>
       <c r="L517" t="n">
         <v>1569.5</v>
@@ -26646,7 +26668,7 @@
         <v>7973</v>
       </c>
       <c r="K518" t="n">
-        <v>55.75221238938053</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L518" t="n">
         <v>1576.7</v>
@@ -26697,7 +26719,7 @@
         <v>7974</v>
       </c>
       <c r="K519" t="n">
-        <v>52.33644859813084</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>1583.6</v>
@@ -26748,7 +26770,7 @@
         <v>8082</v>
       </c>
       <c r="K520" t="n">
-        <v>1.24223602484472</v>
+        <v>-36.64596273291926</v>
       </c>
       <c r="L520" t="n">
         <v>1572.8</v>
@@ -26799,7 +26821,7 @@
         <v>8183</v>
       </c>
       <c r="K521" t="n">
-        <v>24.64454976303318</v>
+        <v>-0.9174311926605505</v>
       </c>
       <c r="L521" t="n">
         <v>1577</v>
@@ -26850,7 +26872,7 @@
         <v>8248</v>
       </c>
       <c r="K522" t="n">
-        <v>7.818930041152264</v>
+        <v>-25.89928057553957</v>
       </c>
       <c r="L522" t="n">
         <v>1570.3</v>
@@ -26901,7 +26923,7 @@
         <v>8255</v>
       </c>
       <c r="K523" t="n">
-        <v>9.127789046653144</v>
+        <v>-22.53521126760564</v>
       </c>
       <c r="L523" t="n">
         <v>1563.8</v>
@@ -26952,7 +26974,7 @@
         <v>8264</v>
       </c>
       <c r="K524" t="n">
-        <v>10.57884231536926</v>
+        <v>-18.77133105802048</v>
       </c>
       <c r="L524" t="n">
         <v>1558.3</v>
@@ -27003,7 +27025,7 @@
         <v>8267</v>
       </c>
       <c r="K525" t="n">
-        <v>5.88235294117647</v>
+        <v>-17.96610169491525</v>
       </c>
       <c r="L525" t="n">
         <v>1553.1</v>
@@ -27054,7 +27076,7 @@
         <v>8305</v>
       </c>
       <c r="K526" t="n">
-        <v>11.98428290766208</v>
+        <v>-4.819277108433735</v>
       </c>
       <c r="L526" t="n">
         <v>1551.6</v>
@@ -27105,7 +27127,7 @@
         <v>8313</v>
       </c>
       <c r="K527" t="n">
-        <v>10.07751937984496</v>
+        <v>-7.058823529411764</v>
       </c>
       <c r="L527" t="n">
         <v>1549.2</v>
@@ -27156,7 +27178,7 @@
         <v>8320</v>
       </c>
       <c r="K528" t="n">
-        <v>10.59730250481696</v>
+        <v>-4.624277456647398</v>
       </c>
       <c r="L528" t="n">
         <v>1547.5</v>
@@ -27207,7 +27229,7 @@
         <v>8320</v>
       </c>
       <c r="K529" t="n">
-        <v>10.25145067698259</v>
+        <v>38.65546218487395</v>
       </c>
       <c r="L529" t="n">
         <v>1545.9</v>
@@ -27258,7 +27280,7 @@
         <v>8322</v>
       </c>
       <c r="K530" t="n">
-        <v>-3.111111111111111</v>
+        <v>-5.035971223021583</v>
       </c>
       <c r="L530" t="n">
         <v>1555.3</v>
@@ -27309,7 +27331,7 @@
         <v>8327</v>
       </c>
       <c r="K531" t="n">
-        <v>9.852216748768473</v>
+        <v>79.74683544303798</v>
       </c>
       <c r="L531" t="n">
         <v>1555.1</v>
@@ -27360,7 +27382,7 @@
         <v>8329</v>
       </c>
       <c r="K532" t="n">
-        <v>-0.5494505494505495</v>
+        <v>78.37837837837837</v>
       </c>
       <c r="L532" t="n">
         <v>1561.6</v>
@@ -27411,7 +27433,7 @@
         <v>8337</v>
       </c>
       <c r="K533" t="n">
-        <v>0.2724795640326975</v>
+        <v>78.08219178082192</v>
       </c>
       <c r="L533" t="n">
         <v>1568.2</v>
@@ -27462,7 +27484,7 @@
         <v>8357</v>
       </c>
       <c r="K534" t="n">
-        <v>5.699481865284974</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="L534" t="n">
         <v>1575.9</v>
@@ -27513,7 +27535,7 @@
         <v>8361</v>
       </c>
       <c r="K535" t="n">
-        <v>4.615384615384616</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L535" t="n">
         <v>1582.9</v>
@@ -27564,7 +27586,7 @@
         <v>8367</v>
       </c>
       <c r="K536" t="n">
-        <v>2.784810126582278</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L536" t="n">
         <v>1585.5</v>
@@ -27615,7 +27637,7 @@
         <v>8369</v>
       </c>
       <c r="K537" t="n">
-        <v>3.03030303030303</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="L537" t="n">
         <v>1589.1</v>
@@ -27666,7 +27688,7 @@
         <v>8370</v>
       </c>
       <c r="K538" t="n">
-        <v>2.770780856423174</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L538" t="n">
         <v>1591.9</v>
@@ -27717,7 +27739,7 @@
         <v>8371</v>
       </c>
       <c r="K539" t="n">
-        <v>2.770780856423174</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L539" t="n">
         <v>1594.6</v>
@@ -27768,7 +27790,7 @@
         <v>8383</v>
       </c>
       <c r="K540" t="n">
-        <v>43.52159468438538</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L540" t="n">
         <v>1598.3</v>
@@ -27819,7 +27841,7 @@
         <v>8393</v>
       </c>
       <c r="K541" t="n">
-        <v>9.523809523809524</v>
+        <v>31.25</v>
       </c>
       <c r="L541" t="n">
         <v>1600.5</v>
@@ -27870,7 +27892,7 @@
         <v>8411</v>
       </c>
       <c r="K542" t="n">
-        <v>63.19018404907975</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L542" t="n">
         <v>1604.3</v>
@@ -27921,7 +27943,7 @@
         <v>8415</v>
       </c>
       <c r="K543" t="n">
-        <v>62.5</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L543" t="n">
         <v>1607.7</v>
@@ -27972,7 +27994,7 @@
         <v>8415</v>
       </c>
       <c r="K544" t="n">
-        <v>60.26490066225166</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L544" t="n">
         <v>1609.1</v>
@@ -28023,7 +28045,7 @@
         <v>8429</v>
       </c>
       <c r="K545" t="n">
-        <v>45.67901234567901</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L545" t="n">
         <v>1609.5</v>
@@ -28074,7 +28096,7 @@
         <v>8534</v>
       </c>
       <c r="K546" t="n">
-        <v>-30.13100436681222</v>
+        <v>-58.78787878787879</v>
       </c>
       <c r="L546" t="n">
         <v>1600</v>
@@ -28125,7 +28147,7 @@
         <v>8607</v>
       </c>
       <c r="K547" t="n">
-        <v>4.081632653061225</v>
+        <v>-9.70464135021097</v>
       </c>
       <c r="L547" t="n">
         <v>1597.6</v>
@@ -28176,7 +28198,7 @@
         <v>8607</v>
       </c>
       <c r="K548" t="n">
-        <v>1.742160278745644</v>
+        <v>-9.322033898305085</v>
       </c>
       <c r="L548" t="n">
         <v>1595.3</v>
@@ -28227,7 +28249,7 @@
         <v>8667</v>
       </c>
       <c r="K549" t="n">
-        <v>-15.85014409221902</v>
+        <v>-33.09859154929578</v>
       </c>
       <c r="L549" t="n">
         <v>1587.1</v>
@@ -28278,7 +28300,7 @@
         <v>8684</v>
       </c>
       <c r="K550" t="n">
-        <v>-11.04972375690608</v>
+        <v>-23.02405498281787</v>
       </c>
       <c r="L550" t="n">
         <v>1579.4</v>
@@ -28329,7 +28351,7 @@
         <v>8708</v>
       </c>
       <c r="K551" t="n">
-        <v>-5.511811023622047</v>
+        <v>-20.53872053872054</v>
       </c>
       <c r="L551" t="n">
         <v>1575.1</v>
@@ -28380,7 +28402,7 @@
         <v>8718</v>
       </c>
       <c r="K552" t="n">
-        <v>-3.341902313624678</v>
+        <v>-18.15181518151815</v>
       </c>
       <c r="L552" t="n">
         <v>1570</v>
@@ -28431,7 +28453,7 @@
         <v>8737</v>
       </c>
       <c r="K553" t="n">
-        <v>-10</v>
+        <v>-22.98136645962733</v>
       </c>
       <c r="L553" t="n">
         <v>1562.6</v>
@@ -28482,7 +28504,7 @@
         <v>8759</v>
       </c>
       <c r="K554" t="n">
-        <v>-9.452736318407959</v>
+        <v>-11.51515151515152</v>
       </c>
       <c r="L554" t="n">
         <v>1557.4</v>
@@ -28533,7 +28555,7 @@
         <v>8765</v>
       </c>
       <c r="K555" t="n">
-        <v>-9.900990099009901</v>
+        <v>26.40692640692641</v>
       </c>
       <c r="L555" t="n">
         <v>1553</v>
@@ -28584,7 +28606,7 @@
         <v>8768</v>
       </c>
       <c r="K556" t="n">
-        <v>-7.73067331670823</v>
+        <v>-5.590062111801243</v>
       </c>
       <c r="L556" t="n">
         <v>1559.4</v>
@@ -28635,7 +28657,7 @@
         <v>8768</v>
       </c>
       <c r="K557" t="n">
-        <v>-8.270676691729323</v>
+        <v>-5.590062111801243</v>
       </c>
       <c r="L557" t="n">
         <v>1558.5</v>
@@ -28686,7 +28708,7 @@
         <v>8774</v>
       </c>
       <c r="K558" t="n">
-        <v>-6.435643564356436</v>
+        <v>53.27102803738318</v>
       </c>
       <c r="L558" t="n">
         <v>1558.2</v>
@@ -28737,7 +28759,7 @@
         <v>8775</v>
       </c>
       <c r="K559" t="n">
-        <v>-5.940594059405941</v>
+        <v>45.05494505494506</v>
       </c>
       <c r="L559" t="n">
         <v>1564</v>
@@ -28788,7 +28810,7 @@
         <v>8775</v>
       </c>
       <c r="K560" t="n">
-        <v>-9.183673469387756</v>
+        <v>25.37313432835821</v>
       </c>
       <c r="L560" t="n">
         <v>1568.1</v>
@@ -28839,7 +28861,7 @@
         <v>8776</v>
       </c>
       <c r="K561" t="n">
-        <v>-7.049608355091384</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L561" t="n">
         <v>1569.7</v>
@@ -28890,7 +28912,7 @@
         <v>8793</v>
       </c>
       <c r="K562" t="n">
-        <v>-16.2303664921466</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L562" t="n">
         <v>1568.6</v>
@@ -28941,7 +28963,7 @@
         <v>8794</v>
       </c>
       <c r="K563" t="n">
-        <v>-17.15039577836412</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L563" t="n">
         <v>1569.5</v>
@@ -28992,7 +29014,7 @@
         <v>8798</v>
       </c>
       <c r="K564" t="n">
-        <v>-18.01566579634465</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>1567.8</v>
@@ -29043,7 +29065,7 @@
         <v>8803</v>
       </c>
       <c r="K565" t="n">
-        <v>-16.0427807486631</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L565" t="n">
         <v>1566.2</v>
@@ -29094,7 +29116,7 @@
         <v>8803</v>
       </c>
       <c r="K566" t="n">
-        <v>16.72862453531599</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L566" t="n">
         <v>1564.3</v>
@@ -29145,7 +29167,7 @@
         <v>8803</v>
       </c>
       <c r="K567" t="n">
-        <v>-14.28571428571428</v>
+        <v>-86.20689655172413</v>
       </c>
       <c r="L567" t="n">
         <v>1562.4</v>
@@ -29196,7 +29218,7 @@
         <v>8813</v>
       </c>
       <c r="K568" t="n">
-        <v>-18.44660194174757</v>
+        <v>-94.73684210526315</v>
       </c>
       <c r="L568" t="n">
         <v>1558.9</v>
@@ -29247,7 +29269,7 @@
         <v>8814</v>
       </c>
       <c r="K569" t="n">
-        <v>14.28571428571428</v>
+        <v>-94.87179487179486</v>
       </c>
       <c r="L569" t="n">
         <v>1555.2</v>
@@ -29298,7 +29320,7 @@
         <v>8834</v>
       </c>
       <c r="K570" t="n">
-        <v>-10.66666666666667</v>
+        <v>-96.55172413793103</v>
       </c>
       <c r="L570" t="n">
         <v>1549.5</v>
@@ -29349,7 +29371,7 @@
         <v>8851</v>
       </c>
       <c r="K571" t="n">
-        <v>-39.86013986013986</v>
+        <v>-96.55172413793103</v>
       </c>
       <c r="L571" t="n">
         <v>1542.2</v>
@@ -29400,7 +29422,7 @@
         <v>8888</v>
       </c>
       <c r="K572" t="n">
-        <v>-17.64705882352941</v>
+        <v>-21.27659574468085</v>
       </c>
       <c r="L572" t="n">
         <v>1540.3</v>
@@ -29451,7 +29473,7 @@
         <v>8898</v>
       </c>
       <c r="K573" t="n">
-        <v>-0.6211180124223602</v>
+        <v>-6</v>
       </c>
       <c r="L573" t="n">
         <v>1539.3</v>
@@ -29502,7 +29524,7 @@
         <v>8917</v>
       </c>
       <c r="K574" t="n">
-        <v>-26.58227848101265</v>
+        <v>-17.5438596491228</v>
       </c>
       <c r="L574" t="n">
         <v>1536.8</v>
@@ -29553,7 +29575,7 @@
         <v>8932</v>
       </c>
       <c r="K575" t="n">
-        <v>-12.5748502994012</v>
+        <v>-3.875968992248062</v>
       </c>
       <c r="L575" t="n">
         <v>1536.3</v>
@@ -29604,7 +29626,7 @@
         <v>8953</v>
       </c>
       <c r="K576" t="n">
-        <v>-1.621621621621622</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="L576" t="n">
         <v>1537.9</v>
@@ -29655,7 +29677,7 @@
         <v>8962</v>
       </c>
       <c r="K577" t="n">
-        <v>3.092783505154639</v>
+        <v>23.48993288590604</v>
       </c>
       <c r="L577" t="n">
         <v>1540.4</v>
@@ -29706,7 +29728,7 @@
         <v>8972</v>
       </c>
       <c r="K578" t="n">
-        <v>-5.05050505050505</v>
+        <v>16.45569620253164</v>
       </c>
       <c r="L578" t="n">
         <v>1542.9</v>
@@ -29757,7 +29779,7 @@
         <v>8974</v>
       </c>
       <c r="K579" t="n">
-        <v>-4.522613065326634</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="L579" t="n">
         <v>1545.7</v>
@@ -29808,7 +29830,7 @@
         <v>8976</v>
       </c>
       <c r="K580" t="n">
-        <v>-3.482587064676617</v>
+        <v>53.6</v>
       </c>
       <c r="L580" t="n">
         <v>1550.7</v>
@@ -29859,7 +29881,7 @@
         <v>8979</v>
       </c>
       <c r="K581" t="n">
-        <v>-4.433497536945813</v>
+        <v>29.67032967032967</v>
       </c>
       <c r="L581" t="n">
         <v>1557.1</v>
@@ -29910,7 +29932,7 @@
         <v>8995</v>
       </c>
       <c r="K582" t="n">
-        <v>-3.96039603960396</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="L582" t="n">
         <v>1558.2</v>
@@ -29961,7 +29983,7 @@
         <v>9085</v>
       </c>
       <c r="K583" t="n">
-        <v>-34.02061855670103</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L583" t="n">
         <v>1549.3</v>
@@ -30012,7 +30034,7 @@
         <v>9085</v>
       </c>
       <c r="K584" t="n">
-        <v>-33.10104529616725</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L584" t="n">
         <v>1542.3</v>
@@ -30063,7 +30085,7 @@
         <v>9192</v>
       </c>
       <c r="K585" t="n">
-        <v>4.370179948586118</v>
+        <v>0.4184100418410042</v>
       </c>
       <c r="L585" t="n">
         <v>1544.5</v>
@@ -30114,7 +30136,7 @@
         <v>9289</v>
       </c>
       <c r="K586" t="n">
-        <v>-16.46090534979424</v>
+        <v>-32.11009174311927</v>
       </c>
       <c r="L586" t="n">
         <v>1534.9</v>
@@ -30165,7 +30187,7 @@
         <v>9311</v>
       </c>
       <c r="K587" t="n">
-        <v>-20.07874015748031</v>
+        <v>-34.51327433628318</v>
       </c>
       <c r="L587" t="n">
         <v>1522.2</v>
@@ -30216,7 +30238,7 @@
         <v>9320</v>
       </c>
       <c r="K588" t="n">
-        <v>-16.37080867850099</v>
+        <v>-31.79190751445087</v>
       </c>
       <c r="L588" t="n">
         <v>1511.4</v>
@@ -30267,7 +30289,7 @@
         <v>9363</v>
       </c>
       <c r="K589" t="n">
-        <v>-7.103825136612022</v>
+        <v>-17.82945736434108</v>
       </c>
       <c r="L589" t="n">
         <v>1504.7</v>
@@ -30318,7 +30340,7 @@
         <v>9366</v>
       </c>
       <c r="K590" t="n">
-        <v>-4.135338345864661</v>
+        <v>-17.82945736434108</v>
       </c>
       <c r="L590" t="n">
         <v>1497.5</v>
@@ -30369,7 +30391,7 @@
         <v>9383</v>
       </c>
       <c r="K591" t="n">
-        <v>-4.135338345864661</v>
+        <v>-18.04123711340206</v>
       </c>
       <c r="L591" t="n">
         <v>1488.9</v>
@@ -30420,7 +30442,7 @@
         <v>9395</v>
       </c>
       <c r="K592" t="n">
-        <v>-14.00394477317554</v>
+        <v>2.580645161290323</v>
       </c>
       <c r="L592" t="n">
         <v>1480.7</v>
@@ -30471,7 +30493,7 @@
         <v>9397</v>
       </c>
       <c r="K593" t="n">
-        <v>-15.83166332665331</v>
+        <v>3.205128205128205</v>
       </c>
       <c r="L593" t="n">
         <v>1481.7</v>
@@ -30522,7 +30544,7 @@
         <v>9397</v>
       </c>
       <c r="K594" t="n">
-        <v>-12.5</v>
+        <v>-47.3170731707317</v>
       </c>
       <c r="L594" t="n">
         <v>1482.7</v>
@@ -30573,7 +30595,7 @@
         <v>9400</v>
       </c>
       <c r="K595" t="n">
-        <v>-16.66666666666666</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L595" t="n">
         <v>1472.7</v>
@@ -30624,7 +30646,7 @@
         <v>9401</v>
       </c>
       <c r="K596" t="n">
-        <v>-22.32142857142857</v>
+        <v>20</v>
       </c>
       <c r="L596" t="n">
         <v>1472.3</v>
@@ -30675,7 +30697,7 @@
         <v>9419</v>
       </c>
       <c r="K597" t="n">
-        <v>-27.78993435448578</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L597" t="n">
         <v>1472.3</v>
@@ -30726,7 +30748,7 @@
         <v>9442</v>
       </c>
       <c r="K598" t="n">
-        <v>-20</v>
+        <v>-36.70886075949367</v>
       </c>
       <c r="L598" t="n">
         <v>1473.7</v>
@@ -30777,7 +30799,7 @@
         <v>9453</v>
       </c>
       <c r="K599" t="n">
-        <v>-17.74530271398747</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L599" t="n">
         <v>1471.9</v>
@@ -30828,7 +30850,7 @@
         <v>9472</v>
       </c>
       <c r="K600" t="n">
-        <v>-21.37096774193548</v>
+        <v>-19.10112359550562</v>
       </c>
       <c r="L600" t="n">
         <v>1468.5</v>
@@ -30879,7 +30901,7 @@
         <v>9494</v>
       </c>
       <c r="K601" t="n">
-        <v>-15.72815533980582</v>
+        <v>17.17171717171717</v>
       </c>
       <c r="L601" t="n">
         <v>1469</v>
@@ -30930,7 +30952,7 @@
         <v>9496</v>
       </c>
       <c r="K602" t="n">
-        <v>-12.5748502994012</v>
+        <v>17.17171717171717</v>
       </c>
       <c r="L602" t="n">
         <v>1470.9</v>
@@ -30981,7 +31003,7 @@
         <v>9518</v>
       </c>
       <c r="K603" t="n">
-        <v>11.31639722863741</v>
+        <v>32.23140495867769</v>
       </c>
       <c r="L603" t="n">
         <v>1474.8</v>
@@ -31032,7 +31054,7 @@
         <v>9544</v>
       </c>
       <c r="K604" t="n">
-        <v>16.33986928104575</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="L604" t="n">
         <v>1481.3</v>
@@ -31083,7 +31105,7 @@
         <v>9603</v>
       </c>
       <c r="K605" t="n">
-        <v>-22.14111922141119</v>
+        <v>4.95049504950495</v>
       </c>
       <c r="L605" t="n">
         <v>1482.2</v>
@@ -31138,7 +31160,7 @@
         <v>9671</v>
       </c>
       <c r="K606" t="n">
-        <v>19.3717277486911</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L606" t="n">
         <v>1490</v>
@@ -31193,7 +31215,7 @@
         <v>9676</v>
       </c>
       <c r="K607" t="n">
-        <v>27.67123287671233</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L607" t="n">
         <v>1500.1</v>
@@ -31254,7 +31276,7 @@
         <v>9676</v>
       </c>
       <c r="K608" t="n">
-        <v>25.84269662921348</v>
+        <v>30.04484304932735</v>
       </c>
       <c r="L608" t="n">
         <v>1507.9</v>
@@ -31311,7 +31333,7 @@
         <v>9685</v>
       </c>
       <c r="K609" t="n">
-        <v>18.01242236024845</v>
+        <v>44.60093896713615</v>
       </c>
       <c r="L609" t="n">
         <v>1515.5</v>
@@ -31368,7 +31390,7 @@
         <v>9725</v>
       </c>
       <c r="K610" t="n">
-        <v>5.849582172701949</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L610" t="n">
         <v>1521</v>
@@ -31425,7 +31447,7 @@
         <v>9734</v>
       </c>
       <c r="K611" t="n">
-        <v>8.262108262108262</v>
+        <v>9.243697478991598</v>
       </c>
       <c r="L611" t="n">
         <v>1523.4</v>
@@ -31482,7 +31504,7 @@
         <v>9735</v>
       </c>
       <c r="K612" t="n">
-        <v>12.35294117647059</v>
+        <v>0.4608294930875576</v>
       </c>
       <c r="L612" t="n">
         <v>1525.7</v>
@@ -31539,7 +31561,7 @@
         <v>9758</v>
       </c>
       <c r="K613" t="n">
-        <v>17.45152354570637</v>
+        <v>-0.9345794392523363</v>
       </c>
       <c r="L613" t="n">
         <v>1528.1</v>
@@ -31596,7 +31618,7 @@
         <v>9787</v>
       </c>
       <c r="K614" t="n">
-        <v>8.717948717948717</v>
+        <v>15.21739130434783</v>
       </c>
       <c r="L614" t="n">
         <v>1525</v>
@@ -31653,7 +31675,7 @@
         <v>9787</v>
       </c>
       <c r="K615" t="n">
-        <v>9.560723514211885</v>
+        <v>-34.48275862068966</v>
       </c>
       <c r="L615" t="n">
         <v>1527.8</v>
@@ -31710,7 +31732,7 @@
         <v>9816</v>
       </c>
       <c r="K616" t="n">
-        <v>2.168674698795181</v>
+        <v>-52.85714285714286</v>
       </c>
       <c r="L616" t="n">
         <v>1520.9</v>
@@ -31767,7 +31789,7 @@
         <v>9821</v>
       </c>
       <c r="K617" t="n">
-        <v>5.472636815920398</v>
+        <v>-54.48275862068965</v>
       </c>
       <c r="L617" t="n">
         <v>1513</v>
@@ -31824,7 +31846,7 @@
         <v>9827</v>
       </c>
       <c r="K618" t="n">
-        <v>-1.818181818181818</v>
+        <v>-66.19718309859155</v>
       </c>
       <c r="L618" t="n">
         <v>1504.5</v>
@@ -31881,7 +31903,7 @@
         <v>9827</v>
       </c>
       <c r="K619" t="n">
-        <v>-4.81283422459893</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L619" t="n">
         <v>1495.1</v>
@@ -31938,7 +31960,7 @@
         <v>9849</v>
       </c>
       <c r="K620" t="n">
-        <v>-5.570291777188329</v>
+        <v>-58.26086956521739</v>
       </c>
       <c r="L620" t="n">
         <v>1487.5</v>
@@ -31995,7 +32017,7 @@
         <v>9869</v>
       </c>
       <c r="K621" t="n">
-        <v>-16.8</v>
+        <v>-65.67164179104478</v>
       </c>
       <c r="L621" t="n">
         <v>1478.8</v>
@@ -32052,7 +32074,7 @@
         <v>9933</v>
       </c>
       <c r="K622" t="n">
-        <v>-0.2288329519450801</v>
+        <v>-26.85714285714286</v>
       </c>
       <c r="L622" t="n">
         <v>1476.4</v>
@@ -32109,7 +32131,7 @@
         <v>9948</v>
       </c>
       <c r="K623" t="n">
-        <v>-8.837209302325581</v>
+        <v>-20.49689440993789</v>
       </c>
       <c r="L623" t="n">
         <v>1470.2</v>
@@ -32166,7 +32188,7 @@
         <v>9959</v>
       </c>
       <c r="K624" t="n">
-        <v>-18.07228915662651</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L624" t="n">
         <v>1465.8</v>
@@ -32223,7 +32245,7 @@
         <v>9982</v>
       </c>
       <c r="K625" t="n">
-        <v>1.846965699208443</v>
+        <v>4.819277108433735</v>
       </c>
       <c r="L625" t="n">
         <v>1463.7</v>
@@ -32274,7 +32296,7 @@
         <v>9983</v>
       </c>
       <c r="K626" t="n">
-        <v>-19.23076923076923</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="L626" t="n">
         <v>1464.6</v>
@@ -32325,7 +32347,7 @@
         <v>10038</v>
       </c>
       <c r="K627" t="n">
-        <v>-2.762430939226519</v>
+        <v>35.54502369668246</v>
       </c>
       <c r="L627" t="n">
         <v>1471.5</v>
@@ -32376,7 +32398,7 @@
         <v>10044</v>
       </c>
       <c r="K628" t="n">
-        <v>-1.08695652173913</v>
+        <v>37.32718894009216</v>
       </c>
       <c r="L628" t="n">
         <v>1479.6</v>
@@ -32427,7 +32449,7 @@
         <v>10061</v>
       </c>
       <c r="K629" t="n">
-        <v>1.063829787234043</v>
+        <v>56.60377358490566</v>
       </c>
       <c r="L629" t="n">
         <v>1489.4</v>
@@ -32478,7 +32500,7 @@
         <v>10061</v>
       </c>
       <c r="K630" t="n">
-        <v>13.0952380952381</v>
+        <v>72.91666666666666</v>
       </c>
       <c r="L630" t="n">
         <v>1501.4</v>
@@ -32529,7 +32551,7 @@
         <v>10068</v>
       </c>
       <c r="K631" t="n">
-        <v>17.96407185628743</v>
+        <v>61.48148148148148</v>
       </c>
       <c r="L631" t="n">
         <v>1516.1</v>
@@ -32580,7 +32602,7 @@
         <v>10069</v>
       </c>
       <c r="K632" t="n">
-        <v>17.36526946107784</v>
+        <v>80.16528925619835</v>
       </c>
       <c r="L632" t="n">
         <v>1524.3</v>
@@ -32631,7 +32653,7 @@
         <v>10069</v>
       </c>
       <c r="K633" t="n">
-        <v>11.2540192926045</v>
+        <v>98.18181818181819</v>
       </c>
       <c r="L633" t="n">
         <v>1534</v>
@@ -32682,7 +32704,7 @@
         <v>10069</v>
       </c>
       <c r="K634" t="n">
-        <v>22.69503546099291</v>
+        <v>97.70114942528735</v>
       </c>
       <c r="L634" t="n">
         <v>1544.8</v>
@@ -32733,7 +32755,7 @@
         <v>10123</v>
       </c>
       <c r="K635" t="n">
-        <v>2.976190476190476</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L635" t="n">
         <v>1547.9</v>
@@ -32784,7 +32806,7 @@
         <v>10136</v>
       </c>
       <c r="K636" t="n">
-        <v>16.25</v>
+        <v>-12.24489795918367</v>
       </c>
       <c r="L636" t="n">
         <v>1552.2</v>
@@ -32835,7 +32857,7 @@
         <v>10136</v>
       </c>
       <c r="K637" t="n">
-        <v>18.09523809523809</v>
+        <v>-19.56521739130435</v>
       </c>
       <c r="L637" t="n">
         <v>1551</v>
@@ -32886,7 +32908,7 @@
         <v>10170</v>
       </c>
       <c r="K638" t="n">
-        <v>28.2798833819242</v>
+        <v>-0.9174311926605505</v>
       </c>
       <c r="L638" t="n">
         <v>1552.6</v>
@@ -32937,7 +32959,7 @@
         <v>10171</v>
       </c>
       <c r="K639" t="n">
-        <v>28.48837209302325</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>1552.6</v>
@@ -32988,7 +33010,7 @@
         <v>10173</v>
       </c>
       <c r="K640" t="n">
-        <v>36.41975308641975</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L640" t="n">
         <v>1552.4</v>
@@ -33039,7 +33061,7 @@
         <v>10178</v>
       </c>
       <c r="K641" t="n">
-        <v>43.042071197411</v>
+        <v>-11.92660550458716</v>
       </c>
       <c r="L641" t="n">
         <v>1551</v>
@@ -33090,7 +33112,7 @@
         <v>10183</v>
       </c>
       <c r="K642" t="n">
-        <v>25.6</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L642" t="n">
         <v>1549.2</v>
@@ -33141,7 +33163,7 @@
         <v>10188</v>
       </c>
       <c r="K643" t="n">
-        <v>35</v>
+        <v>-10.92436974789916</v>
       </c>
       <c r="L643" t="n">
         <v>1547.9</v>
@@ -33192,7 +33214,7 @@
         <v>10188</v>
       </c>
       <c r="K644" t="n">
-        <v>41.48471615720524</v>
+        <v>63.07692307692307</v>
       </c>
       <c r="L644" t="n">
         <v>1546.6</v>
@@ -33243,7 +33265,7 @@
         <v>10190</v>
       </c>
       <c r="K645" t="n">
-        <v>35.57692307692308</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L645" t="n">
         <v>1550.9</v>
@@ -33294,7 +33316,7 @@
         <v>10216</v>
       </c>
       <c r="K646" t="n">
-        <v>20.17167381974249</v>
+        <v>5</v>
       </c>
       <c r="L646" t="n">
         <v>1551.3</v>
@@ -33345,7 +33367,7 @@
         <v>10234</v>
       </c>
       <c r="K647" t="n">
-        <v>5.102040816326531</v>
+        <v>-18.75</v>
       </c>
       <c r="L647" t="n">
         <v>1553.5</v>
@@ -33396,7 +33418,7 @@
         <v>10264</v>
       </c>
       <c r="K648" t="n">
-        <v>-11.81818181818182</v>
+        <v>-46.23655913978494</v>
       </c>
       <c r="L648" t="n">
         <v>1549.3</v>
@@ -33447,7 +33469,7 @@
         <v>10300</v>
       </c>
       <c r="K649" t="n">
-        <v>-33.05439330543933</v>
+        <v>-60.62992125984253</v>
       </c>
       <c r="L649" t="n">
         <v>1541.4</v>
@@ -33498,7 +33520,7 @@
         <v>10306</v>
       </c>
       <c r="K650" t="n">
-        <v>-34.69387755102041</v>
+        <v>-60.9375</v>
       </c>
       <c r="L650" t="n">
         <v>1533.1</v>
@@ -33549,7 +33571,7 @@
         <v>10309</v>
       </c>
       <c r="K651" t="n">
-        <v>-36.92946058091287</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L651" t="n">
         <v>1525.6</v>
@@ -33600,7 +33622,7 @@
         <v>10337</v>
       </c>
       <c r="K652" t="n">
-        <v>-22.38805970149254</v>
+        <v>-31.54362416107383</v>
       </c>
       <c r="L652" t="n">
         <v>1521.4</v>
@@ -33651,7 +33673,7 @@
         <v>10387</v>
       </c>
       <c r="K653" t="n">
-        <v>-3.144654088050315</v>
+        <v>1.507537688442211</v>
       </c>
       <c r="L653" t="n">
         <v>1521.7</v>
@@ -33702,7 +33724,7 @@
         <v>10460</v>
       </c>
       <c r="K654" t="n">
-        <v>-21.22762148337596</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L654" t="n">
         <v>1514.7</v>
@@ -33753,7 +33775,7 @@
         <v>10462</v>
       </c>
       <c r="K655" t="n">
-        <v>-7.964601769911504</v>
+        <v>-17.88617886178862</v>
       </c>
       <c r="L655" t="n">
         <v>1507.7</v>
@@ -33804,7 +33826,7 @@
         <v>10535</v>
       </c>
       <c r="K656" t="n">
-        <v>8.270676691729323</v>
+        <v>3.654485049833887</v>
       </c>
       <c r="L656" t="n">
         <v>1510.6</v>
@@ -33855,7 +33877,7 @@
         <v>10537</v>
       </c>
       <c r="K657" t="n">
-        <v>7.73067331670823</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L657" t="n">
         <v>1511.5</v>
@@ -33906,7 +33928,7 @@
         <v>10538</v>
       </c>
       <c r="K658" t="n">
-        <v>-0.5434782608695652</v>
+        <v>31.93277310924369</v>
       </c>
       <c r="L658" t="n">
         <v>1515.5</v>
@@ -33957,7 +33979,7 @@
         <v>10599</v>
       </c>
       <c r="K659" t="n">
-        <v>-14.95327102803738</v>
+        <v>7.167235494880546</v>
       </c>
       <c r="L659" t="n">
         <v>1517</v>
@@ -34008,7 +34030,7 @@
         <v>10659</v>
       </c>
       <c r="K660" t="n">
-        <v>-0.411522633744856</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="L660" t="n">
         <v>1525.1</v>
@@ -34059,7 +34081,7 @@
         <v>10720</v>
       </c>
       <c r="K661" t="n">
-        <v>-10.70110701107011</v>
+        <v>-2.872062663185379</v>
       </c>
       <c r="L661" t="n">
         <v>1526.8</v>
@@ -34110,7 +34132,7 @@
         <v>10781</v>
       </c>
       <c r="K662" t="n">
-        <v>1.337792642140468</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
         <v>1531.8</v>
@@ -34161,7 +34183,7 @@
         <v>10848</v>
       </c>
       <c r="K663" t="n">
-        <v>-9.696969696969697</v>
+        <v>1.54639175257732</v>
       </c>
       <c r="L663" t="n">
         <v>1525.1</v>
@@ -34212,7 +34234,7 @@
         <v>10914</v>
       </c>
       <c r="K664" t="n">
-        <v>0.2754820936639119</v>
+        <v>15.48672566371681</v>
       </c>
       <c r="L664" t="n">
         <v>1532.3</v>
@@ -34263,7 +34285,7 @@
         <v>10915</v>
       </c>
       <c r="K665" t="n">
-        <v>0.1379310344827586</v>
+        <v>-0.5263157894736842</v>
       </c>
       <c r="L665" t="n">
         <v>1539.4</v>
@@ -34314,7 +34336,7 @@
         <v>10916</v>
       </c>
       <c r="K666" t="n">
-        <v>3.714285714285714</v>
+        <v>-0.2638522427440633</v>
       </c>
       <c r="L666" t="n">
         <v>1539.1</v>
@@ -34365,7 +34387,7 @@
         <v>10942</v>
       </c>
       <c r="K667" t="n">
-        <v>-2.542372881355933</v>
+        <v>-6.930693069306932</v>
       </c>
       <c r="L667" t="n">
         <v>1536.4</v>
@@ -34416,7 +34438,7 @@
         <v>10960</v>
       </c>
       <c r="K668" t="n">
-        <v>-0.8620689655172413</v>
+        <v>4.155124653739612</v>
       </c>
       <c r="L668" t="n">
         <v>1531.8</v>
@@ -34467,7 +34489,7 @@
         <v>10982</v>
       </c>
       <c r="K669" t="n">
-        <v>7.624633431085044</v>
+        <v>-7.120743034055728</v>
       </c>
       <c r="L669" t="n">
         <v>1535.5</v>
@@ -34518,7 +34540,7 @@
         <v>11003</v>
       </c>
       <c r="K670" t="n">
-        <v>11.33428981348637</v>
+        <v>20.84805653710248</v>
       </c>
       <c r="L670" t="n">
         <v>1535.3</v>
@@ -34569,7 +34591,7 @@
         <v>11003</v>
       </c>
       <c r="K671" t="n">
-        <v>10.95100864553314</v>
+        <v>-0.9009009009009009</v>
       </c>
       <c r="L671" t="n">
         <v>1541.2</v>
@@ -34620,7 +34642,7 @@
         <v>11137</v>
       </c>
       <c r="K672" t="n">
-        <v>-10.75</v>
+        <v>-23.87543252595156</v>
       </c>
       <c r="L672" t="n">
         <v>1527.6</v>
@@ -34671,7 +34693,7 @@
         <v>11151</v>
       </c>
       <c r="K673" t="n">
-        <v>-15.96858638743456</v>
+        <v>-51.0548523206751</v>
       </c>
       <c r="L673" t="n">
         <v>1522.1</v>
@@ -34722,7 +34744,7 @@
         <v>11239</v>
       </c>
       <c r="K674" t="n">
-        <v>5.006418485237484</v>
+        <v>-10.49382716049383</v>
       </c>
       <c r="L674" t="n">
         <v>1518.8</v>
@@ -34773,7 +34795,7 @@
         <v>11324</v>
       </c>
       <c r="K675" t="n">
-        <v>-5.56844547563805</v>
+        <v>-28.92156862745098</v>
       </c>
       <c r="L675" t="n">
         <v>1506.9</v>
@@ -34824,7 +34846,7 @@
         <v>11355</v>
       </c>
       <c r="K676" t="n">
-        <v>-10.97560975609756</v>
+        <v>-14.76997578692494</v>
       </c>
       <c r="L676" t="n">
         <v>1498.2</v>
@@ -34875,7 +34897,7 @@
         <v>11355</v>
       </c>
       <c r="K677" t="n">
-        <v>-10.75794621026895</v>
+        <v>-10.88607594936709</v>
       </c>
       <c r="L677" t="n">
         <v>1492.1</v>
@@ -34926,7 +34948,7 @@
         <v>11372</v>
       </c>
       <c r="K678" t="n">
-        <v>-8.633093525179856</v>
+        <v>-12.30769230769231</v>
       </c>
       <c r="L678" t="n">
         <v>1489.5</v>
@@ -34977,7 +34999,7 @@
         <v>11372</v>
       </c>
       <c r="K679" t="n">
-        <v>-1.423027166882277</v>
+        <v>-18.69918699186992</v>
       </c>
       <c r="L679" t="n">
         <v>1484.7</v>
@@ -35028,7 +35050,7 @@
         <v>11385</v>
       </c>
       <c r="K680" t="n">
-        <v>-7.988980716253444</v>
+        <v>-14.65968586387434</v>
       </c>
       <c r="L680" t="n">
         <v>1479.1</v>
@@ -35079,7 +35101,7 @@
         <v>11387</v>
       </c>
       <c r="K681" t="n">
-        <v>0.1499250374812594</v>
+        <v>30.4</v>
       </c>
       <c r="L681" t="n">
         <v>1473.3</v>
@@ -35130,7 +35152,7 @@
         <v>11412</v>
       </c>
       <c r="K682" t="n">
-        <v>-13.47068145800317</v>
+        <v>14.17624521072797</v>
       </c>
       <c r="L682" t="n">
         <v>1478.4</v>
@@ -35181,7 +35203,7 @@
         <v>11433</v>
       </c>
       <c r="K683" t="n">
-        <v>0.5128205128205128</v>
+        <v>-15.4639175257732</v>
       </c>
       <c r="L683" t="n">
         <v>1484.2</v>
@@ -35232,7 +35254,7 @@
         <v>11433</v>
       </c>
       <c r="K684" t="n">
-        <v>-12.13872832369942</v>
+        <v>50.45871559633027</v>
       </c>
       <c r="L684" t="n">
         <v>1481.2</v>
@@ -35283,7 +35305,7 @@
         <v>11437</v>
       </c>
       <c r="K685" t="n">
-        <v>-13.02681992337165</v>
+        <v>24.39024390243902</v>
       </c>
       <c r="L685" t="n">
         <v>1486.3</v>
@@ -35334,7 +35356,7 @@
         <v>11441</v>
       </c>
       <c r="K686" t="n">
-        <v>-13.52380952380952</v>
+        <v>18.6046511627907</v>
       </c>
       <c r="L686" t="n">
         <v>1487.9</v>
@@ -35385,7 +35407,7 @@
         <v>11492</v>
       </c>
       <c r="K687" t="n">
-        <v>-17.45454545454546</v>
+        <v>-43.33333333333334</v>
       </c>
       <c r="L687" t="n">
         <v>1484.4</v>
@@ -35436,7 +35458,7 @@
         <v>11506</v>
       </c>
       <c r="K688" t="n">
-        <v>-16.84981684981685</v>
+        <v>-49.25373134328358</v>
       </c>
       <c r="L688" t="n">
         <v>1477.8</v>
@@ -35487,7 +35509,7 @@
         <v>11518</v>
       </c>
       <c r="K689" t="n">
-        <v>-23.50746268656717</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L689" t="n">
         <v>1470</v>
@@ -35538,7 +35560,7 @@
         <v>11577</v>
       </c>
       <c r="K690" t="n">
-        <v>-15.33101045296167</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L690" t="n">
         <v>1466.8</v>
@@ -35589,7 +35611,7 @@
         <v>11605</v>
       </c>
       <c r="K691" t="n">
-        <v>-19.26910299003323</v>
+        <v>-17.09844559585492</v>
       </c>
       <c r="L691" t="n">
         <v>1461</v>
@@ -35640,7 +35662,7 @@
         <v>11616</v>
       </c>
       <c r="K692" t="n">
-        <v>1.461377870563674</v>
+        <v>-35.51912568306011</v>
       </c>
       <c r="L692" t="n">
         <v>1456.6</v>
@@ -35691,7 +35713,7 @@
         <v>11634</v>
       </c>
       <c r="K693" t="n">
-        <v>2.277432712215321</v>
+        <v>-23.38308457711443</v>
       </c>
       <c r="L693" t="n">
         <v>1451.9</v>
@@ -35742,7 +35764,7 @@
         <v>11647</v>
       </c>
       <c r="K694" t="n">
-        <v>-22.05882352941176</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L694" t="n">
         <v>1445.9</v>
@@ -35793,7 +35815,7 @@
         <v>11654</v>
       </c>
       <c r="K695" t="n">
-        <v>-3.636363636363636</v>
+        <v>-27.69953051643192</v>
       </c>
       <c r="L695" t="n">
         <v>1439.6</v>
@@ -35844,7 +35866,7 @@
         <v>11656</v>
       </c>
       <c r="K696" t="n">
-        <v>-13.62126245847176</v>
+        <v>-3.658536585365853</v>
       </c>
       <c r="L696" t="n">
         <v>1433.9</v>
@@ -35895,7 +35917,7 @@
         <v>11664</v>
       </c>
       <c r="K697" t="n">
-        <v>-10.67961165048544</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="L697" t="n">
         <v>1434.1</v>
@@ -35946,7 +35968,7 @@
         <v>11668</v>
       </c>
       <c r="K698" t="n">
-        <v>-15.54054054054054</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="L698" t="n">
         <v>1436.1</v>
@@ -35997,7 +36019,7 @@
         <v>11669</v>
       </c>
       <c r="K699" t="n">
-        <v>-15.82491582491583</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L699" t="n">
         <v>1439.2</v>
@@ -36048,7 +36070,7 @@
         <v>11671</v>
       </c>
       <c r="K700" t="n">
-        <v>-20.27972027972028</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L700" t="n">
         <v>1436.6</v>
@@ -36099,7 +36121,7 @@
         <v>11672</v>
       </c>
       <c r="K701" t="n">
-        <v>-19.29824561403509</v>
+        <v>25</v>
       </c>
       <c r="L701" t="n">
         <v>1436.9</v>
@@ -36150,7 +36172,7 @@
         <v>11706</v>
       </c>
       <c r="K702" t="n">
-        <v>1.360544217687075</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L702" t="n">
         <v>1441.7</v>
@@ -36201,7 +36223,7 @@
         <v>11726</v>
       </c>
       <c r="K703" t="n">
-        <v>-12.62798634812287</v>
+        <v>29.11392405063291</v>
       </c>
       <c r="L703" t="n">
         <v>1442.7</v>
@@ -36252,7 +36274,7 @@
         <v>11732</v>
       </c>
       <c r="K704" t="n">
-        <v>-14.38127090301003</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L704" t="n">
         <v>1444.4</v>
@@ -36303,7 +36325,7 @@
         <v>11745</v>
       </c>
       <c r="K705" t="n">
-        <v>-16.88311688311688</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="L705" t="n">
         <v>1445.5</v>
@@ -36354,7 +36376,7 @@
         <v>11774</v>
       </c>
       <c r="K706" t="n">
-        <v>-5.705705705705705</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L706" t="n">
         <v>1449.3</v>
@@ -36405,7 +36427,7 @@
         <v>11793</v>
       </c>
       <c r="K707" t="n">
-        <v>4.318936877076411</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="L707" t="n">
         <v>1450.4</v>
@@ -36456,7 +36478,7 @@
         <v>11810</v>
       </c>
       <c r="K708" t="n">
-        <v>14.47368421052632</v>
+        <v>17.73049645390071</v>
       </c>
       <c r="L708" t="n">
         <v>1452.8</v>
@@ -36507,7 +36529,7 @@
         <v>11813</v>
       </c>
       <c r="K709" t="n">
-        <v>17.96610169491525</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="L709" t="n">
         <v>1455</v>
@@ -36558,7 +36580,7 @@
         <v>11816</v>
       </c>
       <c r="K710" t="n">
-        <v>-3.765690376569038</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L710" t="n">
         <v>1456.7</v>

--- a/BackTest/2019-10-09 BackTest PPT.xlsx
+++ b/BackTest/2019-10-09 BackTest PPT.xlsx
@@ -801,14 +801,20 @@
         <v>1569.516666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1484</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,14 +842,20 @@
         <v>1568.416666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1590</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -878,7 +890,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -913,7 +929,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -948,7 +968,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1007,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1046,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1085,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1124,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1163,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1202,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1193,7 +1241,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1280,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1319,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1358,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1397,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1436,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1475,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1514,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1553,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1592,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1631,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1670,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1606,18 +1702,16 @@
         <v>1529.45</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1465</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1647,14 +1741,12 @@
         <v>1525.733333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1460</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1688,14 +1780,12 @@
         <v>1522.45</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1462</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1729,14 +1819,12 @@
         <v>1519.966666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1472</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1770,14 +1858,12 @@
         <v>1518.133333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1482</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1811,14 +1897,12 @@
         <v>1517.083333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1539</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1852,14 +1936,12 @@
         <v>1516.216666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1571</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -3375,14 +3457,12 @@
         <v>1501.416666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1463</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3416,14 +3496,12 @@
         <v>1501.65</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1463</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3457,14 +3535,12 @@
         <v>1500.233333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1449</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3498,14 +3574,12 @@
         <v>1500.366666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3539,14 +3613,12 @@
         <v>1500.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3580,14 +3652,12 @@
         <v>1499.55</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1448</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3621,14 +3691,12 @@
         <v>1499.666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1476</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3662,14 +3730,12 @@
         <v>1499.75</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1477</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3703,14 +3769,12 @@
         <v>1499.516666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1456</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3744,14 +3808,12 @@
         <v>1499.066666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1459</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3785,14 +3847,12 @@
         <v>1498.516666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1468</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3826,14 +3886,12 @@
         <v>1498</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1450</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3867,14 +3925,12 @@
         <v>1497.983333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1469</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3908,14 +3964,12 @@
         <v>1497.716666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1453</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3949,14 +4003,12 @@
         <v>1497.866666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3990,14 +4042,12 @@
         <v>1498.216666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1471</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4031,14 +4081,12 @@
         <v>1499.15</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1493</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4072,14 +4120,12 @@
         <v>1499.766666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1475</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4113,14 +4159,12 @@
         <v>1500.183333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1499</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4154,14 +4198,12 @@
         <v>1499.716666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1499</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4195,14 +4237,12 @@
         <v>1498.5</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1505</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4236,14 +4276,12 @@
         <v>1497.483333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1510</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4277,14 +4315,12 @@
         <v>1496.95</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1516</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -5062,16 +5098,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5103,10 +5141,12 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5134,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5204,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -15736,14 +15776,20 @@
         <v>1562.683333333333</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1453</v>
+      </c>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15777,12 +15823,12 @@
         <v>0</v>
       </c>
       <c r="J428" t="n">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M428" t="n">
@@ -15851,14 +15897,12 @@
         <v>1555.85</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>1465</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -15898,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="n">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
@@ -15933,14 +15977,12 @@
         <v>1552.633333333333</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>1488</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -15974,14 +16016,12 @@
         <v>1550.583333333333</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>1482</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -16015,14 +16055,12 @@
         <v>1548.6</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>1489</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -16173,14 +16211,12 @@
         <v>1537.416666666667</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>1480</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
@@ -16214,14 +16250,12 @@
         <v>1535.516666666667</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>1480</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
@@ -16255,14 +16289,12 @@
         <v>1532.9</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>1435</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
@@ -16296,14 +16328,12 @@
         <v>1530.95</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>1440</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
@@ -16337,14 +16367,12 @@
         <v>1528.133333333333</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>1440</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
@@ -16378,14 +16406,12 @@
         <v>1525.833333333333</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>1442</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
@@ -16419,14 +16445,12 @@
         <v>1523.566666666667</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>1451</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
@@ -16460,14 +16484,12 @@
         <v>1521.533333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>1452</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
@@ -16507,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="n">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
@@ -16589,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="J448" t="n">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
@@ -16671,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="n">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
@@ -16706,14 +16728,12 @@
         <v>1511.016666666667</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>1477</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
@@ -16747,14 +16767,12 @@
         <v>1509.333333333333</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
@@ -16788,14 +16806,12 @@
         <v>1507.433333333333</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
@@ -16829,14 +16845,12 @@
         <v>1505.85</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
@@ -16870,14 +16884,12 @@
         <v>1503.916666666667</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
@@ -16911,14 +16923,12 @@
         <v>1502.15</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>1489</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
@@ -16952,14 +16962,12 @@
         <v>1500.183333333333</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
@@ -16993,14 +17001,12 @@
         <v>1498.15</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
@@ -17034,14 +17040,12 @@
         <v>1495.933333333333</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
@@ -17075,14 +17079,12 @@
         <v>1494.083333333333</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>1512</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
@@ -17116,14 +17118,12 @@
         <v>1492.3</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>1514</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
@@ -17157,14 +17157,12 @@
         <v>1490.716666666667</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>1514</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
@@ -17705,14 +17703,12 @@
         <v>1474.883333333333</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>1490</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
@@ -17746,14 +17742,12 @@
         <v>1474.833333333333</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>1502</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
@@ -18060,14 +18054,12 @@
         <v>1480.783333333333</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>1470</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
@@ -18101,14 +18093,12 @@
         <v>1481.033333333333</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>1469</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
@@ -18142,14 +18132,12 @@
         <v>1480.633333333333</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>1466</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
@@ -18183,14 +18171,12 @@
         <v>1480.65</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>1466</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
@@ -18224,14 +18210,12 @@
         <v>1480.633333333333</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>1466</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
@@ -18265,14 +18249,12 @@
         <v>1480.666666666667</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>1464</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
@@ -18306,14 +18288,12 @@
         <v>1480.366666666667</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>1467</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
@@ -18347,14 +18327,12 @@
         <v>1480.3</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>1468</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
@@ -18388,14 +18366,12 @@
         <v>1480.133333333333</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
@@ -18429,14 +18405,12 @@
         <v>1479.966666666667</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>1470</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
@@ -18470,14 +18444,12 @@
         <v>1479.666666666667</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
@@ -18511,14 +18483,12 @@
         <v>1480.116666666667</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>1465</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
@@ -18552,14 +18522,12 @@
         <v>1480.566666666667</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>1464</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
@@ -18593,14 +18561,12 @@
         <v>1481.05</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>1465</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
@@ -18634,14 +18600,12 @@
         <v>1481</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>1464</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
@@ -18675,14 +18639,12 @@
         <v>1481.7</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>1477</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
@@ -18716,14 +18678,12 @@
         <v>1481.95</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
@@ -18757,14 +18717,12 @@
         <v>1482.516666666667</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>1478</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
@@ -18798,14 +18756,12 @@
         <v>1483.133333333333</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
@@ -18839,14 +18795,12 @@
         <v>1483.733333333333</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>1479</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
@@ -18880,14 +18834,12 @@
         <v>1484.683333333333</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>1481</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
@@ -18921,14 +18873,12 @@
         <v>1485.583333333333</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>1513</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
@@ -18962,14 +18912,12 @@
         <v>1486.5</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>1514</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
@@ -19003,14 +18951,12 @@
         <v>1487.383333333333</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>1518</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
@@ -20490,16 +20436,18 @@
         <v>0</v>
       </c>
       <c r="I546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M546" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M546" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -20531,7 +20479,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20566,7 +20518,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20601,7 +20557,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20636,7 +20596,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20671,7 +20635,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20706,7 +20674,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20741,7 +20713,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20776,7 +20752,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20811,7 +20791,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20846,7 +20830,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20881,7 +20869,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20916,7 +20908,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20951,7 +20947,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20986,7 +20986,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21021,7 +21025,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21056,7 +21064,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21091,7 +21103,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21126,7 +21142,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21161,7 +21181,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21196,7 +21220,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21231,7 +21259,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21266,7 +21298,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21301,7 +21337,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21336,7 +21376,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21371,7 +21415,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21406,7 +21454,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21441,7 +21493,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +21532,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21511,7 +21571,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21546,7 +21610,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21581,7 +21649,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21616,7 +21688,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21651,7 +21727,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21686,7 +21766,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21721,7 +21805,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21756,7 +21844,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21791,7 +21883,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21826,7 +21922,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21861,7 +21961,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21896,7 +22000,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21931,7 +22039,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21966,7 +22078,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22001,7 +22117,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22036,7 +22156,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22071,7 +22195,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22106,7 +22234,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22141,7 +22273,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22176,7 +22312,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22211,7 +22351,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22246,7 +22390,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22281,7 +22429,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22316,7 +22468,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22344,18 +22500,18 @@
         <v>1538.1</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>1482</v>
-      </c>
-      <c r="K599" t="n">
-        <v>1482</v>
-      </c>
-      <c r="L599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22383,20 +22539,16 @@
         <v>1535.616666666667</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>1463</v>
-      </c>
-      <c r="K600" t="n">
-        <v>1482</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M600" t="n">
@@ -22426,20 +22578,16 @@
         <v>1533.666666666667</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>1485</v>
-      </c>
-      <c r="K601" t="n">
-        <v>1482</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M601" t="n">
@@ -22469,18 +22617,18 @@
         <v>1531.45</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>1487</v>
-      </c>
-      <c r="K602" t="n">
-        <v>1487</v>
-      </c>
-      <c r="L602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22508,20 +22656,16 @@
         <v>1529.533333333333</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>1487</v>
-      </c>
-      <c r="K603" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M603" t="n">
@@ -22551,17 +22695,13 @@
         <v>1528.05</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>1507</v>
-      </c>
-      <c r="K604" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22600,9 +22740,7 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22641,9 +22779,7 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22682,9 +22818,7 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22723,9 +22857,7 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22764,9 +22896,7 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22805,9 +22935,7 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22846,9 +22974,7 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22887,9 +23013,7 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22928,9 +23052,7 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22969,9 +23091,7 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23010,9 +23130,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23051,9 +23169,7 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23092,9 +23208,7 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23133,9 +23247,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23174,9 +23286,7 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23215,9 +23325,7 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23250,17 +23358,13 @@
         <v>1509.9</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>1422</v>
-      </c>
-      <c r="K621" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23293,17 +23397,13 @@
         <v>1508.7</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>1442</v>
-      </c>
-      <c r="K622" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23336,17 +23436,13 @@
         <v>1507.233333333333</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>1471</v>
-      </c>
-      <c r="K623" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23379,17 +23475,13 @@
         <v>1505.65</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>1460</v>
-      </c>
-      <c r="K624" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23422,17 +23514,13 @@
         <v>1504.533333333333</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>1483</v>
-      </c>
-      <c r="K625" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23465,17 +23553,13 @@
         <v>1503.433333333333</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>1484</v>
-      </c>
-      <c r="K626" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23508,17 +23592,13 @@
         <v>1503.25</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>1503</v>
-      </c>
-      <c r="K627" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23551,17 +23631,13 @@
         <v>1503.333333333333</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>1543</v>
-      </c>
-      <c r="K628" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23594,17 +23670,13 @@
         <v>1503.716666666667</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>1545</v>
-      </c>
-      <c r="K629" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23643,9 +23715,7 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23684,9 +23754,7 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23725,9 +23793,7 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23766,9 +23832,7 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23807,9 +23871,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23848,9 +23910,7 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23889,9 +23949,7 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23930,9 +23988,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23971,9 +24027,7 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24012,9 +24066,7 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24053,9 +24105,7 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24094,9 +24144,7 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24135,9 +24183,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24176,9 +24222,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24217,9 +24261,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24258,9 +24300,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24299,9 +24339,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24340,9 +24378,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24381,9 +24417,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24422,9 +24456,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24463,9 +24495,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24504,9 +24534,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24545,9 +24573,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24586,9 +24612,7 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24627,9 +24651,7 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24668,9 +24690,7 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24709,9 +24729,7 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24750,9 +24768,7 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24791,9 +24807,7 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24832,9 +24846,7 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24873,9 +24885,7 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24914,9 +24924,7 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24955,9 +24963,7 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24996,9 +25002,7 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25037,9 +25041,7 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25078,9 +25080,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25119,9 +25119,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25160,9 +25158,7 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25201,9 +25197,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25242,9 +25236,7 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25283,9 +25275,7 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25324,9 +25314,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25365,9 +25353,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25406,9 +25392,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25447,9 +25431,7 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25488,9 +25470,7 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25529,9 +25509,7 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25570,9 +25548,7 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25611,9 +25587,7 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25652,9 +25626,7 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25693,9 +25665,7 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25734,9 +25704,7 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25775,9 +25743,7 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25816,9 +25782,7 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25857,9 +25821,7 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25898,9 +25860,7 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25939,9 +25899,7 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25980,9 +25938,7 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26021,9 +25977,7 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="n">
-        <v>1487</v>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26056,17 +26010,13 @@
         <v>1516.866666666667</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>1406</v>
-      </c>
-      <c r="K689" t="n">
-        <v>1487</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-09 BackTest PPT.xlsx
+++ b/BackTest/2019-10-09 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>76243.42478538999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>73813.80198538999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1681</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,15 @@
         <v>88213.88238538998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +893,15 @@
         <v>88594.64038538998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1004,15 @@
         <v>88529.87328538999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +1115,16 @@
         <v>87814.73468538999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1078,7 +1150,7 @@
         <v>87693.92228539</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1183,7 @@
         <v>88020.88828539</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1216,7 @@
         <v>87359.49268539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1249,7 @@
         <v>84314.65538539</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1282,7 @@
         <v>80996.98798188999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1315,7 @@
         <v>80996.74828188999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1348,7 @@
         <v>80996.74828188999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1381,7 @@
         <v>79352.07018188998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1414,7 @@
         <v>79332.17548188998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1447,7 @@
         <v>79397.52638188998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1480,7 @@
         <v>80310.94138188998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1513,7 @@
         <v>81719.67293395998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1546,7 @@
         <v>84459.05293395999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1579,7 @@
         <v>83979.38793396</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1711,7 @@
         <v>83141.81028275</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1909,7 @@
         <v>80415.12018274999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1942,7 @@
         <v>80414.12018274999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1975,7 @@
         <v>80408.12018274999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2008,7 @@
         <v>79823.46368274999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2041,7 @@
         <v>79884.46368274999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2074,7 @@
         <v>76977.30608274999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2107,7 @@
         <v>78188.51508274999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2140,7 @@
         <v>78257.68918274999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2173,7 @@
         <v>78794.16184014999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2206,7 @@
         <v>78194.10444014998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2239,7 @@
         <v>78186.99474014998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2272,7 @@
         <v>78132.90444014999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2305,7 @@
         <v>78809.36934014999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2338,7 @@
         <v>78195.12834015</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2371,7 @@
         <v>78190.01894015</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2404,7 @@
         <v>77718.22664014999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2437,7 @@
         <v>77473.99674014999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2470,7 @@
         <v>77735.47674014998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2503,7 @@
         <v>77630.47674014998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2536,7 @@
         <v>76960.03864014999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2569,7 @@
         <v>76790.03864014999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -6292,7 +6364,7 @@
         <v>84472.01962232002</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6397,7 @@
         <v>89235.65445944002</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6430,7 @@
         <v>85348.45735944001</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6463,7 @@
         <v>84341.33545944002</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6496,7 @@
         <v>84520.89889900002</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6529,7 @@
         <v>84068.19039900003</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6562,7 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6595,7 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6628,7 @@
         <v>83675.82039900003</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6661,7 @@
         <v>83675.82039900003</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6754,7 +6826,7 @@
         <v>74889.27809900003</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6859,7 @@
         <v>79091.80779900003</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6892,7 @@
         <v>78890.23259900002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6925,7 @@
         <v>78541.36579900002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6958,7 @@
         <v>78569.33329900002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6991,7 @@
         <v>78758.39379900003</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7024,7 @@
         <v>80661.98199900003</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7057,7 @@
         <v>77648.85929900003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7090,7 @@
         <v>80605.56219900004</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7123,7 @@
         <v>80008.47549900004</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7156,7 @@
         <v>85173.07449900004</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7189,7 @@
         <v>85040.18309900005</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7222,7 @@
         <v>84770.39419900005</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7255,7 @@
         <v>83521.82569900005</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7288,7 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7321,7 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7354,7 @@
         <v>83294.59859900006</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7387,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7420,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7453,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7546,7 +7618,7 @@
         <v>79814.72299900008</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7651,7 @@
         <v>81210.33469900007</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7684,7 @@
         <v>80860.99229900008</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7717,7 @@
         <v>82693.41649900007</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7750,7 @@
         <v>83339.20949900008</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7783,7 @@
         <v>83226.90949900007</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7816,7 @@
         <v>82853.61179900008</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7849,7 @@
         <v>82853.81179900008</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7882,7 @@
         <v>82608.16096619007</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7915,7 @@
         <v>82571.31176619008</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7948,7 @@
         <v>82631.91176619008</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7981,7 @@
         <v>82627.91176619008</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +8014,7 @@
         <v>82637.51176619009</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8047,7 @@
         <v>78830.00226619009</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8080,7 @@
         <v>79471.33086619008</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8113,7 @@
         <v>76968.84486619008</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8146,7 @@
         <v>76731.91516619008</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8179,7 @@
         <v>77077.14616619008</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8212,7 @@
         <v>84032.73626619008</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8245,7 @@
         <v>84032.73626619008</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8278,7 @@
         <v>84022.99866619009</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8311,7 @@
         <v>84022.99866619009</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8344,7 @@
         <v>83694.2913661901</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8377,7 @@
         <v>83723.9605661901</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8410,7 @@
         <v>83788.09796619011</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8443,7 @@
         <v>83778.97736619011</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8476,7 @@
         <v>84178.94306619011</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8509,7 @@
         <v>83681.94306619011</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8542,7 @@
         <v>83781.94306619011</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8575,7 @@
         <v>83449.59916619011</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8608,7 @@
         <v>83421.12766619011</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8641,7 @@
         <v>83653.24666619011</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8674,7 @@
         <v>83493.84666619012</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8707,7 @@
         <v>82592.92976619012</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8740,7 @@
         <v>82697.35246619012</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8773,7 @@
         <v>89825.43326619011</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8806,7 @@
         <v>96314.11026619011</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8839,7 @@
         <v>96610.60716619011</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8872,7 @@
         <v>98696.29646619011</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8905,7 @@
         <v>102326.8052661901</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8938,7 @@
         <v>101674.4645661901</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8971,7 @@
         <v>103647.2258661901</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9004,7 @@
         <v>103439.2251923601</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9037,7 @@
         <v>100465.4251923601</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9070,7 @@
         <v>97483.1701155701</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9103,7 @@
         <v>97501.4452155701</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9136,7 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9169,7 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9202,7 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9235,7 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9268,7 @@
         <v>96896.3178155701</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9301,7 @@
         <v>96677.2467155701</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9334,7 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9367,7 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9400,7 @@
         <v>98771.5326155701</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9433,7 @@
         <v>98780.28701557011</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9466,7 @@
         <v>99038.62921557011</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9499,7 @@
         <v>99189.78641557011</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9532,7 @@
         <v>99658.2866155701</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9565,7 @@
         <v>99657.0089155701</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9598,7 @@
         <v>99671.3037155701</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9631,7 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9664,7 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9697,7 @@
         <v>97163.8010155701</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9730,7 @@
         <v>96903.45241557011</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9763,7 @@
         <v>96902.45241557011</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9796,7 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9829,7 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9862,7 @@
         <v>97942.04331557012</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9895,7 @@
         <v>99824.70531557011</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9928,7 @@
         <v>99819.67051557012</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9961,7 @@
         <v>99820.63811557012</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9994,7 @@
         <v>99673.23971557012</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10126,7 @@
         <v>101146.1746155701</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10159,7 @@
         <v>101146.2746155701</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10192,7 @@
         <v>101417.4992155701</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10225,7 @@
         <v>101147.5829155701</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10258,7 @@
         <v>102501.0337155701</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10291,7 @@
         <v>103370.9329155701</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10324,7 @@
         <v>104269.2498155701</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10357,7 @@
         <v>104176.2282155702</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10390,7 @@
         <v>102831.5489155702</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10456,7 @@
         <v>103622.8864609001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10489,7 @@
         <v>103727.4322609002</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10522,7 @@
         <v>103727.5322609002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10555,7 @@
         <v>103725.5322609002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10588,7 @@
         <v>103732.0409609002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10621,7 @@
         <v>103879.9409609002</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10615,7 +10687,7 @@
         <v>103679.2250609002</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10720,7 @@
         <v>103477.2250609002</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10753,7 @@
         <v>103455.1250609002</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10786,7 @@
         <v>103455.2250609002</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10819,7 @@
         <v>103014.4719609002</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10852,7 @@
         <v>100419.8498235602</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10885,7 @@
         <v>100427.4473235602</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10918,7 @@
         <v>100427.4473235602</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10951,7 @@
         <v>100424.2517235602</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10984,7 @@
         <v>100424.2517235602</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11017,7 @@
         <v>99728.68162356016</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11050,7 @@
         <v>96281.43202356016</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11083,7 @@
         <v>96926.84342356016</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11116,7 @@
         <v>97864.98032356016</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11149,7 @@
         <v>99299.14832356016</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11182,7 @@
         <v>100774.4942235602</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11215,7 @@
         <v>100855.7942235602</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11248,7 @@
         <v>100857.7942235602</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11281,7 @@
         <v>100855.7942235602</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11314,7 @@
         <v>100857.8942235602</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11347,7 @@
         <v>100666.6908235602</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11380,7 @@
         <v>100714.2450235602</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11413,7 @@
         <v>100966.0136235602</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11446,7 @@
         <v>100939.0136235602</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11479,7 @@
         <v>100929.0136235602</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11512,7 @@
         <v>100483.1328235602</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11545,7 @@
         <v>100341.5630235602</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11578,7 @@
         <v>100341.3812235602</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11611,7 @@
         <v>100380.3812235602</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11644,7 @@
         <v>99964.28252356016</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11677,7 @@
         <v>100178.5879235602</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11710,7 @@
         <v>100178.5879235602</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11743,7 @@
         <v>100964.8062235602</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11776,7 @@
         <v>100964.8062235602</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11809,7 @@
         <v>100971.6788235602</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11842,7 @@
         <v>100961.0372235602</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12001,7 +12073,7 @@
         <v>100635.1441235602</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12106,7 @@
         <v>100743.8439235602</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12139,7 @@
         <v>100533.6108235602</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12133,7 +12205,7 @@
         <v>100300.0906235602</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12298,7 +12370,7 @@
         <v>100127.7561235602</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12496,7 +12568,7 @@
         <v>100908.2913235602</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12601,7 @@
         <v>100907.5524235602</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12634,7 @@
         <v>100908.5524235602</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12667,7 @@
         <v>101007.2575235602</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12700,7 @@
         <v>101059.7365235602</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12727,7 +12799,7 @@
         <v>101203.6849716502</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12832,7 @@
         <v>101094.8539716502</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12865,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12898,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12931,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12964,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13057,7 +13129,7 @@
         <v>100502.2913716502</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13162,7 @@
         <v>100505.2482716502</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13195,7 @@
         <v>101880.4323744102</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13189,7 +13261,7 @@
         <v>101873.6957744102</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13294,7 @@
         <v>100466.7207744102</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13327,7 @@
         <v>100465.1910744102</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13360,7 @@
         <v>100465.1910744102</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13393,7 @@
         <v>100708.6179744102</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13426,7 @@
         <v>103604.3128744102</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13459,7 @@
         <v>103988.3193744102</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13492,7 @@
         <v>103287.7361744102</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13525,7 @@
         <v>103187.8026744102</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13558,7 @@
         <v>103187.7026744102</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13591,7 @@
         <v>104875.6057139802</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13624,7 @@
         <v>104988.7117139802</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13657,7 @@
         <v>106384.5076139802</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13690,7 @@
         <v>105716.9570139802</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13723,7 @@
         <v>105717.9491139802</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13750,7 +13822,7 @@
         <v>105658.6140139802</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13855,7 @@
         <v>105202.6059139802</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13888,7 @@
         <v>104984.2610139802</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13921,7 @@
         <v>104450.8898139802</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13954,7 @@
         <v>104526.6421139802</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13987,7 @@
         <v>104497.8421139802</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14020,7 @@
         <v>104497.8421139802</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14053,7 @@
         <v>104616.9536139802</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14086,7 @@
         <v>104887.5002139802</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14119,7 @@
         <v>104900.1656139802</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14152,7 @@
         <v>103985.2079139802</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14185,7 @@
         <v>104005.2079139802</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14218,7 @@
         <v>105088.7503139802</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14251,7 @@
         <v>105161.9857139802</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14284,7 @@
         <v>105161.9857139802</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14317,7 @@
         <v>105128.3857139802</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14350,7 @@
         <v>105128.3857139802</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14383,7 @@
         <v>106304.0510139802</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14416,7 @@
         <v>106295.5170139802</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15004,7 +15076,7 @@
         <v>103720.5522139802</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15109,7 @@
         <v>102324.7563139802</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15142,7 @@
         <v>102324.7563139802</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15175,7 @@
         <v>99383.54751398021</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15208,7 @@
         <v>99383.54751398021</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15241,7 @@
         <v>99383.54751398021</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15274,7 @@
         <v>99396.78371398021</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15307,7 @@
         <v>98017.81981398021</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15340,7 @@
         <v>98188.13471398021</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15373,7 @@
         <v>98433.39426171021</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15406,7 @@
         <v>98433.29426171021</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15439,7 @@
         <v>98433.79426171021</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15472,7 @@
         <v>98433.79426171021</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15505,7 @@
         <v>98495.86116171021</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15538,7 @@
         <v>99926.90606171021</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15571,7 @@
         <v>99985.50606171021</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15604,7 @@
         <v>99093.84036171022</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15637,7 @@
         <v>99086.09626171022</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15670,7 @@
         <v>99085.09626171022</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15895,7 +15967,7 @@
         <v>97229.67036171022</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +16000,7 @@
         <v>97229.67036171022</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +16033,7 @@
         <v>97231.88916171022</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +16066,7 @@
         <v>97231.88916171022</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16099,7 @@
         <v>97024.61206171021</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16132,7 @@
         <v>96330.44916171022</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16165,7 @@
         <v>94282.07006171021</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16198,7 @@
         <v>93360.27846171022</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16231,7 @@
         <v>93088.57376171021</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16264,7 @@
         <v>93088.57376171021</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16297,7 @@
         <v>88613.45256171022</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16330,7 @@
         <v>91549.77786171022</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16363,7 @@
         <v>92020.48236171022</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16396,7 @@
         <v>93543.35366171022</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16429,7 @@
         <v>93372.87918986022</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16462,7 @@
         <v>96090.12858986022</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16495,7 @@
         <v>98296.29288986023</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16528,7 @@
         <v>97953.10958986022</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16561,7 @@
         <v>97953.10958986022</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17908,14 +17980,10 @@
         <v>97548.43268986019</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>1461</v>
-      </c>
-      <c r="J531" t="n">
-        <v>1461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
@@ -17945,19 +18013,11 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>1486</v>
-      </c>
-      <c r="J532" t="n">
-        <v>1461</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17986,19 +18046,11 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>1487</v>
-      </c>
-      <c r="J533" t="n">
-        <v>1461</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18027,14 +18079,10 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>1487</v>
-      </c>
-      <c r="J534" t="n">
-        <v>1487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
@@ -18064,19 +18112,11 @@
         <v>97681.08838986019</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>1487</v>
-      </c>
-      <c r="J535" t="n">
-        <v>1487</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18105,19 +18145,11 @@
         <v>98199.33218986019</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>1498</v>
-      </c>
-      <c r="J536" t="n">
-        <v>1487</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18179,14 +18211,10 @@
         <v>98952.58578986018</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>1514</v>
-      </c>
-      <c r="J538" t="n">
-        <v>1514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
@@ -18216,17 +18244,11 @@
         <v>98618.01168986018</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18255,17 +18277,11 @@
         <v>98016.48158986018</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18294,17 +18310,11 @@
         <v>97889.58508986018</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18333,19 +18343,11 @@
         <v>97437.37148986018</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>1486</v>
-      </c>
-      <c r="J542" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18374,19 +18376,11 @@
         <v>97438.37148986018</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>1464</v>
-      </c>
-      <c r="J543" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18415,19 +18409,11 @@
         <v>97432.55448986018</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>1485</v>
-      </c>
-      <c r="J544" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18456,19 +18442,11 @@
         <v>96928.66068986017</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>1470</v>
-      </c>
-      <c r="J545" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18497,19 +18475,11 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>1468</v>
-      </c>
-      <c r="J546" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18538,19 +18508,11 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>1466</v>
-      </c>
-      <c r="J547" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18579,19 +18541,11 @@
         <v>96788.60928986018</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>1466</v>
-      </c>
-      <c r="J548" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18620,19 +18574,11 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>1464</v>
-      </c>
-      <c r="J549" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18661,19 +18607,11 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>1467</v>
-      </c>
-      <c r="J550" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18702,19 +18640,11 @@
         <v>96795.60928986018</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>1467</v>
-      </c>
-      <c r="J551" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18743,19 +18673,11 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>1478</v>
-      </c>
-      <c r="J552" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18784,19 +18706,11 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>1479</v>
-      </c>
-      <c r="J553" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18825,19 +18739,11 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>1479</v>
-      </c>
-      <c r="J554" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18866,19 +18772,11 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>1465</v>
-      </c>
-      <c r="J555" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18907,19 +18805,11 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>1465</v>
-      </c>
-      <c r="J556" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18948,19 +18838,11 @@
         <v>96325.27718986018</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>1465</v>
-      </c>
-      <c r="J557" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18989,19 +18871,11 @@
         <v>96330.81298986018</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>1464</v>
-      </c>
-      <c r="J558" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19030,19 +18904,11 @@
         <v>96330.81298986018</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>1477</v>
-      </c>
-      <c r="J559" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19071,19 +18937,11 @@
         <v>96403.18578986017</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>1477</v>
-      </c>
-      <c r="J560" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19112,19 +18970,11 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>1478</v>
-      </c>
-      <c r="J561" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19153,19 +19003,11 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>1479</v>
-      </c>
-      <c r="J562" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19194,19 +19036,11 @@
         <v>96737.61388986016</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>1479</v>
-      </c>
-      <c r="J563" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19235,19 +19069,11 @@
         <v>98095.82918986016</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>1480</v>
-      </c>
-      <c r="J564" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19276,19 +19102,11 @@
         <v>98688.51418986016</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>1508</v>
-      </c>
-      <c r="J565" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19317,19 +19135,11 @@
         <v>99094.61858986015</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>1513</v>
-      </c>
-      <c r="J566" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19358,19 +19168,11 @@
         <v>99098.99768986016</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>1514</v>
-      </c>
-      <c r="J567" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19402,14 +19204,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19441,14 +19237,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19477,19 +19267,13 @@
         <v>101859.0634898602</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
-        <v>1.012173051519155</v>
+        <v>1</v>
       </c>
       <c r="M570" t="inlineStr"/>
     </row>
@@ -19516,7 +19300,7 @@
         <v>101861.0656898602</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19549,7 +19333,7 @@
         <v>101906.8871898602</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19582,7 +19366,7 @@
         <v>101906.6773898602</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19615,7 +19399,7 @@
         <v>101906.6773898602</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19648,7 +19432,7 @@
         <v>102385.8062898602</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19681,7 +19465,7 @@
         <v>103851.1773804202</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19714,7 +19498,7 @@
         <v>103851.1773804202</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19747,7 +19531,7 @@
         <v>102880.4622804202</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19780,7 +19564,7 @@
         <v>102842.0129804202</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19813,7 +19597,7 @@
         <v>104183.1229804202</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19846,7 +19630,7 @@
         <v>104057.2048804202</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19879,7 +19663,7 @@
         <v>104152.7950804202</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19912,7 +19696,7 @@
         <v>104248.3853804202</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19945,7 +19729,7 @@
         <v>104447.8853804202</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19978,7 +19762,7 @@
         <v>104448.8853804202</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20011,7 +19795,7 @@
         <v>104271.7853804202</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20044,7 +19828,7 @@
         <v>104273.7853804202</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20077,7 +19861,7 @@
         <v>104273.7853804202</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20110,7 +19894,7 @@
         <v>105153.7737804202</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20143,7 +19927,7 @@
         <v>105937.5570804202</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20176,7 +19960,7 @@
         <v>106641.7966282002</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20209,7 +19993,7 @@
         <v>107342.6429804202</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20242,7 +20026,7 @@
         <v>108054.0534804202</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20275,7 +20059,7 @@
         <v>107635.9658804202</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20308,7 +20092,7 @@
         <v>107444.8607804202</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20341,7 +20125,7 @@
         <v>107605.4819804202</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20374,7 +20158,7 @@
         <v>107208.1582804202</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20407,7 +20191,7 @@
         <v>106610.0575804202</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20440,7 +20224,7 @@
         <v>107302.3067804202</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20968,7 +20752,7 @@
         <v>106659.1642804202</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21001,7 +20785,7 @@
         <v>106659.1642804202</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21034,7 +20818,7 @@
         <v>106844.8940804202</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21067,7 +20851,7 @@
         <v>107077.2944205202</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21133,7 +20917,7 @@
         <v>107077.0944205202</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21166,7 +20950,7 @@
         <v>106857.2864205202</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21199,7 +20983,7 @@
         <v>106869.6114205202</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21232,7 +21016,7 @@
         <v>106730.9279205202</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21265,7 +21049,7 @@
         <v>106125.8702205202</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21298,7 +21082,7 @@
         <v>106125.8702205202</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21331,7 +21115,7 @@
         <v>106125.8702205202</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21364,7 +21148,7 @@
         <v>106011.0704205202</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21397,7 +21181,7 @@
         <v>106006.3263205202</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21925,7 +21709,7 @@
         <v>99803.41517173022</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21958,7 +21742,7 @@
         <v>98802.10017173021</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22123,7 +21907,7 @@
         <v>100498.0486717302</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22156,7 +21940,7 @@
         <v>99692.07837173021</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22189,7 +21973,7 @@
         <v>100029.3931717302</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22222,7 +22006,7 @@
         <v>100029.3931717302</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22255,7 +22039,7 @@
         <v>99876.84087173021</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24928,7 +24712,7 @@
         <v>87447.97989708021</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25698,6 +25482,6 @@
       <c r="M758" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest PPT.xlsx
+++ b/BackTest/2019-10-09 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>76243.42478538999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>73813.80198538999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,16 +1045,14 @@
         <v>87814.73468538999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1150,7 +1078,7 @@
         <v>87693.92228539</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1183,7 +1111,7 @@
         <v>88020.88828539</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1216,7 +1144,7 @@
         <v>87359.49268539</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1249,7 +1177,7 @@
         <v>84314.65538539</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1282,7 +1210,7 @@
         <v>80996.98798188999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1315,7 +1243,7 @@
         <v>80996.74828188999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1579,7 +1507,7 @@
         <v>83979.38793396</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1711,7 +1639,7 @@
         <v>83141.81028275</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1909,7 +1837,7 @@
         <v>80415.12018274999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1942,7 +1870,7 @@
         <v>80414.12018274999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1975,7 +1903,7 @@
         <v>80408.12018274999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2008,7 +1936,7 @@
         <v>79823.46368274999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2041,7 +1969,7 @@
         <v>79884.46368274999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2074,7 +2002,7 @@
         <v>76977.30608274999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2107,7 +2035,7 @@
         <v>78188.51508274999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2140,7 +2068,7 @@
         <v>78257.68918274999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2173,7 +2101,7 @@
         <v>78794.16184014999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2206,7 +2134,7 @@
         <v>78194.10444014998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2239,7 +2167,7 @@
         <v>78186.99474014998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2272,7 +2200,7 @@
         <v>78132.90444014999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2305,7 +2233,7 @@
         <v>78809.36934014999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2338,7 +2266,7 @@
         <v>78195.12834015</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2371,7 +2299,7 @@
         <v>78190.01894015</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2404,7 +2332,7 @@
         <v>77718.22664014999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2437,7 +2365,7 @@
         <v>77473.99674014999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2470,7 +2398,7 @@
         <v>77735.47674014998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2503,7 +2431,7 @@
         <v>77630.47674014998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2536,7 +2464,7 @@
         <v>76960.03864014999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2569,7 +2497,7 @@
         <v>76790.03864014999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2734,10 +2662,14 @@
         <v>75922.56434014998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1441</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1441</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2770,8 +2702,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2803,8 +2741,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2836,8 +2780,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2869,8 +2819,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2902,8 +2858,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2935,8 +2897,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2968,8 +2936,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3001,8 +2975,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3034,8 +3014,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3067,8 +3053,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3100,8 +3092,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3133,8 +3131,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3166,8 +3170,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3199,8 +3209,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3232,8 +3248,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3265,8 +3287,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +3323,19 @@
         <v>75906.25444014998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1471</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +3364,19 @@
         <v>75906.05444014998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1471</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3405,19 @@
         <v>75969.41404014998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3446,19 @@
         <v>75969.41404014998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3427,11 +3487,19 @@
         <v>75828.50854014998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1483</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3528,19 @@
         <v>75686.35684014998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1481</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3569,19 @@
         <v>75684.35684014998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3610,19 @@
         <v>75685.01664014997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1469</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3559,11 +3651,19 @@
         <v>75609.01664014997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3592,11 +3692,19 @@
         <v>75369.01664014997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1449</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3625,11 +3733,19 @@
         <v>76736.69534014998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1437</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3658,11 +3774,19 @@
         <v>76958.69534014998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1462</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3691,11 +3815,19 @@
         <v>77074.69534014998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1474</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3727,8 +3859,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3760,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3793,8 +3937,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3826,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3859,8 +4015,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3892,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3925,8 +4093,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3958,8 +4132,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3991,8 +4171,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4024,8 +4210,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4057,8 +4249,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4090,8 +4288,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4123,8 +4327,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4156,8 +4366,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4189,8 +4405,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4222,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4255,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4288,8 +4522,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4321,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4354,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4387,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4420,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4453,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4486,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4585,8 +4873,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4618,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4651,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4684,8 +4990,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4717,8 +5029,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4750,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4783,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4816,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4849,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4882,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4912,13 +5260,19 @@
         <v>76256.31554014998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1441</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>1.009573213046496</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
@@ -4945,7 +5299,7 @@
         <v>76315.15034014998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5143,7 +5497,7 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5176,7 +5530,7 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5209,7 +5563,7 @@
         <v>75660.92494014998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5374,11 +5728,17 @@
         <v>75513.19414014999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1456</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +5767,17 @@
         <v>75513.19414014999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1450</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5806,17 @@
         <v>75572.05114015</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1450</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5473,11 +5845,17 @@
         <v>74936.28424014999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1469</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5884,17 @@
         <v>75010.21454015</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1453</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5539,11 +5923,17 @@
         <v>74720.24354015</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1479</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5576,7 +5966,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5609,7 +6003,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5642,7 +6040,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5675,7 +6077,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +6114,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5741,7 +6151,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5774,7 +6188,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5807,7 +6225,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5840,7 +6262,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5873,7 +6299,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5906,7 +6336,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5939,7 +6373,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5972,7 +6410,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6005,7 +6447,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6038,7 +6484,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6071,7 +6521,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6104,7 +6558,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6137,7 +6595,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6170,7 +6632,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6203,7 +6669,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6236,7 +6706,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6269,7 +6743,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6302,7 +6780,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6335,7 +6817,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6368,7 +6854,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6401,7 +6891,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6434,7 +6928,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6467,7 +6965,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6500,7 +7002,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6533,7 +7039,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6566,7 +7076,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6599,7 +7113,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6632,7 +7150,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6665,7 +7187,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6698,7 +7224,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6731,7 +7261,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6764,7 +7298,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6797,7 +7335,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6826,11 +7368,15 @@
         <v>74889.27809900003</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6859,11 +7405,15 @@
         <v>79091.80779900003</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6892,11 +7442,15 @@
         <v>78890.23259900002</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6925,11 +7479,15 @@
         <v>78541.36579900002</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6958,11 +7516,15 @@
         <v>78569.33329900002</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6991,11 +7553,15 @@
         <v>78758.39379900003</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +7590,15 @@
         <v>80661.98199900003</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7057,11 +7627,15 @@
         <v>77648.85929900003</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7090,11 +7664,15 @@
         <v>80605.56219900004</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7123,11 +7701,15 @@
         <v>80008.47549900004</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7156,11 +7738,15 @@
         <v>85173.07449900004</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7189,11 +7775,15 @@
         <v>85040.18309900005</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7222,11 +7812,15 @@
         <v>84770.39419900005</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7255,11 +7849,15 @@
         <v>83521.82569900005</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7288,11 +7886,15 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7321,11 +7923,15 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7354,11 +7960,15 @@
         <v>83294.59859900006</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +7997,15 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +8034,15 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7453,11 +8071,15 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7490,7 +8112,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7523,7 +8149,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7556,7 +8186,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7589,7 +8223,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7618,11 +8256,15 @@
         <v>79814.72299900008</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +8293,15 @@
         <v>81210.33469900007</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7684,11 +8330,15 @@
         <v>80860.99229900008</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7717,11 +8367,15 @@
         <v>82693.41649900007</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7750,11 +8404,15 @@
         <v>83339.20949900008</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7783,11 +8441,15 @@
         <v>83226.90949900007</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +8478,15 @@
         <v>82853.61179900008</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7849,11 +8515,15 @@
         <v>82853.81179900008</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +8552,15 @@
         <v>82608.16096619007</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7915,11 +8589,15 @@
         <v>82571.31176619008</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +8626,15 @@
         <v>82631.91176619008</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +8663,15 @@
         <v>82627.91176619008</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8014,11 +8700,15 @@
         <v>82637.51176619009</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8047,11 +8737,15 @@
         <v>78830.00226619009</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8080,11 +8774,15 @@
         <v>79471.33086619008</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8113,11 +8811,15 @@
         <v>76968.84486619008</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8146,11 +8848,15 @@
         <v>76731.91516619008</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8179,11 +8885,15 @@
         <v>77077.14616619008</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +8922,15 @@
         <v>84032.73626619008</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +8959,15 @@
         <v>84032.73626619008</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8278,11 +8996,15 @@
         <v>84022.99866619009</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8311,11 +9033,15 @@
         <v>84022.99866619009</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8344,11 +9070,15 @@
         <v>83694.2913661901</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8377,11 +9107,15 @@
         <v>83723.9605661901</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8410,11 +9144,15 @@
         <v>83788.09796619011</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8443,11 +9181,15 @@
         <v>83778.97736619011</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +9218,15 @@
         <v>84178.94306619011</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8509,11 +9255,15 @@
         <v>83681.94306619011</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8542,11 +9292,15 @@
         <v>83781.94306619011</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8575,11 +9329,15 @@
         <v>83449.59916619011</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8608,11 +9366,15 @@
         <v>83421.12766619011</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8641,11 +9403,15 @@
         <v>83653.24666619011</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8674,11 +9440,15 @@
         <v>83493.84666619012</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8707,11 +9477,15 @@
         <v>82592.92976619012</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8740,11 +9514,15 @@
         <v>82697.35246619012</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +9551,15 @@
         <v>89825.43326619011</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +9588,15 @@
         <v>96314.11026619011</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8839,11 +9625,15 @@
         <v>96610.60716619011</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +9662,15 @@
         <v>98696.29646619011</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +9699,15 @@
         <v>102326.8052661901</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +9736,15 @@
         <v>101674.4645661901</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8971,11 +9773,15 @@
         <v>103647.2258661901</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9004,11 +9810,15 @@
         <v>103439.2251923601</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9037,11 +9847,15 @@
         <v>100465.4251923601</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9070,11 +9884,15 @@
         <v>97483.1701155701</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +9921,15 @@
         <v>97501.4452155701</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9136,11 +9958,15 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9169,11 +9995,15 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9202,11 +10032,15 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9235,11 +10069,15 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9268,11 +10106,15 @@
         <v>96896.3178155701</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9301,11 +10143,15 @@
         <v>96677.2467155701</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9334,11 +10180,15 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9367,11 +10217,15 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9400,11 +10254,15 @@
         <v>98771.5326155701</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9433,11 +10291,15 @@
         <v>98780.28701557011</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +10328,15 @@
         <v>99038.62921557011</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9499,11 +10365,15 @@
         <v>99189.78641557011</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9532,11 +10402,15 @@
         <v>99658.2866155701</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9565,11 +10439,15 @@
         <v>99657.0089155701</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +10476,15 @@
         <v>99671.3037155701</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9631,11 +10513,15 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9664,11 +10550,15 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9697,11 +10587,15 @@
         <v>97163.8010155701</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9730,11 +10624,15 @@
         <v>96903.45241557011</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9763,11 +10661,15 @@
         <v>96902.45241557011</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +10698,15 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +10735,15 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9862,11 +10772,15 @@
         <v>97942.04331557012</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9895,11 +10809,15 @@
         <v>99824.70531557011</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9928,11 +10846,15 @@
         <v>99819.67051557012</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9961,11 +10883,15 @@
         <v>99820.63811557012</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9994,11 +10920,15 @@
         <v>99673.23971557012</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10031,7 +10961,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10064,7 +10998,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10097,7 +11035,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +11068,15 @@
         <v>101146.1746155701</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10159,11 +11105,15 @@
         <v>101146.2746155701</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10192,11 +11142,15 @@
         <v>101417.4992155701</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10225,11 +11179,15 @@
         <v>101147.5829155701</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10258,11 +11216,15 @@
         <v>102501.0337155701</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +11253,15 @@
         <v>103370.9329155701</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +11290,15 @@
         <v>104269.2498155701</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10357,11 +11327,15 @@
         <v>104176.2282155702</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10390,11 +11364,15 @@
         <v>102831.5489155702</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10427,7 +11405,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10456,11 +11438,15 @@
         <v>103622.8864609001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10489,11 +11475,15 @@
         <v>103727.4322609002</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10522,11 +11512,15 @@
         <v>103727.5322609002</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10555,11 +11549,15 @@
         <v>103725.5322609002</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10588,11 +11586,15 @@
         <v>103732.0409609002</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10621,11 +11623,15 @@
         <v>103879.9409609002</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10658,7 +11664,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +11697,15 @@
         <v>103679.2250609002</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10720,11 +11734,15 @@
         <v>103477.2250609002</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10753,11 +11771,15 @@
         <v>103455.1250609002</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10786,11 +11808,15 @@
         <v>103455.2250609002</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10819,11 +11845,15 @@
         <v>103014.4719609002</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10852,11 +11882,15 @@
         <v>100419.8498235602</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10885,11 +11919,15 @@
         <v>100427.4473235602</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10918,11 +11956,15 @@
         <v>100427.4473235602</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10951,11 +11993,15 @@
         <v>100424.2517235602</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10984,11 +12030,15 @@
         <v>100424.2517235602</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +12067,15 @@
         <v>99728.68162356016</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11050,11 +12104,15 @@
         <v>96281.43202356016</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11083,11 +12141,15 @@
         <v>96926.84342356016</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11116,11 +12178,15 @@
         <v>97864.98032356016</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11149,11 +12215,15 @@
         <v>99299.14832356016</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11182,11 +12252,15 @@
         <v>100774.4942235602</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11215,11 +12289,15 @@
         <v>100855.7942235602</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11248,11 +12326,15 @@
         <v>100857.7942235602</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11281,11 +12363,15 @@
         <v>100855.7942235602</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11314,11 +12400,15 @@
         <v>100857.8942235602</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11347,11 +12437,15 @@
         <v>100666.6908235602</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11380,11 +12474,15 @@
         <v>100714.2450235602</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11413,11 +12511,15 @@
         <v>100966.0136235602</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11446,11 +12548,15 @@
         <v>100939.0136235602</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11479,11 +12585,15 @@
         <v>100929.0136235602</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11512,11 +12622,15 @@
         <v>100483.1328235602</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11545,11 +12659,15 @@
         <v>100341.5630235602</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11578,11 +12696,15 @@
         <v>100341.3812235602</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +12733,15 @@
         <v>100380.3812235602</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11644,11 +12770,15 @@
         <v>99964.28252356016</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11677,11 +12807,15 @@
         <v>100178.5879235602</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11710,11 +12844,15 @@
         <v>100178.5879235602</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11743,11 +12881,15 @@
         <v>100964.8062235602</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11776,11 +12918,15 @@
         <v>100964.8062235602</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11809,11 +12955,15 @@
         <v>100971.6788235602</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11842,11 +12992,15 @@
         <v>100961.0372235602</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11879,7 +13033,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11912,7 +13070,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11945,7 +13107,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11978,7 +13144,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12011,7 +13181,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12044,7 +13218,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12073,11 +13251,15 @@
         <v>100635.1441235602</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12106,11 +13288,15 @@
         <v>100743.8439235602</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12139,11 +13325,15 @@
         <v>100533.6108235602</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12176,7 +13366,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12205,11 +13399,15 @@
         <v>100300.0906235602</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12242,7 +13440,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12275,7 +13477,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12308,7 +13514,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12341,7 +13551,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12370,11 +13584,15 @@
         <v>100127.7561235602</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12407,7 +13625,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12440,7 +13662,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12473,7 +13699,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12506,7 +13736,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12539,7 +13773,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12568,11 +13806,15 @@
         <v>100908.2913235602</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12601,11 +13843,15 @@
         <v>100907.5524235602</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +13880,15 @@
         <v>100908.5524235602</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12667,11 +13917,15 @@
         <v>101007.2575235602</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12700,11 +13954,15 @@
         <v>101059.7365235602</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12737,7 +13995,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12770,7 +14032,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12803,7 +14069,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12832,11 +14102,15 @@
         <v>101094.8539716502</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12865,11 +14139,15 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12898,11 +14176,15 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12931,11 +14213,15 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12964,11 +14250,15 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13001,7 +14291,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13034,7 +14328,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13067,7 +14365,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13100,7 +14402,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +14435,15 @@
         <v>100502.2913716502</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13162,11 +14472,15 @@
         <v>100505.2482716502</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13195,11 +14509,15 @@
         <v>101880.4323744102</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13232,7 +14550,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13261,11 +14583,15 @@
         <v>101873.6957744102</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13294,11 +14620,15 @@
         <v>100466.7207744102</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13327,11 +14657,15 @@
         <v>100465.1910744102</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13360,11 +14694,15 @@
         <v>100465.1910744102</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13393,11 +14731,15 @@
         <v>100708.6179744102</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13426,11 +14768,15 @@
         <v>103604.3128744102</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13459,11 +14805,15 @@
         <v>103988.3193744102</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13492,11 +14842,15 @@
         <v>103287.7361744102</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13525,11 +14879,15 @@
         <v>103187.8026744102</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13558,11 +14916,15 @@
         <v>103187.7026744102</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13591,11 +14953,15 @@
         <v>104875.6057139802</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13624,11 +14990,15 @@
         <v>104988.7117139802</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13657,11 +15027,15 @@
         <v>106384.5076139802</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13690,11 +15064,15 @@
         <v>105716.9570139802</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13723,11 +15101,15 @@
         <v>105717.9491139802</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13760,7 +15142,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13793,7 +15179,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13822,11 +15212,15 @@
         <v>105658.6140139802</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13855,11 +15249,15 @@
         <v>105202.6059139802</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13888,11 +15286,15 @@
         <v>104984.2610139802</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13921,11 +15323,15 @@
         <v>104450.8898139802</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13954,11 +15360,15 @@
         <v>104526.6421139802</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13987,11 +15397,15 @@
         <v>104497.8421139802</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14020,11 +15434,15 @@
         <v>104497.8421139802</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14053,11 +15471,15 @@
         <v>104616.9536139802</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14086,11 +15508,15 @@
         <v>104887.5002139802</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14119,11 +15545,15 @@
         <v>104900.1656139802</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14152,11 +15582,15 @@
         <v>103985.2079139802</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14185,11 +15619,15 @@
         <v>104005.2079139802</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14218,11 +15656,15 @@
         <v>105088.7503139802</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +15693,15 @@
         <v>105161.9857139802</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14284,11 +15730,15 @@
         <v>105161.9857139802</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14317,11 +15767,15 @@
         <v>105128.3857139802</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +15804,15 @@
         <v>105128.3857139802</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14383,11 +15841,15 @@
         <v>106304.0510139802</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14416,11 +15878,15 @@
         <v>106295.5170139802</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14453,7 +15919,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14486,7 +15956,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14519,7 +15993,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14552,7 +16030,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14585,7 +16067,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14618,7 +16104,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14651,7 +16141,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14684,7 +16178,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14717,7 +16215,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14750,7 +16252,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14783,7 +16289,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14816,7 +16326,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14849,7 +16363,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14882,7 +16400,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14915,7 +16437,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +16474,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14981,7 +16511,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15014,7 +16548,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15047,7 +16585,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15076,11 +16618,15 @@
         <v>103720.5522139802</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15109,11 +16655,15 @@
         <v>102324.7563139802</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15142,11 +16692,15 @@
         <v>102324.7563139802</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15175,11 +16729,15 @@
         <v>99383.54751398021</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15208,11 +16766,15 @@
         <v>99383.54751398021</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15241,11 +16803,15 @@
         <v>99383.54751398021</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15274,11 +16840,15 @@
         <v>99396.78371398021</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15307,11 +16877,15 @@
         <v>98017.81981398021</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15340,11 +16914,15 @@
         <v>98188.13471398021</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15373,11 +16951,15 @@
         <v>98433.39426171021</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15406,11 +16988,15 @@
         <v>98433.29426171021</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15439,11 +17025,15 @@
         <v>98433.79426171021</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15472,11 +17062,15 @@
         <v>98433.79426171021</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15505,11 +17099,15 @@
         <v>98495.86116171021</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15538,11 +17136,15 @@
         <v>99926.90606171021</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +17173,15 @@
         <v>99985.50606171021</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15604,11 +17210,15 @@
         <v>99093.84036171022</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15637,11 +17247,15 @@
         <v>99086.09626171022</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15670,11 +17284,15 @@
         <v>99085.09626171022</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15707,7 +17325,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15740,7 +17362,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15773,7 +17399,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15806,7 +17436,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15839,7 +17473,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15872,7 +17510,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15905,7 +17547,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15938,7 +17584,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15967,11 +17617,15 @@
         <v>97229.67036171022</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16000,11 +17654,15 @@
         <v>97229.67036171022</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16033,11 +17691,15 @@
         <v>97231.88916171022</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16066,11 +17728,15 @@
         <v>97231.88916171022</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16099,11 +17765,15 @@
         <v>97024.61206171021</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16132,11 +17802,15 @@
         <v>96330.44916171022</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16165,11 +17839,15 @@
         <v>94282.07006171021</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16198,11 +17876,15 @@
         <v>93360.27846171022</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16231,11 +17913,15 @@
         <v>93088.57376171021</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16264,11 +17950,15 @@
         <v>93088.57376171021</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16297,11 +17987,15 @@
         <v>88613.45256171022</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16330,11 +18024,15 @@
         <v>91549.77786171022</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16363,11 +18061,15 @@
         <v>92020.48236171022</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16396,11 +18098,15 @@
         <v>93543.35366171022</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +18135,15 @@
         <v>93372.87918986022</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +18172,15 @@
         <v>96090.12858986022</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16495,11 +18209,17 @@
         <v>98296.29288986023</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>1453</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16528,11 +18248,15 @@
         <v>97953.10958986022</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16561,11 +18285,15 @@
         <v>97953.10958986022</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16598,7 +18326,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16631,7 +18363,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16664,7 +18400,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16697,7 +18437,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16730,7 +18474,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16763,7 +18511,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16796,7 +18548,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16829,7 +18585,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16862,7 +18622,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16895,7 +18659,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16928,7 +18696,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16961,7 +18733,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16994,7 +18770,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17027,7 +18807,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17060,7 +18844,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17093,7 +18881,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17126,7 +18918,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17159,7 +18955,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17192,7 +18992,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17225,7 +19029,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17258,7 +19066,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17291,7 +19103,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17324,7 +19140,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17357,7 +19177,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17390,7 +19214,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17423,7 +19251,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17456,7 +19288,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17489,7 +19325,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17522,7 +19362,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17555,7 +19399,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17588,7 +19436,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17621,7 +19473,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17654,7 +19510,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17687,7 +19547,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17720,7 +19584,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17753,7 +19621,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17786,7 +19658,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17815,14 +19691,16 @@
         <v>97854.88098986019</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="inlineStr"/>
     </row>
     <row r="527">
@@ -17848,7 +19726,7 @@
         <v>97736.73998986019</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17881,7 +19759,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17914,7 +19792,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17947,7 +19825,7 @@
         <v>97535.34018986019</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17980,7 +19858,7 @@
         <v>97548.43268986019</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18013,7 +19891,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18046,7 +19924,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18079,7 +19957,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18145,7 +20023,7 @@
         <v>98199.33218986019</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18178,7 +20056,7 @@
         <v>98451.68938986018</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18211,7 +20089,7 @@
         <v>98952.58578986018</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18244,7 +20122,7 @@
         <v>98618.01168986018</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18277,7 +20155,7 @@
         <v>98016.48158986018</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18310,7 +20188,7 @@
         <v>97889.58508986018</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18343,7 +20221,7 @@
         <v>97437.37148986018</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18376,7 +20254,7 @@
         <v>97438.37148986018</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18409,7 +20287,7 @@
         <v>97432.55448986018</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18442,7 +20320,7 @@
         <v>96928.66068986017</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18475,7 +20353,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18508,7 +20386,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18541,7 +20419,7 @@
         <v>96788.60928986018</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18574,7 +20452,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18607,7 +20485,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18640,7 +20518,7 @@
         <v>96795.60928986018</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18673,7 +20551,7 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18739,7 +20617,7 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18970,7 +20848,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19003,7 +20881,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19597,7 +21475,7 @@
         <v>104183.1229804202</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19630,7 +21508,7 @@
         <v>104057.2048804202</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19663,7 +21541,7 @@
         <v>104152.7950804202</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19729,7 +21607,7 @@
         <v>104447.8853804202</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19762,7 +21640,7 @@
         <v>104448.8853804202</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19795,7 +21673,7 @@
         <v>104271.7853804202</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19960,7 +21838,7 @@
         <v>106641.7966282002</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19993,7 +21871,7 @@
         <v>107342.6429804202</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20092,7 +21970,7 @@
         <v>107444.8607804202</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20125,7 +22003,7 @@
         <v>107605.4819804202</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20158,7 +22036,7 @@
         <v>107208.1582804202</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20191,7 +22069,7 @@
         <v>106610.0575804202</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20224,7 +22102,7 @@
         <v>107302.3067804202</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20752,7 +22630,7 @@
         <v>106659.1642804202</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20785,7 +22663,7 @@
         <v>106659.1642804202</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20818,7 +22696,7 @@
         <v>106844.8940804202</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20851,7 +22729,7 @@
         <v>107077.2944205202</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20917,7 +22795,7 @@
         <v>107077.0944205202</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20950,7 +22828,7 @@
         <v>106857.2864205202</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20983,7 +22861,7 @@
         <v>106869.6114205202</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21016,7 +22894,7 @@
         <v>106730.9279205202</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21049,7 +22927,7 @@
         <v>106125.8702205202</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21082,7 +22960,7 @@
         <v>106125.8702205202</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21115,7 +22993,7 @@
         <v>106125.8702205202</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21148,7 +23026,7 @@
         <v>106011.0704205202</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21181,7 +23059,7 @@
         <v>106006.3263205202</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21709,7 +23587,7 @@
         <v>99803.41517173022</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21742,7 +23620,7 @@
         <v>98802.10017173021</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21907,7 +23785,7 @@
         <v>100498.0486717302</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21940,7 +23818,7 @@
         <v>99692.07837173021</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21973,7 +23851,7 @@
         <v>100029.3931717302</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22006,7 +23884,7 @@
         <v>100029.3931717302</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22039,7 +23917,7 @@
         <v>99876.84087173021</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23458,7 +25336,7 @@
         <v>100418.3740870702</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23491,7 +25369,7 @@
         <v>100433.9543870702</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23524,7 +25402,7 @@
         <v>100433.7543870702</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23557,7 +25435,7 @@
         <v>100433.6543870702</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23590,7 +25468,7 @@
         <v>100433.5543870702</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23986,7 +25864,7 @@
         <v>99878.87650967023</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24250,7 +26128,7 @@
         <v>100988.8473096702</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24712,7 +26590,7 @@
         <v>87447.97989708021</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25482,6 +27360,6 @@
       <c r="M758" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest PPT.xlsx
+++ b/BackTest/2019-10-09 BackTest PPT.xlsx
@@ -451,7 +451,7 @@
         <v>76243.42478538999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>88594.64038538998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>88964.27938538998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>89615.06808538998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>88529.87328538999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>88529.87328538999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>87789.98708538999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>87814.73468538999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>87693.92228539</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>88020.88828539</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>80996.98798188999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>80996.74828188999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>79352.07018188998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>79332.17548188998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>79397.52638188998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>80310.94138188998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>81719.67293395998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>84459.05293395999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>83979.38793396</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>84957.32438275</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>83131.81028275</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>83141.81028275</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>84587.45488275</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2629,10 +2629,14 @@
         <v>75812.87144014999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1434</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1434</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2668,9 +2672,13 @@
         <v>1441</v>
       </c>
       <c r="J69" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>1434</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2703,967 +2711,843 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
+        <v>1434</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F71" t="n">
+        <v>384</v>
+      </c>
+      <c r="G71" t="n">
+        <v>77183.89954014999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F72" t="n">
+        <v>384.8172</v>
+      </c>
+      <c r="G72" t="n">
+        <v>76799.08234014998</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F73" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>77020.18234014999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1555</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F74" t="n">
+        <v>782.2213</v>
+      </c>
+      <c r="G74" t="n">
+        <v>76237.96104014998</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1549</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1549</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>76239.96104014998</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1571</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>76242.96104014998</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1556</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F77" t="n">
+        <v>512.9701</v>
+      </c>
+      <c r="G77" t="n">
+        <v>75729.99094014998</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F78" t="n">
+        <v>416.7199</v>
+      </c>
+      <c r="G78" t="n">
+        <v>75729.99094014998</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C79" t="n">
         <v>1441</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1519</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1441</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6</v>
+      </c>
+      <c r="G79" t="n">
+        <v>75723.99094014998</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1449</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1448</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F80" t="n">
+        <v>183.2635</v>
+      </c>
+      <c r="G80" t="n">
+        <v>75907.25444014998</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1534</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1486</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>75910.25444014998</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>75907.25444014998</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1472</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1496</v>
+      </c>
+      <c r="G83" t="n">
+        <v>75907.25444014998</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1503</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>75908.25444014998</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1497</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1471</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1497</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>75906.25444014998</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1471</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1496</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>75906.25444014998</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1478</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>75906.05444014998</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1483</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1481</v>
+      </c>
+      <c r="F88" t="n">
+        <v>63.3596</v>
+      </c>
+      <c r="G88" t="n">
+        <v>75969.41404014998</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="F89" t="n">
+        <v>488.5699</v>
+      </c>
+      <c r="G89" t="n">
+        <v>75969.41404014998</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1483</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1481</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1481</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1481</v>
+      </c>
+      <c r="F90" t="n">
+        <v>140.9055</v>
+      </c>
+      <c r="G90" t="n">
+        <v>75828.50854014998</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1483</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F91" t="n">
+        <v>142.1517</v>
+      </c>
+      <c r="G91" t="n">
+        <v>75686.35684014998</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1481</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1483</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1469</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1469</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>75684.35684014998</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.6598000000000001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>75685.01664014997</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1469</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1465</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1449</v>
+      </c>
+      <c r="F94" t="n">
+        <v>76</v>
+      </c>
+      <c r="G94" t="n">
+        <v>75609.01664014997</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1484</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1590</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1590</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F71" t="n">
-        <v>384</v>
-      </c>
-      <c r="G71" t="n">
-        <v>77183.89954014999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1586</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1540</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1590</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1519</v>
-      </c>
-      <c r="F72" t="n">
-        <v>384.8172</v>
-      </c>
-      <c r="G72" t="n">
-        <v>76799.08234014998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1540</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1588</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1590</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1519</v>
-      </c>
-      <c r="F73" t="n">
-        <v>221.1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>77020.18234014999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1555</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1519</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1555</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1519</v>
-      </c>
-      <c r="F74" t="n">
-        <v>782.2213</v>
-      </c>
-      <c r="G74" t="n">
-        <v>76237.96104014998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1549</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1549</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1549</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1549</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" t="n">
-        <v>76239.96104014998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1571</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1571</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1571</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1571</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" t="n">
-        <v>76242.96104014998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1556</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1519</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1556</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1519</v>
-      </c>
-      <c r="F77" t="n">
-        <v>512.9701</v>
-      </c>
-      <c r="G77" t="n">
-        <v>75729.99094014998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1519</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1519</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1519</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1519</v>
-      </c>
-      <c r="F78" t="n">
-        <v>416.7199</v>
-      </c>
-      <c r="G78" t="n">
-        <v>75729.99094014998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1519</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1441</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1519</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1441</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6</v>
-      </c>
-      <c r="G79" t="n">
-        <v>75723.99094014998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1449</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1448</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1449</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1448</v>
-      </c>
-      <c r="F80" t="n">
-        <v>183.2635</v>
-      </c>
-      <c r="G80" t="n">
-        <v>75907.25444014998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1534</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1534</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1486</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" t="n">
-        <v>75910.25444014998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1470</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1470</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1470</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>75907.25444014998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1472</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1472</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1470</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1496</v>
-      </c>
-      <c r="G83" t="n">
-        <v>75907.25444014998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1503</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1503</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1503</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1503</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>75908.25444014998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1497</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1471</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1497</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1471</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" t="n">
-        <v>75906.25444014998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1496</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1471</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1496</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1471</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4</v>
-      </c>
-      <c r="G86" t="n">
-        <v>75906.25444014998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1471</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1478</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1478</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1470</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G87" t="n">
-        <v>75906.05444014998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1471</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1481</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1483</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1483</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1481</v>
-      </c>
-      <c r="F88" t="n">
-        <v>63.3596</v>
-      </c>
-      <c r="G88" t="n">
-        <v>75969.41404014998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1470</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1483</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1483</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1483</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1483</v>
-      </c>
-      <c r="F89" t="n">
-        <v>488.5699</v>
-      </c>
-      <c r="G89" t="n">
-        <v>75969.41404014998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1483</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1481</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1481</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1481</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1481</v>
-      </c>
-      <c r="F90" t="n">
-        <v>140.9055</v>
-      </c>
-      <c r="G90" t="n">
-        <v>75828.50854014998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1483</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1470</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1470</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1470</v>
-      </c>
-      <c r="F91" t="n">
-        <v>142.1517</v>
-      </c>
-      <c r="G91" t="n">
-        <v>75686.35684014998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1481</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1469</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1469</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1469</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1469</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="n">
-        <v>75684.35684014998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1470</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1470</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1470</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1470</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.6598000000000001</v>
-      </c>
-      <c r="G93" t="n">
-        <v>75685.01664014997</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1469</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1465</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1449</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1465</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1449</v>
-      </c>
-      <c r="F94" t="n">
-        <v>76</v>
-      </c>
-      <c r="G94" t="n">
-        <v>75609.01664014997</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1470</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3698,7 +3582,7 @@
         <v>1449</v>
       </c>
       <c r="J95" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3739,7 +3623,7 @@
         <v>1437</v>
       </c>
       <c r="J96" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3780,7 +3664,7 @@
         <v>1462</v>
       </c>
       <c r="J97" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3821,7 +3705,7 @@
         <v>1474</v>
       </c>
       <c r="J98" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3856,11 +3740,13 @@
         <v>77940.44144014998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1527</v>
+      </c>
       <c r="J99" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3899,7 +3785,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3938,7 +3824,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3977,7 +3863,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4016,7 +3902,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4055,7 +3941,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4094,7 +3980,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4133,7 +4019,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4172,7 +4058,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4211,7 +4097,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4250,7 +4136,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4289,7 +4175,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4328,7 +4214,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4367,7 +4253,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4406,7 +4292,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4445,7 +4331,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4484,7 +4370,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4523,7 +4409,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4558,11 +4444,13 @@
         <v>78298.45234014998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1476</v>
+      </c>
       <c r="J117" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4597,11 +4485,13 @@
         <v>78228.45234014998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1488</v>
+      </c>
       <c r="J118" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4636,11 +4526,13 @@
         <v>78231.45234014998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1483</v>
+      </c>
       <c r="J119" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4675,11 +4567,13 @@
         <v>78297.45234014998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1491</v>
+      </c>
       <c r="J120" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4714,11 +4608,13 @@
         <v>78298.45234014998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1505</v>
+      </c>
       <c r="J121" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4753,11 +4649,13 @@
         <v>78295.45984014998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1511</v>
+      </c>
       <c r="J122" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4792,11 +4690,13 @@
         <v>79551.94574014998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1479</v>
+      </c>
       <c r="J123" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4831,11 +4731,13 @@
         <v>79556.94574014998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1488</v>
+      </c>
       <c r="J124" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4870,11 +4772,13 @@
         <v>78685.15414014999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1549</v>
+      </c>
       <c r="J125" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4913,7 +4817,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4952,7 +4856,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4991,7 +4895,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5030,7 +4934,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5069,7 +4973,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5108,7 +5012,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5147,7 +5051,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5186,7 +5090,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5225,7 +5129,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5260,19 +5164,19 @@
         <v>76256.31554014998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.009573213046496</v>
+        <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
@@ -5299,11 +5203,17 @@
         <v>76315.15034014998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5332,11 +5242,19 @@
         <v>76344.15034014998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1463</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5365,11 +5283,19 @@
         <v>76473.96434014998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1464</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5398,11 +5324,19 @@
         <v>76453.96434014998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1479</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5431,11 +5365,19 @@
         <v>76395.12494014998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1463</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5464,11 +5406,19 @@
         <v>76320.12494014998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1462</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +5447,19 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1449</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +5488,19 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1478</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5563,11 +5529,19 @@
         <v>75660.92494014998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1478</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5570,19 @@
         <v>76216.22494014999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1446</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5629,11 +5611,19 @@
         <v>75906.45264014999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1478</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5652,19 @@
         <v>75648.09414014999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5695,11 +5693,19 @@
         <v>75648.09414014999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1456</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5733,10 +5739,12 @@
       <c r="I149" t="n">
         <v>1456</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1470</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -5772,7 +5780,9 @@
       <c r="I150" t="n">
         <v>1450</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1470</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5811,7 +5821,9 @@
       <c r="I151" t="n">
         <v>1450</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1470</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,7 +5862,9 @@
       <c r="I152" t="n">
         <v>1469</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1470</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,7 +5903,9 @@
       <c r="I153" t="n">
         <v>1453</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1470</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,7 +5944,9 @@
       <c r="I154" t="n">
         <v>1479</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1470</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,10 +5980,14 @@
         <v>74720.34354015</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1470</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,10 +6021,14 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1493</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1470</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,10 +6062,14 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1499</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1470</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,10 +6103,14 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1499</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1470</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6110,10 +6144,14 @@
         <v>74745.35694015001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1499</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1470</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6147,10 +6185,14 @@
         <v>75025.16174015001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1505</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1470</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,10 +6226,14 @@
         <v>75025.26174015002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1510</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1470</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6221,10 +6267,14 @@
         <v>75025.16174015001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1516</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1470</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6258,10 +6308,14 @@
         <v>74846.29424015002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1510</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1470</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,10 +6349,14 @@
         <v>75180.26724015002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1505</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1470</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6332,10 +6390,14 @@
         <v>75170.27974015001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1524</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1470</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,10 +6431,14 @@
         <v>75209.77974015001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1501</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1470</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,10 +6472,14 @@
         <v>75394.44372232001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1514</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1470</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6443,10 +6513,14 @@
         <v>75394.44372232001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1521</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1470</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6480,10 +6554,14 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1521</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1470</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,10 +6595,14 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1526</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1470</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6554,10 +6636,14 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1526</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1470</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6591,10 +6677,14 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1526</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1470</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6628,10 +6718,14 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1526</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1470</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6665,10 +6759,14 @@
         <v>76521.53402232</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1526</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1470</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6702,10 +6800,14 @@
         <v>77397.70922232</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1530</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1470</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6739,10 +6841,14 @@
         <v>78265.21382232</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1550</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1470</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,10 +6882,14 @@
         <v>77530.00682232001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1577</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1470</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,7 +6926,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1470</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,10 +6962,14 @@
         <v>84472.01962232002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1470</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,7 +7006,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1470</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,7 +7045,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1470</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6961,19 +7081,23 @@
         <v>84341.33545944002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1470</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>1.111326530612245</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.173882681564246</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7002,11 +7126,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7035,15 +7155,11 @@
         <v>84068.19039900003</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7072,15 +7188,11 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7109,15 +7221,11 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7258,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7183,15 +7287,11 @@
         <v>83675.82039900003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7220,15 +7320,11 @@
         <v>84877.54159900003</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7257,15 +7353,11 @@
         <v>81729.36109900003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7294,15 +7386,11 @@
         <v>74035.08939900003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7331,15 +7419,11 @@
         <v>73825.68779900004</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +7456,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7409,11 +7489,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +7522,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +7555,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +7588,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +7621,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +7654,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +7687,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +7720,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7701,15 +7749,11 @@
         <v>80008.47549900004</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7738,15 +7782,11 @@
         <v>85173.07449900004</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7775,15 +7815,11 @@
         <v>85040.18309900005</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7812,15 +7848,11 @@
         <v>84770.39419900005</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7849,15 +7881,11 @@
         <v>83521.82569900005</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7886,15 +7914,11 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7923,15 +7947,11 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7960,15 +7980,11 @@
         <v>83294.59859900006</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7997,15 +8013,11 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8034,15 +8046,11 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8071,15 +8079,11 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8108,15 +8112,11 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8145,15 +8145,11 @@
         <v>84212.70729900007</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8182,15 +8178,11 @@
         <v>84212.58949900007</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8219,15 +8211,11 @@
         <v>81600.15519900007</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +8248,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8297,11 +8281,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8334,11 +8314,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8347,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8408,11 +8380,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8445,11 +8413,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +8446,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +8479,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8556,11 +8512,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +8545,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8630,11 +8578,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +8611,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +8644,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8741,11 +8677,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +8710,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8815,11 +8743,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8852,11 +8776,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8889,11 +8809,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +8842,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8963,11 +8875,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +8908,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9037,11 +8941,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9074,11 +8974,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9111,11 +9007,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9148,11 +9040,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9185,11 +9073,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9222,11 +9106,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +9139,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +9172,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +9205,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +9238,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9407,11 +9271,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9444,11 +9304,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9481,11 +9337,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +9370,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9555,11 +9403,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9588,15 +9432,11 @@
         <v>96314.11026619011</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9625,15 +9465,11 @@
         <v>96610.60716619011</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9662,15 +9498,11 @@
         <v>98696.29646619011</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9699,15 +9531,11 @@
         <v>102326.8052661901</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9736,15 +9564,11 @@
         <v>101674.4645661901</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9773,15 +9597,11 @@
         <v>103647.2258661901</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9810,15 +9630,11 @@
         <v>103439.2251923601</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9847,15 +9663,11 @@
         <v>100465.4251923601</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9884,15 +9696,11 @@
         <v>97483.1701155701</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9921,15 +9729,11 @@
         <v>97501.4452155701</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9958,15 +9762,11 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9995,15 +9795,11 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10032,15 +9828,11 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10069,15 +9861,11 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10106,15 +9894,11 @@
         <v>96896.3178155701</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10143,15 +9927,11 @@
         <v>96677.2467155701</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10180,15 +9960,11 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10217,15 +9993,11 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10254,15 +10026,11 @@
         <v>98771.5326155701</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10291,15 +10059,11 @@
         <v>98780.28701557011</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10328,15 +10092,11 @@
         <v>99038.62921557011</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10365,15 +10125,11 @@
         <v>99189.78641557011</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10402,15 +10158,11 @@
         <v>99658.2866155701</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10439,15 +10191,11 @@
         <v>99657.0089155701</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10476,15 +10224,11 @@
         <v>99671.3037155701</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10513,15 +10257,11 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10550,15 +10290,11 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10587,15 +10323,11 @@
         <v>97163.8010155701</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10624,15 +10356,11 @@
         <v>96903.45241557011</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10661,15 +10389,11 @@
         <v>96902.45241557011</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10698,15 +10422,11 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10735,15 +10455,11 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10772,15 +10488,11 @@
         <v>97942.04331557012</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10809,15 +10521,11 @@
         <v>99824.70531557011</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10846,15 +10554,11 @@
         <v>99819.67051557012</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10883,15 +10587,11 @@
         <v>99820.63811557012</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10920,15 +10620,11 @@
         <v>99673.23971557012</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10957,15 +10653,11 @@
         <v>99322.56971557012</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10994,15 +10686,11 @@
         <v>97287.64671557012</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11031,15 +10719,11 @@
         <v>96336.81501557013</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +10756,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +10789,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11142,15 +10818,11 @@
         <v>101417.4992155701</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11179,15 +10851,11 @@
         <v>101147.5829155701</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11220,11 +10888,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11257,11 +10921,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11290,15 +10950,11 @@
         <v>104269.2498155701</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11327,15 +10983,11 @@
         <v>104176.2282155702</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11364,15 +11016,11 @@
         <v>102831.5489155702</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11401,15 +11049,11 @@
         <v>102898.2664155701</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11442,11 +11086,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11475,15 +11115,11 @@
         <v>103727.4322609002</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11512,15 +11148,11 @@
         <v>103727.5322609002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11549,15 +11181,11 @@
         <v>103725.5322609002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11586,15 +11214,11 @@
         <v>103732.0409609002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11623,15 +11247,11 @@
         <v>103879.9409609002</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11660,15 +11280,11 @@
         <v>103890.3695609002</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11697,15 +11313,11 @@
         <v>103679.2250609002</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11734,15 +11346,11 @@
         <v>103477.2250609002</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11775,11 +11383,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11812,11 +11416,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11845,15 +11445,11 @@
         <v>103014.4719609002</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11886,11 +11482,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11923,11 +11515,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11960,11 +11548,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11997,11 +11581,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +11614,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12071,11 +11647,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12108,11 +11680,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12145,11 +11713,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12182,11 +11746,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12219,11 +11779,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12256,11 +11812,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +11845,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12330,11 +11878,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12367,11 +11911,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12404,11 +11944,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12441,11 +11977,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12478,11 +12010,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12515,11 +12043,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12552,11 +12076,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12589,11 +12109,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12626,11 +12142,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12663,11 +12175,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12700,11 +12208,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12737,11 +12241,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12774,11 +12274,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12811,11 +12307,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12848,11 +12340,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12885,11 +12373,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12922,11 +12406,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12959,11 +12439,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12996,11 +12472,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13033,11 +12505,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13070,11 +12538,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13107,11 +12571,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +12604,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13181,11 +12637,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +12670,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +12703,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +12736,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +12769,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13366,11 +12802,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13403,11 +12835,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13440,11 +12868,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +12901,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13514,11 +12934,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13551,11 +12967,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13588,11 +13000,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13625,11 +13033,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13662,11 +13066,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13699,11 +13099,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13736,11 +13132,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13773,11 +13165,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13810,11 +13198,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13847,11 +13231,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +13264,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13921,11 +13297,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +13330,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13995,11 +13363,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14032,11 +13396,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14069,11 +13429,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14106,11 +13462,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14143,11 +13495,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14180,11 +13528,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14217,11 +13561,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14254,11 +13594,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14291,11 +13627,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14328,11 +13660,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14365,11 +13693,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14402,11 +13726,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14439,11 +13759,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +13792,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14513,11 +13825,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14550,11 +13858,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14587,11 +13891,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14624,11 +13924,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14661,11 +13957,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14698,11 +13990,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14735,11 +14023,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14772,11 +14056,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14809,11 +14089,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14846,11 +14122,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14883,11 +14155,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14920,11 +14188,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14957,11 +14221,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14994,11 +14254,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15031,11 +14287,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15068,11 +14320,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +14353,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15142,11 +14386,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +14419,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15216,11 +14452,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15253,11 +14485,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15290,11 +14518,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15327,11 +14551,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15364,11 +14584,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15401,11 +14617,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15438,11 +14650,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15475,11 +14683,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15512,11 +14716,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15549,11 +14749,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15586,11 +14782,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15623,11 +14815,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15660,11 +14848,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +14881,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15734,11 +14914,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15771,11 +14947,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15808,11 +14980,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15845,11 +15013,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15882,11 +15046,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15919,11 +15079,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15956,11 +15112,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15993,11 +15145,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16030,11 +15178,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16067,11 +15211,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16104,11 +15244,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16141,11 +15277,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16178,11 +15310,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16215,11 +15343,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16252,11 +15376,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16289,11 +15409,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16326,11 +15442,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16363,11 +15475,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16400,11 +15508,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16437,11 +15541,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16474,11 +15574,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16511,11 +15607,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16548,11 +15640,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16585,11 +15673,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16622,11 +15706,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16659,11 +15739,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16696,11 +15772,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16733,11 +15805,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16770,11 +15838,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16807,11 +15871,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16844,11 +15904,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16881,11 +15937,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +15970,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16955,11 +16003,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16992,11 +16036,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17029,11 +16069,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17066,11 +16102,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17103,11 +16135,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17140,11 +16168,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17177,11 +16201,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17214,11 +16234,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17251,11 +16267,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17288,11 +16300,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17325,11 +16333,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17362,11 +16366,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17399,11 +16399,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17436,11 +16432,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17473,11 +16465,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17510,11 +16498,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17547,11 +16531,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17584,11 +16564,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17621,11 +16597,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17658,11 +16630,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17695,11 +16663,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17732,11 +16696,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17769,11 +16729,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17806,11 +16762,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17843,11 +16795,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17880,11 +16828,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17917,11 +16861,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17954,11 +16894,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17991,11 +16927,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18028,11 +16960,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18065,11 +16993,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18102,11 +17026,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +17059,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18176,11 +17092,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18209,17 +17121,11 @@
         <v>98296.29288986023</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>1453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18252,11 +17158,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18289,11 +17191,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18326,11 +17224,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18363,11 +17257,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18400,11 +17290,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18437,11 +17323,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18474,11 +17356,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18511,11 +17389,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18548,11 +17422,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18585,11 +17455,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18622,11 +17488,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18659,11 +17521,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18696,11 +17554,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +17587,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18770,11 +17620,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18807,11 +17653,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18844,11 +17686,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18881,11 +17719,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18918,11 +17752,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18955,11 +17785,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18992,11 +17818,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19029,11 +17851,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19066,11 +17884,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19103,11 +17917,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19140,11 +17950,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19177,11 +17983,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19214,11 +18016,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19251,11 +18049,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19288,11 +18082,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19325,11 +18115,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19362,11 +18148,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19399,11 +18181,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19436,11 +18214,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19473,11 +18247,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19510,11 +18280,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19547,11 +18313,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19584,11 +18346,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19621,11 +18379,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19658,11 +18412,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19691,16 +18441,14 @@
         <v>97854.88098986019</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
       <c r="M526" t="inlineStr"/>
     </row>
     <row r="527">
@@ -19726,7 +18474,7 @@
         <v>97736.73998986019</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19759,7 +18507,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19792,7 +18540,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19825,7 +18573,7 @@
         <v>97535.34018986019</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19858,7 +18606,7 @@
         <v>97548.43268986019</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19891,7 +18639,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19924,7 +18672,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19957,7 +18705,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20023,7 +18771,7 @@
         <v>98199.33218986019</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20056,7 +18804,7 @@
         <v>98451.68938986018</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20089,7 +18837,7 @@
         <v>98952.58578986018</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20122,7 +18870,7 @@
         <v>98618.01168986018</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20155,7 +18903,7 @@
         <v>98016.48158986018</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20188,7 +18936,7 @@
         <v>97889.58508986018</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20221,7 +18969,7 @@
         <v>97437.37148986018</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20254,7 +19002,7 @@
         <v>97438.37148986018</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20287,7 +19035,7 @@
         <v>97432.55448986018</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20320,7 +19068,7 @@
         <v>96928.66068986017</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20353,7 +19101,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20386,7 +19134,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20419,7 +19167,7 @@
         <v>96788.60928986018</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20452,7 +19200,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20485,7 +19233,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20518,7 +19266,7 @@
         <v>96795.60928986018</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20551,7 +19299,7 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20617,7 +19365,7 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20848,7 +19596,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20881,7 +19629,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21475,7 +20223,7 @@
         <v>104183.1229804202</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21508,7 +20256,7 @@
         <v>104057.2048804202</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21541,7 +20289,7 @@
         <v>104152.7950804202</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21607,7 +20355,7 @@
         <v>104447.8853804202</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21640,7 +20388,7 @@
         <v>104448.8853804202</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21673,7 +20421,7 @@
         <v>104271.7853804202</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21904,7 +20652,7 @@
         <v>108054.0534804202</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21937,7 +20685,7 @@
         <v>107635.9658804202</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -25336,7 +24084,7 @@
         <v>100418.3740870702</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25369,7 +24117,7 @@
         <v>100433.9543870702</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25402,7 +24150,7 @@
         <v>100433.7543870702</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25435,7 +24183,7 @@
         <v>100433.6543870702</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25468,7 +24216,7 @@
         <v>100433.5543870702</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25864,7 +24612,7 @@
         <v>99878.87650967023</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26128,7 +24876,7 @@
         <v>100988.8473096702</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
